--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1369">
   <si>
     <t>locus</t>
   </si>
@@ -4010,6 +4010,117 @@
   </si>
   <si>
     <t>Não tem</t>
+  </si>
+  <si>
+    <t>NGO_t01</t>
+  </si>
+  <si>
+    <t>GeneID:3370869</t>
+  </si>
+  <si>
+    <t>tRNA-Leu</t>
+  </si>
+  <si>
+    <t>[13984:14067](-)</t>
+  </si>
+  <si>
+    <t>NGO_t02</t>
+  </si>
+  <si>
+    <t>GeneID:3370808</t>
+  </si>
+  <si>
+    <t>tRNA-Lys</t>
+  </si>
+  <si>
+    <t>[58419:58492](+)</t>
+  </si>
+  <si>
+    <t>NGO_t03</t>
+  </si>
+  <si>
+    <t>GeneID:3370868</t>
+  </si>
+  <si>
+    <t>tRNA-Pro</t>
+  </si>
+  <si>
+    <t>[142823:142897](-)</t>
+  </si>
+  <si>
+    <t>NGO_t04</t>
+  </si>
+  <si>
+    <t>GeneID:3370809</t>
+  </si>
+  <si>
+    <t>[227046:227120](+)</t>
+  </si>
+  <si>
+    <t>NGO0008</t>
+  </si>
+  <si>
+    <t>[10286:11071](+)</t>
+  </si>
+  <si>
+    <t>GeneID:3283055</t>
+  </si>
+  <si>
+    <t>NGO0009</t>
+  </si>
+  <si>
+    <t>[11090:11546](+)</t>
+  </si>
+  <si>
+    <t>GeneID:3283056</t>
+  </si>
+  <si>
+    <t>NGO0076</t>
+  </si>
+  <si>
+    <t>[80405:81337](+)</t>
+  </si>
+  <si>
+    <t>GeneID:3282261</t>
+  </si>
+  <si>
+    <t>NGO0108</t>
+  </si>
+  <si>
+    <t>[121324:121890](+)</t>
+  </si>
+  <si>
+    <t>GeneID:3282425</t>
+  </si>
+  <si>
+    <t>NGO0147</t>
+  </si>
+  <si>
+    <t>[156344:157582](-)</t>
+  </si>
+  <si>
+    <t>GeneID:3281304</t>
+  </si>
+  <si>
+    <t>NGO0218</t>
+  </si>
+  <si>
+    <t>[221979:222460](-)</t>
+  </si>
+  <si>
+    <t>GeneID:3281454</t>
+  </si>
+  <si>
+    <t>NGO0238</t>
+  </si>
+  <si>
+    <t>[241341:242338](+)</t>
+  </si>
+  <si>
+    <t>GeneID:3281513</t>
+  </si>
+  <si>
+    <t>pseudogene</t>
   </si>
 </sst>
 </file>
@@ -4494,10 +4605,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4841,13 +4955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
@@ -4857,13 +4971,13 @@
     <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="41.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="112.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="112.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="44.5703125" style="1" customWidth="1"/>
     <col min="11" max="12" width="41.140625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4888,11 +5002,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4917,11 +5031,11 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -4946,11 +5060,11 @@
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4975,11 +5089,11 @@
       <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -5004,11 +5118,11 @@
       <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -5033,11 +5147,11 @@
       <c r="H6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -5062,5721 +5176,5875 @@
       <c r="H7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="I18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="I24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="I25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="I26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="I28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="I34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="I36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="I40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="I43" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="I44" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="I45" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="I46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="I47" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="I50" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="I51" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="I52" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="I53" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I54" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I55" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="I56" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I58" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="I59" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="I61" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="I62" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="I63" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="I64" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I65" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I66" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="I67" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I68" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="69" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="I72" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="I73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="I74" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I75" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I76" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="I77" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="I78" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="I79" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I80" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="E81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="I81" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="E82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I82" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="83" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I83" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="84" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="1" t="s">
+      <c r="E84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="I84" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="E85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="I85" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="E86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="I86" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="I87" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="E88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I88" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="89" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I89" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="90" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I90" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="91" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="E92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="I92" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="E93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="I93" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="I94" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="E95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I95" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="96" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="1" t="s">
+      <c r="E96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="I96" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="1" t="s">
+      <c r="E97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I97" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="98" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="E98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I98" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="99" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I99" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="100" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="I107" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I108" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="109" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="I109" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="110" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="I110" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="E111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="I111" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>10</v>
+        <v>717</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>741</v>
+        <v>10</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="E119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="I119" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="I120" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="E121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="I121" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="E122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="I122" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="E123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="I123" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I124" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="125" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="E125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>807</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>1331</v>
       </c>
       <c r="H125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="I129" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="I130" s="2" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="131" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I131" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="132" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="E132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="I132" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="I133" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="E134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="I134" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="B135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I135" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="E140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="I140" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="141" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="1" t="s">
+      <c r="E141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="I141" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="I142" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="1" t="s">
+      <c r="E143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="I143" s="2" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+    <row r="144" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="E144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H144" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="I144" s="2" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="145" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="E145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="I145" s="2" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="146" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="I146" s="2" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="147" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="B147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="1" t="s">
+      <c r="E147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="I147" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="B148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="I148" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="1" t="s">
+      <c r="E149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I145" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="I149" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="1" t="s">
+      <c r="E150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="I150" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="B151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="E151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="I151" s="2" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="152" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="B152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="E152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="I148" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="I152" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="B153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="E153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="I153" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="1" t="s">
+      <c r="E154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="I154" s="2" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+    <row r="155" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="B155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="E155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="H155" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="I155" s="2" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    <row r="156" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I156" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="157" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="E157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="I157" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="B158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="1" t="s">
+      <c r="E158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="I158" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="B159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="E159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="I159" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="1" t="s">
+      <c r="E160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="H160" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="I160" s="2" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="161" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="E161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I161" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="162" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" s="1" t="s">
+      <c r="E162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="I162" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="163" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="B163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="1" t="s">
+      <c r="E163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="I159" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="I163" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="B164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="1" t="s">
+      <c r="E164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H164" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="I160" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="I164" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="B165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="E165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="I161" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="I165" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="B166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="1" t="s">
+      <c r="E166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="H166" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="I162" s="1" t="s">
+      <c r="I166" s="2" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="167" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="B167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" s="1" t="s">
+      <c r="E167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="H167" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="I163" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="I167" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="1" t="s">
+      <c r="E168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="I168" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="169" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="B169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F169" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="I169" s="2" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="170" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="B170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="1" t="s">
+      <c r="E170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="I166" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="I170" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C167" s="1" t="s">
+      <c r="B171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="1" t="s">
+      <c r="E171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="I167" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="I171" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="B172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" s="1" t="s">
+      <c r="E172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H172" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I168" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="I172" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="B173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F169" s="1" t="s">
+      <c r="E173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H173" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I169" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="I173" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="B174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" s="1" t="s">
+      <c r="E174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="H174" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="I174" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="B175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" s="1" t="s">
+      <c r="E175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="H175" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="I175" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="B176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="E176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G176" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="H176" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="I176" s="2" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    <row r="177" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C173" s="1" t="s">
+      <c r="B177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" s="1" t="s">
+      <c r="E177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="H177" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="I173" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="I177" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="1" t="s">
+      <c r="E178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="I178" s="2" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    <row r="179" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="I179" s="2" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+    <row r="180" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" s="1" t="s">
+      <c r="B180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="1" t="s">
+      <c r="E180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="H176" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="I180" s="2" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="181" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="I181" s="2" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="182" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" s="1" t="s">
+      <c r="E182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="I182" s="2" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="183" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="B183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179" s="1" t="s">
+      <c r="E183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="I183" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C180" s="1" t="s">
+      <c r="B184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" s="1" t="s">
+      <c r="E184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="I184" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="B185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" s="1" t="s">
+      <c r="E185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="I181" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="I185" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" s="1" t="s">
+      <c r="B186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="1" t="s">
+      <c r="E186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="I186" s="2" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    <row r="187" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C183" s="1" t="s">
+      <c r="B188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="I188" s="2" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+    <row r="189" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="B189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="I184" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="I189" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" s="1" t="s">
+      <c r="B190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="1" t="s">
+      <c r="E190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="I190" s="2" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+    <row r="191" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" s="1" t="s">
+      <c r="B191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" s="1" t="s">
+      <c r="E191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="I186" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="I191" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" s="1" t="s">
+      <c r="B192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" s="1" t="s">
+      <c r="E192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="I187" s="1" t="s">
+      <c r="I192" s="2" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="193" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="B193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" s="1" t="s">
+      <c r="E193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="I193" s="2" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="194" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C189" s="1" t="s">
+      <c r="B194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="1" t="s">
+      <c r="E194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="H194" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="I189" s="1" t="s">
+      <c r="I194" s="2" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    <row r="195" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C190" s="1" t="s">
+      <c r="B195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" s="1" t="s">
+      <c r="E195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I190" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="I195" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="B196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" s="1" t="s">
+      <c r="E196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I191" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="I196" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="B197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="1" t="s">
+      <c r="E197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I192" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="I197" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="B198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F193" s="1" t="s">
+      <c r="E198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="I198" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    <row r="199" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="B199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F194" s="1" t="s">
+      <c r="E199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="H194" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="I194" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="I199" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F200" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="I195" s="1" t="s">
+      <c r="I200" s="2" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+    <row r="201" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="B201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F196" s="1" t="s">
+      <c r="E201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="I196" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="I201" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C197" s="1" t="s">
+      <c r="B202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F197" s="1" t="s">
+      <c r="E202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="I197" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="I202" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C198" s="1" t="s">
+      <c r="B203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F203" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="I203" s="2" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="204" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C199" s="1" t="s">
+      <c r="B204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="H204" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="I199" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="I204" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="B205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F200" s="1" t="s">
+      <c r="E205" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G205" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I200" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="I205" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C201" s="1" t="s">
+      <c r="B206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F201" s="1" t="s">
+      <c r="E206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G206" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="H206" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="I201" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="I206" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="F208" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G208" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="H208" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="I208" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+    <row r="209" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C203" s="1" t="s">
+      <c r="B209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="F209" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G209" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="H209" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="I209" s="2" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+    <row r="210" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="I204" s="1" t="s">
+      <c r="I210" s="2" t="s">
         <v>1327</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1368</v>
       </c>
     </row>
   </sheetData>

--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1370">
   <si>
     <t>locus</t>
   </si>
@@ -4121,6 +4121,9 @@
   </si>
   <si>
     <t>pseudogene</t>
+  </si>
+  <si>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -4955,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4977,7 +4980,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5005,8 +5008,11 @@
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5035,7 +5041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -5093,7 +5099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1350</v>
       </c>
@@ -5194,233 +5200,218 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>38</v>
@@ -5428,28 +5419,28 @@
     </row>
     <row r="17" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>38</v>
@@ -5457,28 +5448,28 @@
     </row>
     <row r="18" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>38</v>
@@ -5486,28 +5477,28 @@
     </row>
     <row r="19" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>38</v>
@@ -5515,144 +5506,144 @@
     </row>
     <row r="20" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>38</v>
@@ -5660,28 +5651,28 @@
     </row>
     <row r="25" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>38</v>
@@ -5689,28 +5680,28 @@
     </row>
     <row r="26" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>38</v>
@@ -5718,521 +5709,521 @@
     </row>
     <row r="27" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>38</v>
@@ -6240,28 +6231,28 @@
     </row>
     <row r="45" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>38</v>
@@ -6269,28 +6260,28 @@
     </row>
     <row r="46" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>38</v>
@@ -6298,28 +6289,28 @@
     </row>
     <row r="47" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>38</v>
@@ -6327,115 +6318,115 @@
     </row>
     <row r="48" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>312</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>316</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>38</v>
@@ -6443,28 +6434,28 @@
     </row>
     <row r="52" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>38</v>
@@ -6472,28 +6463,28 @@
     </row>
     <row r="53" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1331</v>
+        <v>340</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>38</v>
@@ -6501,245 +6492,245 @@
     </row>
     <row r="54" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>352</v>
+        <v>1331</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>354</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>356</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>38</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>371</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>378</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>38</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>1353</v>
+        <v>388</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1354</v>
+        <v>389</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1355</v>
+        <v>390</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1368</v>
+        <v>394</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>1353</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>396</v>
+        <v>1354</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>399</v>
+        <v>1355</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>38</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>38</v>
@@ -6747,25 +6738,25 @@
     </row>
     <row r="63" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>37</v>
@@ -6776,28 +6767,28 @@
     </row>
     <row r="64" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>38</v>
@@ -6805,199 +6796,199 @@
     </row>
     <row r="65" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>418</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>421</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>425</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>16</v>
+        <v>418</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>432</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>37</v>
@@ -7008,28 +6999,28 @@
     </row>
     <row r="72" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>466</v>
+        <v>37</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>38</v>
@@ -7037,28 +7028,28 @@
     </row>
     <row r="73" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>38</v>
@@ -7066,28 +7057,28 @@
     </row>
     <row r="74" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>38</v>
@@ -7095,115 +7086,115 @@
     </row>
     <row r="75" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>484</v>
+        <v>10</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>488</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>10</v>
+        <v>493</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>38</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>38</v>
@@ -7211,28 +7202,28 @@
     </row>
     <row r="79" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>38</v>
@@ -7240,173 +7231,173 @@
     </row>
     <row r="80" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>277</v>
+        <v>515</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>521</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>527</v>
+        <v>277</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>38</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>534</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>16</v>
+        <v>536</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>38</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>38</v>
@@ -7414,25 +7405,25 @@
     </row>
     <row r="86" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>554</v>
@@ -7443,28 +7434,28 @@
     </row>
     <row r="87" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>563</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>38</v>
@@ -7472,158 +7463,158 @@
     </row>
     <row r="88" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>10</v>
+        <v>563</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>573</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>577</v>
+        <v>10</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>1356</v>
+        <v>582</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1357</v>
+        <v>583</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1358</v>
+        <v>584</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>1368</v>
+        <v>588</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>1356</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>591</v>
+        <v>1357</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>594</v>
+        <v>1358</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>38</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>38</v>
@@ -7631,28 +7622,28 @@
     </row>
     <row r="94" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>38</v>
@@ -7660,199 +7651,199 @@
     </row>
     <row r="95" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>613</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>38</v>
+        <v>613</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>626</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>635</v>
+        <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>638</v>
+        <v>10</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>16</v>
+        <v>635</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>10</v>
+        <v>638</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>37</v>
+        <v>641</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>38</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>37</v>
@@ -7863,25 +7854,25 @@
     </row>
     <row r="102" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>37</v>
@@ -7892,25 +7883,25 @@
     </row>
     <row r="103" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>37</v>
@@ -7921,28 +7912,28 @@
     </row>
     <row r="104" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>668</v>
+        <v>37</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>38</v>
@@ -7950,28 +7941,28 @@
     </row>
     <row r="105" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>37</v>
+        <v>668</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>38</v>
@@ -7979,25 +7970,25 @@
     </row>
     <row r="106" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>37</v>
@@ -8008,28 +7999,28 @@
     </row>
     <row r="107" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1331</v>
+        <v>678</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>533</v>
+        <v>37</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>38</v>
@@ -8037,115 +8028,115 @@
     </row>
     <row r="108" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>684</v>
+        <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>688</v>
+        <v>1331</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>689</v>
+        <v>533</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>690</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>16</v>
+        <v>684</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>37</v>
+        <v>696</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>38</v>
+        <v>697</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>708</v>
+        <v>37</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>38</v>
@@ -8153,28 +8144,28 @@
     </row>
     <row r="112" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>37</v>
+        <v>708</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>38</v>
@@ -8182,83 +8173,83 @@
     </row>
     <row r="113" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>717</v>
+        <v>10</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>721</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>10</v>
+        <v>717</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>37</v>
+        <v>720</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>38</v>
+        <v>721</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>37</v>
@@ -8269,28 +8260,28 @@
     </row>
     <row r="116" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>737</v>
+        <v>37</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>38</v>
@@ -8298,28 +8289,28 @@
     </row>
     <row r="117" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>741</v>
+        <v>10</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>38</v>
@@ -8327,28 +8318,28 @@
     </row>
     <row r="118" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>10</v>
+        <v>741</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>37</v>
+        <v>744</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>38</v>
@@ -8356,25 +8347,25 @@
     </row>
     <row r="119" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>37</v>
@@ -8385,28 +8376,28 @@
     </row>
     <row r="120" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>760</v>
+        <v>37</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>38</v>
@@ -8414,28 +8405,28 @@
     </row>
     <row r="121" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>38</v>
@@ -8443,28 +8434,28 @@
     </row>
     <row r="122" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>38</v>
@@ -8472,28 +8463,28 @@
     </row>
     <row r="123" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>38</v>
@@ -8501,129 +8492,129 @@
     </row>
     <row r="124" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>780</v>
+        <v>16</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>783</v>
+        <v>10</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>787</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>16</v>
+        <v>780</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>10</v>
+        <v>783</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1331</v>
+        <v>785</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>37</v>
+        <v>786</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>38</v>
+        <v>787</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>1359</v>
+        <v>788</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1360</v>
+        <v>789</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1361</v>
+        <v>790</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>1331</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1368</v>
+        <v>37</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>16</v>
+        <v>1359</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>793</v>
+        <v>1360</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>796</v>
+        <v>1361</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>38</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>38</v>
@@ -8631,28 +8622,28 @@
     </row>
     <row r="129" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1331</v>
+        <v>802</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>38</v>
@@ -8660,115 +8651,115 @@
     </row>
     <row r="130" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>810</v>
+        <v>16</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>813</v>
+        <v>10</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>815</v>
+        <v>1331</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>817</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>16</v>
+        <v>810</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>10</v>
+        <v>813</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>572</v>
+        <v>816</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>573</v>
+        <v>817</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>828</v>
+        <v>572</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>38</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>830</v>
+        <v>16</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>833</v>
+        <v>10</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>38</v>
@@ -8776,28 +8767,28 @@
     </row>
     <row r="134" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>16</v>
+        <v>830</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>10</v>
+        <v>833</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>37</v>
+        <v>836</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>38</v>
@@ -8805,25 +8796,25 @@
     </row>
     <row r="135" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>37</v>
@@ -8834,25 +8825,25 @@
     </row>
     <row r="136" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>37</v>
@@ -8863,25 +8854,25 @@
     </row>
     <row r="137" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>37</v>
@@ -8892,28 +8883,28 @@
     </row>
     <row r="138" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>862</v>
+        <v>37</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>38</v>
@@ -8921,28 +8912,28 @@
     </row>
     <row r="139" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>37</v>
+        <v>862</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>38</v>
@@ -8950,86 +8941,86 @@
     </row>
     <row r="140" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>873</v>
+        <v>37</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>874</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>38</v>
+        <v>874</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>38</v>
@@ -9037,173 +9028,173 @@
     </row>
     <row r="143" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>888</v>
+        <v>16</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>894</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>16</v>
+        <v>912</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>606</v>
+        <v>917</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>38</v>
+        <v>918</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>929</v>
+        <v>606</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>38</v>
@@ -9211,28 +9202,28 @@
     </row>
     <row r="149" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>37</v>
+        <v>929</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>38</v>
@@ -9240,28 +9231,28 @@
     </row>
     <row r="150" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>862</v>
+        <v>37</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>38</v>
@@ -9269,86 +9260,86 @@
     </row>
     <row r="151" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>945</v>
+        <v>862</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>946</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>38</v>
+        <v>946</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>38</v>
@@ -9356,144 +9347,144 @@
     </row>
     <row r="154" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>960</v>
+        <v>16</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>966</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>975</v>
+        <v>16</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>978</v>
+        <v>10</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>16</v>
+        <v>975</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>10</v>
+        <v>978</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>38</v>
+        <v>982</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>38</v>
@@ -9501,28 +9492,28 @@
     </row>
     <row r="159" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>37</v>
+        <v>994</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>38</v>
@@ -9530,144 +9521,144 @@
     </row>
     <row r="160" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1001</v>
+        <v>16</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>1006</v>
+        <v>37</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>1007</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>16</v>
+        <v>1017</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>38</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>38</v>
@@ -9675,25 +9666,25 @@
     </row>
     <row r="165" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>1035</v>
@@ -9704,173 +9695,173 @@
     </row>
     <row r="166" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>1047</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>38</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1055</v>
+        <v>16</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1061</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>16</v>
+        <v>1055</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1065</v>
+        <v>10</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>10</v>
+        <v>1065</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>38</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>38</v>
@@ -9878,28 +9869,28 @@
     </row>
     <row r="172" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>394</v>
+        <v>1081</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>38</v>
@@ -9907,28 +9898,28 @@
     </row>
     <row r="173" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>37</v>
+        <v>394</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>38</v>
@@ -9936,28 +9927,28 @@
     </row>
     <row r="174" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>1097</v>
+        <v>37</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>38</v>
@@ -9965,28 +9956,28 @@
     </row>
     <row r="175" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>38</v>
@@ -9994,260 +9985,260 @@
     </row>
     <row r="176" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>38</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1118</v>
+        <v>16</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1124</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1129</v>
+        <v>10</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>16</v>
+        <v>1126</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>10</v>
+        <v>1129</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1144</v>
+        <v>10</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1150</v>
+        <v>16</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>10</v>
+        <v>1144</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>16</v>
+        <v>1150</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>38</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>38</v>
@@ -10255,28 +10246,28 @@
     </row>
     <row r="185" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>38</v>
@@ -10284,300 +10275,300 @@
     </row>
     <row r="186" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>107</v>
+        <v>1174</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1180</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>1362</v>
+        <v>1175</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1363</v>
+        <v>1176</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1364</v>
+        <v>1177</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>1179</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>1368</v>
+        <v>107</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>16</v>
+        <v>1362</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1182</v>
+        <v>1363</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>1186</v>
+        <v>1364</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>1188</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>38</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>10</v>
+        <v>1192</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>1202</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>862</v>
+        <v>1201</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>38</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>1213</v>
+        <v>862</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>1214</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>37</v>
+        <v>1227</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>38</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>37</v>
@@ -10588,25 +10579,25 @@
     </row>
     <row r="197" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>37</v>
@@ -10617,144 +10608,144 @@
     </row>
     <row r="198" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>1254</v>
+        <v>37</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1256</v>
+        <v>16</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1259</v>
+        <v>10</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>1263</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>16</v>
+        <v>1256</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>10</v>
+        <v>1259</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>38</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>38</v>
@@ -10762,86 +10753,86 @@
     </row>
     <row r="203" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1279</v>
+        <v>10</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>1283</v>
+        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>38</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>10</v>
+        <v>1287</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>37</v>
+        <v>1290</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>38</v>
@@ -10849,28 +10840,28 @@
     </row>
     <row r="206" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>1301</v>
+        <v>37</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>38</v>
@@ -10878,156 +10869,171 @@
     </row>
     <row r="207" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>1365</v>
+        <v>1296</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1366</v>
+        <v>1297</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1367</v>
+        <v>1298</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>1300</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>1368</v>
+        <v>1301</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>1303</v>
+        <v>1365</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1304</v>
+        <v>1366</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>1308</v>
+        <v>1367</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>1310</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>16</v>
+        <v>1303</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1320</v>
+        <v>16</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>1332</v>
+        <v>1319</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1320</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1333</v>
+        <v>1322</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>1325</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>1334</v>
+        <v>1326</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>1342</v>
@@ -11035,16 +11041,16 @@
     </row>
     <row r="215" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>1368</v>
+        <v>1342</v>
       </c>
     </row>
   </sheetData>

--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="1769">
   <si>
     <t>locus</t>
   </si>
@@ -5244,6 +5244,85 @@
   </si>
   <si>
     <t>Periplasm</t>
+  </si>
+  <si>
+    <t>Carbohydrate biosynthesis; gluconeogenesis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbohydrate biosynthesis; gluconeogenesis. Carbohydrate degradation; glycolysis; D-glyceraldehyde 3- phosphate from glycerone phosphate: step 1/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino-acid biosynthesis; L-arginine biosynthesis; N(2)- acetyl-L-ornithine from L-glutamate: step 1/4. </t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism; UMP biosynthesis via de novo pathway; UMP from orotate: step 1/2.</t>
+  </si>
+  <si>
+    <t>Metabolic intermediate biosynthesis; 1-deoxy-D-xylulose 5-phosphate biosynthesis; 1-deoxy-D-xylulose 5-phosphate from D- glyceraldehyde 3-phosphate and pyruvate: step 1/1.</t>
+  </si>
+  <si>
+    <t>Porphyrin-containing compound metabolism; protoporphyrin- IX biosynthesis; 5-aminolevulinate from L-glutamyl-tRNA(Glu): step 2/2.</t>
+  </si>
+  <si>
+    <t>tRNA modification; tRNA-queuosine biosynthesis.</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-arginine biosynthesis; carbamoyl phosphate from bicarbonate: step 1/1. Pyrimidine metabolism; UMP biosynthesis via de novo pathway; (S)-dihydroorotate from bicarbonate: step 1/3.</t>
+  </si>
+  <si>
+    <t>One-carbon metabolism; tetrahydrofolate interconversion.</t>
+  </si>
+  <si>
+    <t>Protein modification; lipoprotein biosynthesis (signal peptide cleavage).</t>
+  </si>
+  <si>
+    <t>Isoprenoid biosynthesis; dimethylallyl diphosphate biosynthesis; dimethylallyl diphosphate from (2E)-4-hydroxy-3- methylbutenyl diphosphate: step 1/1. Isoprenoid biosynthesis; isopentenyl diphosphate biosynthesis via DXP pathway; isopentenyl diphosphate from 1- deoxy-D-xylulose 5-phosphate: step 6/6.</t>
+  </si>
+  <si>
+    <t>Cofactor biosynthesis; riboflavin biosynthesis; 5-amino- 6-(D-ribitylamino)uracil from GTP: step 2/4. Cofactor biosynthesis; riboflavin biosynthesis; 5-amino- 6-(D-ribitylamino)uracil from GTP: step 3/4.</t>
+  </si>
+  <si>
+    <t>Metabolic intermediate biosynthesis; chorismate biosynthesis; chorismate from D-erythrose 4-phosphate and phosphoenolpyruvate: step 2/7.</t>
+  </si>
+  <si>
+    <t>Metabolic intermediate biosynthesis; chorismate biosynthesis; chorismate from D-erythrose 4-phosphate and phosphoenolpyruvate: step 5/7.</t>
+  </si>
+  <si>
+    <t>Cell wall biogenesis; peptidoglycan biosynthesis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amino-acid biosynthesis; S-adenosyl-L-methionine biosynthesis; S-adenosyl-L-methionine from L-methionine: step 1/1.</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-arginine biosynthesis; N(2)- acetyl-L-ornithine from L-glutamate: step 3/4.</t>
+  </si>
+  <si>
+    <t>Purine metabolism; 7-cyano-7-deazaguanine biosynthesis.</t>
+  </si>
+  <si>
+    <t>Cell wall biogenesis; peptidoglycan recycling.</t>
+  </si>
+  <si>
+    <t>Porphyrin-containing compound metabolism; protoporphyrin- IX biosynthesis; coproporphyrinogen-III from 5-aminolevulinate: step 2/4.</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-histidine biosynthesis; L- histidine from 5-phospho-alpha-D-ribose 1-diphosphate: step 2/9.</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-histidine biosynthesis; L- histidine from 5-phospho-alpha-D-ribose 1-diphosphate: step 3/9.</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-histidine biosynthesis; L- histidine from 5-phospho-alpha-D-ribose 1-diphosphate: step 5/9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amino-acid biosynthesis; L-histidine biosynthesis; L- histidine from 5-phospho-alpha-D-ribose 1-diphosphate: step 4/9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino-acid biosynthesis; L-arginine biosynthesis; L- arginine from L-ornithine and carbamoyl phosphate: step 3/3. </t>
+  </si>
+  <si>
+    <t>Glycolipid biosynthesis; lipid IV(A) biosynthesis; lipid IV(A) from (3R)-3-hydroxytetradecanoyl-[acyl-carrier-protein] and UDP-N-acetyl-alpha-D-glucosamine: step 6/6.</t>
   </si>
 </sst>
 </file>
@@ -6078,10 +6157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P215"/>
+  <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J200" workbookViewId="0">
-      <selection activeCell="L207" sqref="L207"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6096,16 +6175,16 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="36.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="112.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="44.5703125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="41.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="22.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="112.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="44.5703125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="41.140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6136,26 +6215,23 @@
       <c r="J1" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>1369</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>1738</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6186,21 +6262,17 @@
       <c r="J2" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6231,20 +6303,17 @@
       <c r="J3" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6275,17 +6344,14 @@
       <c r="J4" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -6316,17 +6382,14 @@
       <c r="J5" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -6357,20 +6420,17 @@
       <c r="J6" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -6392,17 +6452,14 @@
       <c r="G7" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1347</v>
       </c>
@@ -6412,11 +6469,11 @@
       <c r="D8" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1344</v>
       </c>
@@ -6426,11 +6483,11 @@
       <c r="D9" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -6461,17 +6518,14 @@
       <c r="J10" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -6502,17 +6556,14 @@
       <c r="J11" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -6543,21 +6594,20 @@
       <c r="J12" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>69</v>
+      <c r="K12" s="2" t="s">
+        <v>1736</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -6588,17 +6638,14 @@
       <c r="J13" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -6629,17 +6676,14 @@
       <c r="J14" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -6670,17 +6714,14 @@
       <c r="J15" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -6711,20 +6752,17 @@
       <c r="J16" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -6755,17 +6793,14 @@
       <c r="J17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -6796,17 +6831,14 @@
       <c r="J18" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -6837,17 +6869,14 @@
       <c r="J19" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -6878,17 +6907,14 @@
       <c r="J20" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
@@ -6919,20 +6945,20 @@
       <c r="J21" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="L21" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
@@ -6963,17 +6989,14 @@
       <c r="J22" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -7004,17 +7027,17 @@
       <c r="J23" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="L23" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -7045,17 +7068,14 @@
       <c r="J24" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
@@ -7086,17 +7106,14 @@
       <c r="J25" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -7127,17 +7144,14 @@
       <c r="J26" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>155</v>
       </c>
@@ -7168,17 +7182,14 @@
       <c r="J27" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>161</v>
       </c>
@@ -7209,17 +7220,14 @@
       <c r="J28" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>169</v>
       </c>
@@ -7250,20 +7258,17 @@
       <c r="J29" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -7294,17 +7299,17 @@
       <c r="J30" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="L30" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
@@ -7335,20 +7340,17 @@
       <c r="J31" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>190</v>
       </c>
@@ -7379,20 +7381,20 @@
       <c r="J32" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="L32" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>198</v>
       </c>
@@ -7423,20 +7425,17 @@
       <c r="J33" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>205</v>
       </c>
@@ -7467,20 +7466,17 @@
       <c r="J34" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="K34" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>213</v>
       </c>
@@ -7511,17 +7507,14 @@
       <c r="J35" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>220</v>
       </c>
@@ -7552,17 +7545,14 @@
       <c r="J36" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>228</v>
       </c>
@@ -7593,17 +7583,14 @@
       <c r="J37" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>233</v>
       </c>
@@ -7634,20 +7621,20 @@
       <c r="J38" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="L38" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -7678,17 +7665,17 @@
       <c r="J39" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="L39" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>250</v>
       </c>
@@ -7719,17 +7706,14 @@
       <c r="J40" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>256</v>
       </c>
@@ -7760,17 +7744,14 @@
       <c r="J41" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>262</v>
       </c>
@@ -7801,17 +7782,17 @@
       <c r="J42" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="L42" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>269</v>
       </c>
@@ -7842,17 +7823,14 @@
       <c r="J43" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>276</v>
       </c>
@@ -7883,17 +7861,14 @@
       <c r="J44" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="N44" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>282</v>
       </c>
@@ -7924,17 +7899,14 @@
       <c r="J45" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>288</v>
       </c>
@@ -7965,17 +7937,14 @@
       <c r="J46" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="N46" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>294</v>
       </c>
@@ -8006,17 +7975,14 @@
       <c r="J47" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>300</v>
       </c>
@@ -8047,17 +8013,14 @@
       <c r="J48" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
@@ -8088,17 +8051,17 @@
       <c r="J49" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="L49" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>314</v>
       </c>
@@ -8129,17 +8092,14 @@
       <c r="J50" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="N50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="N50" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -8170,17 +8130,14 @@
       <c r="J51" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="N51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>326</v>
       </c>
@@ -8211,17 +8168,14 @@
       <c r="J52" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="N52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="N52" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>332</v>
       </c>
@@ -8252,20 +8206,17 @@
       <c r="J53" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L53" s="1" t="s">
+      <c r="K53" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="N53" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>339</v>
       </c>
@@ -8287,17 +8238,14 @@
       <c r="G54" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>344</v>
       </c>
@@ -8328,17 +8276,14 @@
       <c r="J55" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="N55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>352</v>
       </c>
@@ -8369,20 +8314,17 @@
       <c r="J56" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L56" s="1" t="s">
+      <c r="K56" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="N56" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>361</v>
       </c>
@@ -8413,17 +8355,14 @@
       <c r="J57" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="N57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>367</v>
       </c>
@@ -8454,20 +8393,20 @@
       <c r="J58" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="L58" s="1" t="s">
+      <c r="K58" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="L58" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -8498,17 +8437,17 @@
       <c r="J59" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N59" s="1" t="s">
+      <c r="L59" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="N59" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>385</v>
       </c>
@@ -8539,17 +8478,14 @@
       <c r="J60" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="N60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1350</v>
       </c>
@@ -8559,11 +8495,11 @@
       <c r="D61" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>392</v>
       </c>
@@ -8594,20 +8530,17 @@
       <c r="J62" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="L62" s="1" t="s">
+      <c r="K62" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>398</v>
       </c>
@@ -8638,17 +8571,14 @@
       <c r="J63" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="N63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>403</v>
       </c>
@@ -8679,17 +8609,14 @@
       <c r="J64" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="N64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>408</v>
       </c>
@@ -8720,17 +8647,14 @@
       <c r="J65" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="N65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>414</v>
       </c>
@@ -8761,17 +8685,14 @@
       <c r="J66" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="N66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="N66" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>423</v>
       </c>
@@ -8802,17 +8723,14 @@
       <c r="J67" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="N67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="N67" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>430</v>
       </c>
@@ -8843,17 +8761,14 @@
       <c r="J68" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="N68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="N68" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>436</v>
       </c>
@@ -8884,17 +8799,14 @@
       <c r="J69" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="N69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>442</v>
       </c>
@@ -8925,17 +8837,14 @@
       <c r="J70" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="N70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>448</v>
       </c>
@@ -8966,17 +8875,14 @@
       <c r="J71" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="N71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>453</v>
       </c>
@@ -9007,17 +8913,14 @@
       <c r="J72" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="N72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="N72" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>458</v>
       </c>
@@ -9048,17 +8951,17 @@
       <c r="J73" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="N73" s="1" t="s">
+      <c r="L73" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>464</v>
       </c>
@@ -9089,17 +8992,14 @@
       <c r="J74" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="N74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="N74" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>471</v>
       </c>
@@ -9130,17 +9030,14 @@
       <c r="J75" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="N75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="N75" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>477</v>
       </c>
@@ -9171,20 +9068,20 @@
       <c r="J76" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="L76" s="1" t="s">
+      <c r="K76" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="L76" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="O76" s="2" t="s">
+      <c r="N76" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>486</v>
       </c>
@@ -9215,20 +9112,20 @@
       <c r="J77" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="L77" s="1" t="s">
+      <c r="K77" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="L77" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="N77" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>495</v>
       </c>
@@ -9259,20 +9156,17 @@
       <c r="J78" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L78" s="1" t="s">
+      <c r="K78" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="N78" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>501</v>
       </c>
@@ -9303,17 +9197,14 @@
       <c r="J79" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="N79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="N79" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>507</v>
       </c>
@@ -9344,17 +9235,14 @@
       <c r="J80" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="N80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="O80" s="2" t="s">
+      <c r="N80" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>513</v>
       </c>
@@ -9385,17 +9273,14 @@
       <c r="J81" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="N81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="N81" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>519</v>
       </c>
@@ -9426,17 +9311,14 @@
       <c r="J82" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="N82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="N82" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>525</v>
       </c>
@@ -9467,20 +9349,20 @@
       <c r="J83" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="L83" s="1" t="s">
+      <c r="K83" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="L83" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>532</v>
       </c>
@@ -9511,17 +9393,14 @@
       <c r="J84" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="N84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="N84" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>540</v>
       </c>
@@ -9552,17 +9431,14 @@
       <c r="J85" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="N85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="N85" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>546</v>
       </c>
@@ -9593,17 +9469,14 @@
       <c r="J86" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="N86" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>552</v>
       </c>
@@ -9634,17 +9507,14 @@
       <c r="J87" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="N87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="O87" s="2" t="s">
+      <c r="N87" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>557</v>
       </c>
@@ -9675,20 +9545,17 @@
       <c r="J88" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="L88" s="1" t="s">
+      <c r="K88" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="O88" s="2" t="s">
+      <c r="N88" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>564</v>
       </c>
@@ -9719,17 +9586,14 @@
       <c r="J89" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="N89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="O89" s="2" t="s">
+      <c r="N89" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>571</v>
       </c>
@@ -9760,20 +9624,20 @@
       <c r="J90" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="L90" s="1" t="s">
+      <c r="K90" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="L90" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="N90" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>579</v>
       </c>
@@ -9804,17 +9668,14 @@
       <c r="J91" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="N91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1353</v>
       </c>
@@ -9824,11 +9685,11 @@
       <c r="D92" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>587</v>
       </c>
@@ -9859,17 +9720,14 @@
       <c r="J93" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="N93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O93" s="2" t="s">
+      <c r="N93" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>592</v>
       </c>
@@ -9900,17 +9758,14 @@
       <c r="J94" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="N94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="O94" s="2" t="s">
+      <c r="N94" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>598</v>
       </c>
@@ -9941,17 +9796,14 @@
       <c r="J95" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="N95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="O95" s="2" t="s">
+      <c r="N95" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>604</v>
       </c>
@@ -9982,17 +9834,14 @@
       <c r="J96" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="N96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="N96" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>611</v>
       </c>
@@ -10023,17 +9872,14 @@
       <c r="J97" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="K97" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="N97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="O97" s="2" t="s">
+      <c r="N97" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>617</v>
       </c>
@@ -10064,20 +9910,17 @@
       <c r="J98" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="L98" s="1" t="s">
+      <c r="K98" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="O98" s="2" t="s">
+      <c r="N98" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>624</v>
       </c>
@@ -10108,17 +9951,14 @@
       <c r="J99" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="N99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="O99" s="2" t="s">
+      <c r="N99" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>631</v>
       </c>
@@ -10149,20 +9989,20 @@
       <c r="J100" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="L100" s="1" t="s">
+      <c r="K100" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="L100" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="O100" s="2" t="s">
+      <c r="N100" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>640</v>
       </c>
@@ -10193,17 +10033,14 @@
       <c r="J101" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="N101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O101" s="2" t="s">
+      <c r="N101" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>645</v>
       </c>
@@ -10234,17 +10071,14 @@
       <c r="J102" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="N102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O102" s="2" t="s">
+      <c r="N102" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>650</v>
       </c>
@@ -10275,17 +10109,14 @@
       <c r="J103" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="N103" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O103" s="2" t="s">
+      <c r="N103" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>655</v>
       </c>
@@ -10316,17 +10147,14 @@
       <c r="J104" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="N104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O104" s="2" t="s">
+      <c r="N104" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>660</v>
       </c>
@@ -10357,17 +10185,14 @@
       <c r="J105" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="N105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="O105" s="2" t="s">
+      <c r="N105" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>666</v>
       </c>
@@ -10398,17 +10223,14 @@
       <c r="J106" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="N106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O106" s="2" t="s">
+      <c r="N106" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>671</v>
       </c>
@@ -10439,17 +10261,14 @@
       <c r="J107" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="N107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O107" s="2" t="s">
+      <c r="N107" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>676</v>
       </c>
@@ -10471,17 +10290,14 @@
       <c r="G108" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="N108" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="O108" s="2" t="s">
+      <c r="N108" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>680</v>
       </c>
@@ -10512,20 +10328,17 @@
       <c r="J109" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L109" s="1" t="s">
+      <c r="K109" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="N109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="O109" s="2" t="s">
+      <c r="N109" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>688</v>
       </c>
@@ -10556,17 +10369,17 @@
       <c r="J110" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="N110" s="1" t="s">
+      <c r="L110" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="O110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>695</v>
       </c>
@@ -10597,17 +10410,14 @@
       <c r="J111" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="N111" s="1" t="s">
+      <c r="M111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O111" s="2" t="s">
+      <c r="N111" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>700</v>
       </c>
@@ -10638,17 +10448,17 @@
       <c r="J112" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="N112" s="1" t="s">
+      <c r="L112" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M112" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="O112" s="2" t="s">
+      <c r="N112" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>706</v>
       </c>
@@ -10679,17 +10489,17 @@
       <c r="J113" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="N113" s="1" t="s">
+      <c r="L113" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O113" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>711</v>
       </c>
@@ -10720,20 +10530,20 @@
       <c r="J114" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="K114" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="L114" s="1" t="s">
+      <c r="K114" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N114" s="1" t="s">
+      <c r="L114" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="M114" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="O114" s="2" t="s">
+      <c r="N114" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>719</v>
       </c>
@@ -10764,17 +10574,14 @@
       <c r="J115" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N115" s="1" t="s">
+      <c r="M115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O115" s="2" t="s">
+      <c r="N115" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>724</v>
       </c>
@@ -10805,17 +10612,14 @@
       <c r="J116" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="K116" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="N116" s="1" t="s">
+      <c r="M116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O116" s="2" t="s">
+      <c r="N116" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>729</v>
       </c>
@@ -10846,17 +10650,14 @@
       <c r="J117" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="N117" s="1" t="s">
+      <c r="M117" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="O117" s="2" t="s">
+      <c r="N117" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>735</v>
       </c>
@@ -10887,17 +10688,14 @@
       <c r="J118" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="K118" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="N118" s="1" t="s">
+      <c r="M118" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="O118" s="2" t="s">
+      <c r="N118" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>742</v>
       </c>
@@ -10928,17 +10726,14 @@
       <c r="J119" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="N119" s="1" t="s">
+      <c r="M119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O119" s="2" t="s">
+      <c r="N119" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>747</v>
       </c>
@@ -10969,17 +10764,14 @@
       <c r="J120" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="N120" s="1" t="s">
+      <c r="M120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O120" s="2" t="s">
+      <c r="N120" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>752</v>
       </c>
@@ -11010,17 +10802,14 @@
       <c r="J121" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="N121" s="1" t="s">
+      <c r="M121" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="O121" s="2" t="s">
+      <c r="N121" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>758</v>
       </c>
@@ -11051,17 +10840,14 @@
       <c r="J122" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="K122" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="N122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="O122" s="2" t="s">
+      <c r="N122" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>764</v>
       </c>
@@ -11092,17 +10878,14 @@
       <c r="J123" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="N123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="O123" s="2" t="s">
+      <c r="N123" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>770</v>
       </c>
@@ -11133,20 +10916,17 @@
       <c r="J124" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="L124" s="1" t="s">
+      <c r="K124" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N124" s="1" t="s">
+      <c r="M124" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="O124" s="2" t="s">
+      <c r="N124" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>776</v>
       </c>
@@ -11177,17 +10957,17 @@
       <c r="J125" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="K125" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="N125" s="1" t="s">
+      <c r="L125" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="O125" s="2" t="s">
+      <c r="N125" s="2" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>785</v>
       </c>
@@ -11209,17 +10989,14 @@
       <c r="G126" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="K126" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="N126" s="1" t="s">
+      <c r="M126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O126" s="2" t="s">
+      <c r="N126" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1356</v>
       </c>
@@ -11229,11 +11006,11 @@
       <c r="D127" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="N127" s="1" t="s">
+      <c r="M127" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>789</v>
       </c>
@@ -11264,17 +11041,14 @@
       <c r="J128" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="N128" s="1" t="s">
+      <c r="M128" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="O128" s="2" t="s">
+      <c r="N128" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>795</v>
       </c>
@@ -11305,17 +11079,14 @@
       <c r="J129" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="N129" s="1" t="s">
+      <c r="M129" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="O129" s="2" t="s">
+      <c r="N129" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>801</v>
       </c>
@@ -11337,17 +11108,14 @@
       <c r="G130" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="K130" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="N130" s="1" t="s">
+      <c r="M130" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="O130" s="2" t="s">
+      <c r="N130" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>806</v>
       </c>
@@ -11378,17 +11146,14 @@
       <c r="J131" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="K131" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="N131" s="1" t="s">
+      <c r="M131" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="O131" s="2" t="s">
+      <c r="N131" s="2" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>815</v>
       </c>
@@ -11419,17 +11184,14 @@
       <c r="J132" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="N132" s="1" t="s">
+      <c r="M132" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="O132" s="2" t="s">
+      <c r="N132" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>820</v>
       </c>
@@ -11460,17 +11222,14 @@
       <c r="J133" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="N133" s="1" t="s">
+      <c r="M133" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="O133" s="2" t="s">
+      <c r="N133" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>826</v>
       </c>
@@ -11501,17 +11260,14 @@
       <c r="J134" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="K134" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="N134" s="1" t="s">
+      <c r="M134" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="O134" s="2" t="s">
+      <c r="N134" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>834</v>
       </c>
@@ -11542,17 +11298,14 @@
       <c r="J135" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="K135" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="N135" s="1" t="s">
+      <c r="M135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O135" s="2" t="s">
+      <c r="N135" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>839</v>
       </c>
@@ -11583,17 +11336,14 @@
       <c r="J136" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="K136" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="N136" s="1" t="s">
+      <c r="M136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>844</v>
       </c>
@@ -11624,17 +11374,14 @@
       <c r="J137" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="K137" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="N137" s="1" t="s">
+      <c r="M137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O137" s="2" t="s">
+      <c r="N137" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>849</v>
       </c>
@@ -11665,17 +11412,14 @@
       <c r="J138" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="K138" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="N138" s="1" t="s">
+      <c r="M138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O138" s="2" t="s">
+      <c r="N138" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>854</v>
       </c>
@@ -11706,17 +11450,14 @@
       <c r="J139" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="K139" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="N139" s="1" t="s">
+      <c r="M139" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="O139" s="2" t="s">
+      <c r="N139" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>860</v>
       </c>
@@ -11747,17 +11488,14 @@
       <c r="J140" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="K140" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="N140" s="1" t="s">
+      <c r="M140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O140" s="2" t="s">
+      <c r="N140" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>865</v>
       </c>
@@ -11788,17 +11526,14 @@
       <c r="J141" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="N141" s="1" t="s">
+      <c r="M141" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="O141" s="2" t="s">
+      <c r="N141" s="2" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>872</v>
       </c>
@@ -11829,20 +11564,17 @@
       <c r="J142" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="K142" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="L142" s="1" t="s">
+      <c r="K142" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="N142" s="1" t="s">
+      <c r="M142" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="O142" s="2" t="s">
+      <c r="N142" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>878</v>
       </c>
@@ -11873,17 +11605,14 @@
       <c r="J143" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="K143" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="N143" s="1" t="s">
+      <c r="M143" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="O143" s="2" t="s">
+      <c r="N143" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>884</v>
       </c>
@@ -11914,17 +11643,14 @@
       <c r="J144" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="K144" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="N144" s="1" t="s">
+      <c r="M144" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="O144" s="2" t="s">
+      <c r="N144" s="2" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>892</v>
       </c>
@@ -11955,20 +11681,17 @@
       <c r="J145" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="K145" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="L145" s="1" t="s">
+      <c r="K145" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N145" s="1" t="s">
+      <c r="M145" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="O145" s="2" t="s">
+      <c r="N145" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>900</v>
       </c>
@@ -11999,20 +11722,17 @@
       <c r="J146" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="K146" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="L146" s="1" t="s">
+      <c r="K146" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N146" s="1" t="s">
+      <c r="M146" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="O146" s="2" t="s">
+      <c r="N146" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>908</v>
       </c>
@@ -12043,17 +11763,14 @@
       <c r="J147" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="K147" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="N147" s="1" t="s">
+      <c r="M147" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="O147" s="2" t="s">
+      <c r="N147" s="2" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>916</v>
       </c>
@@ -12084,17 +11801,14 @@
       <c r="J148" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="K148" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="N148" s="1" t="s">
+      <c r="M148" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="O148" s="2" t="s">
+      <c r="N148" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>921</v>
       </c>
@@ -12125,17 +11839,14 @@
       <c r="J149" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="K149" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="N149" s="1" t="s">
+      <c r="M149" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="O149" s="2" t="s">
+      <c r="N149" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>927</v>
       </c>
@@ -12166,17 +11877,14 @@
       <c r="J150" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="K150" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="N150" s="1" t="s">
+      <c r="M150" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O150" s="2" t="s">
+      <c r="N150" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>932</v>
       </c>
@@ -12207,17 +11915,14 @@
       <c r="J151" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="K151" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="N151" s="1" t="s">
+      <c r="M151" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="O151" s="2" t="s">
+      <c r="N151" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>937</v>
       </c>
@@ -12248,20 +11953,17 @@
       <c r="J152" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="K152" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="L152" s="1" t="s">
+      <c r="K152" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N152" s="1" t="s">
+      <c r="M152" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="O152" s="2" t="s">
+      <c r="N152" s="2" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>944</v>
       </c>
@@ -12292,20 +11994,17 @@
       <c r="J153" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="K153" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="L153" s="1" t="s">
+      <c r="K153" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="N153" s="1" t="s">
+      <c r="M153" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="O153" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>950</v>
       </c>
@@ -12336,20 +12035,17 @@
       <c r="J154" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="K154" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="L154" s="1" t="s">
+      <c r="K154" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="N154" s="1" t="s">
+      <c r="M154" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="O154" s="2" t="s">
+      <c r="N154" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>956</v>
       </c>
@@ -12380,20 +12076,17 @@
       <c r="J155" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="K155" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="L155" s="1" t="s">
+      <c r="K155" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="N155" s="1" t="s">
+      <c r="M155" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="O155" s="2" t="s">
+      <c r="N155" s="2" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>964</v>
       </c>
@@ -12424,17 +12117,14 @@
       <c r="J156" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K156" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="N156" s="1" t="s">
+      <c r="M156" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="O156" s="2" t="s">
+      <c r="N156" s="2" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>971</v>
       </c>
@@ -12465,20 +12155,20 @@
       <c r="J157" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="K157" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="L157" s="1" t="s">
+      <c r="K157" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N157" s="1" t="s">
+      <c r="L157" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="M157" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="O157" s="2" t="s">
+      <c r="N157" s="2" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>980</v>
       </c>
@@ -12509,17 +12199,14 @@
       <c r="J158" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="K158" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="N158" s="1" t="s">
+      <c r="M158" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="O158" s="2" t="s">
+      <c r="N158" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>986</v>
       </c>
@@ -12550,17 +12237,14 @@
       <c r="J159" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="K159" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="N159" s="1" t="s">
+      <c r="M159" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="O159" s="2" t="s">
+      <c r="N159" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>992</v>
       </c>
@@ -12591,17 +12275,14 @@
       <c r="J160" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="K160" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="N160" s="1" t="s">
+      <c r="M160" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O160" s="2" t="s">
+      <c r="N160" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>997</v>
       </c>
@@ -12632,20 +12313,17 @@
       <c r="J161" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="K161" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L161" s="1" t="s">
+      <c r="K161" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="N161" s="1" t="s">
+      <c r="M161" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="O161" s="2" t="s">
+      <c r="N161" s="2" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1005</v>
       </c>
@@ -12676,20 +12354,17 @@
       <c r="J162" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="K162" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L162" s="1" t="s">
+      <c r="K162" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="N162" s="1" t="s">
+      <c r="M162" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="O162" s="2" t="s">
+      <c r="N162" s="2" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1013</v>
       </c>
@@ -12720,17 +12395,14 @@
       <c r="J163" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="K163" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N163" s="1" t="s">
+      <c r="M163" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="O163" s="2" t="s">
+      <c r="N163" s="2" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12761,17 +12433,14 @@
       <c r="J164" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="K164" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="N164" s="1" t="s">
+      <c r="M164" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="O164" s="2" t="s">
+      <c r="N164" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1027</v>
       </c>
@@ -12802,20 +12471,17 @@
       <c r="J165" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="K165" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L165" s="1" t="s">
+      <c r="K165" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="N165" s="1" t="s">
+      <c r="M165" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="O165" s="2" t="s">
+      <c r="N165" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1033</v>
       </c>
@@ -12846,20 +12512,17 @@
       <c r="J166" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="K166" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L166" s="1" t="s">
+      <c r="K166" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="N166" s="1" t="s">
+      <c r="M166" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="O166" s="2" t="s">
+      <c r="N166" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1038</v>
       </c>
@@ -12890,17 +12553,14 @@
       <c r="J167" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="K167" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="N167" s="1" t="s">
+      <c r="M167" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="O167" s="2" t="s">
+      <c r="N167" s="2" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1045</v>
       </c>
@@ -12931,17 +12591,14 @@
       <c r="J168" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="K168" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="N168" s="1" t="s">
+      <c r="M168" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="O168" s="2" t="s">
+      <c r="N168" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1051</v>
       </c>
@@ -12972,17 +12629,14 @@
       <c r="J169" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="K169" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N169" s="1" t="s">
+      <c r="M169" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="O169" s="2" t="s">
+      <c r="N169" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1059</v>
       </c>
@@ -13013,17 +12667,17 @@
       <c r="J170" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="K170" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="N170" s="1" t="s">
+      <c r="L170" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="M170" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="O170" s="2" t="s">
+      <c r="N170" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1067</v>
       </c>
@@ -13054,17 +12708,14 @@
       <c r="J171" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="K171" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N171" s="1" t="s">
+      <c r="M171" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="O171" s="2" t="s">
+      <c r="N171" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1073</v>
       </c>
@@ -13095,17 +12746,14 @@
       <c r="J172" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="K172" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="N172" s="1" t="s">
+      <c r="M172" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="O172" s="2" t="s">
+      <c r="N172" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1079</v>
       </c>
@@ -13136,17 +12784,14 @@
       <c r="J173" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="K173" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="N173" s="1" t="s">
+      <c r="M173" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="O173" s="2" t="s">
+      <c r="N173" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13177,17 +12822,14 @@
       <c r="J174" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="K174" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="N174" s="1" t="s">
+      <c r="M174" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O174" s="2" t="s">
+      <c r="N174" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1089</v>
       </c>
@@ -13218,20 +12860,17 @@
       <c r="J175" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="K175" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="L175" s="1" t="s">
+      <c r="K175" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="N175" s="1" t="s">
+      <c r="M175" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="O175" s="2" t="s">
+      <c r="N175" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1095</v>
       </c>
@@ -13262,20 +12901,17 @@
       <c r="J176" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="K176" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="L176" s="1" t="s">
+      <c r="K176" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="N176" s="1" t="s">
+      <c r="M176" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="O176" s="2" t="s">
+      <c r="N176" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1101</v>
       </c>
@@ -13306,17 +12942,14 @@
       <c r="J177" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="K177" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="N177" s="1" t="s">
+      <c r="M177" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="O177" s="2" t="s">
+      <c r="N177" s="2" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1108</v>
       </c>
@@ -13347,17 +12980,14 @@
       <c r="J178" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="K178" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="N178" s="1" t="s">
+      <c r="M178" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="O178" s="2" t="s">
+      <c r="N178" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1114</v>
       </c>
@@ -13388,20 +13018,17 @@
       <c r="J179" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="K179" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="L179" s="1" t="s">
+      <c r="K179" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N179" s="1" t="s">
+      <c r="M179" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="O179" s="2" t="s">
+      <c r="N179" s="2" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1122</v>
       </c>
@@ -13432,20 +13059,20 @@
       <c r="J180" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="K180" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="L180" s="1" t="s">
+      <c r="K180" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N180" s="1" t="s">
+      <c r="L180" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="M180" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="O180" s="2" t="s">
+      <c r="N180" s="2" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1131</v>
       </c>
@@ -13476,20 +13103,20 @@
       <c r="J181" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="K181" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="L181" s="1" t="s">
+      <c r="K181" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N181" s="1" t="s">
+      <c r="L181" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M181" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="O181" s="2" t="s">
+      <c r="N181" s="2" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1138</v>
       </c>
@@ -13520,20 +13147,20 @@
       <c r="J182" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="K182" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="L182" s="1" t="s">
+      <c r="K182" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N182" s="1" t="s">
+      <c r="L182" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="M182" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="O182" s="2" t="s">
+      <c r="N182" s="2" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1146</v>
       </c>
@@ -13564,20 +13191,20 @@
       <c r="J183" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="K183" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="L183" s="1" t="s">
+      <c r="K183" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N183" s="1" t="s">
+      <c r="L183" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M183" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="O183" s="2" t="s">
+      <c r="N183" s="2" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1154</v>
       </c>
@@ -13608,17 +13235,14 @@
       <c r="J184" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="K184" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N184" s="1" t="s">
+      <c r="M184" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="O184" s="2" t="s">
+      <c r="N184" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1160</v>
       </c>
@@ -13649,20 +13273,17 @@
       <c r="J185" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="K185" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="L185" s="1" t="s">
+      <c r="K185" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="N185" s="1" t="s">
+      <c r="M185" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="O185" s="2" t="s">
+      <c r="N185" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1166</v>
       </c>
@@ -13693,20 +13314,17 @@
       <c r="J186" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="K186" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="L186" s="1" t="s">
+      <c r="K186" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="N186" s="1" t="s">
+      <c r="M186" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="O186" s="2" t="s">
+      <c r="N186" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1172</v>
       </c>
@@ -13737,17 +13355,14 @@
       <c r="J187" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="K187" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N187" s="1" t="s">
+      <c r="M187" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O187" s="2" t="s">
+      <c r="N187" s="2" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1359</v>
       </c>
@@ -13757,11 +13372,11 @@
       <c r="D188" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="N188" s="1" t="s">
+      <c r="M188" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1178</v>
       </c>
@@ -13792,20 +13407,20 @@
       <c r="J189" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="K189" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="L189" s="1" t="s">
+      <c r="K189" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N189" s="1" t="s">
+      <c r="L189" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="M189" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="O189" s="2" t="s">
+      <c r="N189" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1186</v>
       </c>
@@ -13836,17 +13451,14 @@
       <c r="J190" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="K190" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="N190" s="1" t="s">
+      <c r="M190" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="O190" s="2" t="s">
+      <c r="N190" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1193</v>
       </c>
@@ -13877,17 +13489,14 @@
       <c r="J191" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="K191" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="N191" s="1" t="s">
+      <c r="M191" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="O191" s="2" t="s">
+      <c r="N191" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1200</v>
       </c>
@@ -13918,17 +13527,14 @@
       <c r="J192" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="K192" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="N192" s="1" t="s">
+      <c r="M192" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="O192" s="2" t="s">
+      <c r="N192" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1205</v>
       </c>
@@ -13959,20 +13565,17 @@
       <c r="J193" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="K193" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L193" s="1" t="s">
+      <c r="K193" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="N193" s="1" t="s">
+      <c r="M193" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="O193" s="2" t="s">
+      <c r="N193" s="2" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1212</v>
       </c>
@@ -14003,17 +13606,14 @@
       <c r="J194" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="K194" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N194" s="1" t="s">
+      <c r="M194" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="O194" s="2" t="s">
+      <c r="N194" s="2" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1219</v>
       </c>
@@ -14044,17 +13644,14 @@
       <c r="J195" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="K195" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N195" s="1" t="s">
+      <c r="M195" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="O195" s="2" t="s">
+      <c r="N195" s="2" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1226</v>
       </c>
@@ -14085,17 +13682,14 @@
       <c r="J196" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="K196" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="N196" s="1" t="s">
+      <c r="M196" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O196" s="2" t="s">
+      <c r="N196" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1231</v>
       </c>
@@ -14126,17 +13720,14 @@
       <c r="J197" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="K197" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="N197" s="1" t="s">
+      <c r="M197" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O197" s="2" t="s">
+      <c r="N197" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1236</v>
       </c>
@@ -14167,17 +13758,14 @@
       <c r="J198" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="K198" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="N198" s="1" t="s">
+      <c r="M198" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O198" s="2" t="s">
+      <c r="N198" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1241</v>
       </c>
@@ -14208,17 +13796,14 @@
       <c r="J199" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="K199" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="N199" s="1" t="s">
+      <c r="M199" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O199" s="2" t="s">
+      <c r="N199" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1246</v>
       </c>
@@ -14249,20 +13834,17 @@
       <c r="J200" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="K200" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L200" s="1" t="s">
+      <c r="K200" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="N200" s="1" t="s">
+      <c r="M200" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="O200" s="2" t="s">
+      <c r="N200" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1252</v>
       </c>
@@ -14293,17 +13875,14 @@
       <c r="J201" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="K201" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="N201" s="1" t="s">
+      <c r="M201" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="O201" s="2" t="s">
+      <c r="N201" s="2" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14334,17 +13913,14 @@
       <c r="J202" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="K202" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="N202" s="1" t="s">
+      <c r="M202" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="O202" s="2" t="s">
+      <c r="N202" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1267</v>
       </c>
@@ -14375,17 +13951,14 @@
       <c r="J203" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="K203" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="N203" s="1" t="s">
+      <c r="M203" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="O203" s="2" t="s">
+      <c r="N203" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1273</v>
       </c>
@@ -14416,17 +13989,14 @@
       <c r="J204" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="K204" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="N204" s="1" t="s">
+      <c r="M204" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="O204" s="2" t="s">
+      <c r="N204" s="2" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1281</v>
       </c>
@@ -14457,17 +14027,14 @@
       <c r="J205" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="K205" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="N205" s="1" t="s">
+      <c r="M205" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="O205" s="2" t="s">
+      <c r="N205" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1288</v>
       </c>
@@ -14498,20 +14065,17 @@
       <c r="J206" s="1" t="s">
         <v>1727</v>
       </c>
-      <c r="K206" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L206" s="1" t="s">
+      <c r="K206" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="N206" s="1" t="s">
+      <c r="M206" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O206" s="2" t="s">
+      <c r="N206" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1293</v>
       </c>
@@ -14542,17 +14106,14 @@
       <c r="J207" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="K207" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N207" s="1" t="s">
+      <c r="M207" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="O207" s="2" t="s">
+      <c r="N207" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1362</v>
       </c>
@@ -14562,11 +14123,11 @@
       <c r="D208" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="N208" s="1" t="s">
+      <c r="M208" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1299</v>
       </c>
@@ -14597,17 +14158,14 @@
       <c r="J209" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="K209" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="N209" s="1" t="s">
+      <c r="M209" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="O209" s="2" t="s">
+      <c r="N209" s="2" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1308</v>
       </c>
@@ -14638,17 +14196,14 @@
       <c r="J210" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="K210" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="N210" s="1" t="s">
+      <c r="M210" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="O210" s="2" t="s">
+      <c r="N210" s="2" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1316</v>
       </c>
@@ -14679,17 +14234,17 @@
       <c r="J211" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="K211" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="N211" s="1" t="s">
+      <c r="L211" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="M211" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="O211" s="2" t="s">
+      <c r="N211" s="2" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1329</v>
       </c>
@@ -14699,11 +14254,11 @@
       <c r="D212" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="N212" s="1" t="s">
+      <c r="M212" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1333</v>
       </c>
@@ -14713,11 +14268,11 @@
       <c r="D213" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="N213" s="1" t="s">
+      <c r="M213" s="1" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1337</v>
       </c>
@@ -14727,11 +14282,11 @@
       <c r="D214" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="N214" s="1" t="s">
+      <c r="M214" s="1" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1341</v>
       </c>
@@ -14741,7 +14296,7 @@
       <c r="D215" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="N215" s="1" t="s">
+      <c r="M215" s="1" t="s">
         <v>1339</v>
       </c>
     </row>

--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="1969">
   <si>
     <t>locus</t>
   </si>
@@ -5323,6 +5323,606 @@
   </si>
   <si>
     <t>Glycolipid biosynthesis; lipid IV(A) biosynthesis; lipid IV(A) from (3R)-3-hydroxytetradecanoyl-[acyl-carrier-protein] and UDP-N-acetyl-alpha-D-glucosamine: step 6/6.</t>
+  </si>
+  <si>
+    <t>BioCyc AC</t>
+  </si>
+  <si>
+    <t>Genes codificando RNA (tRNA)</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-219-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-33-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-198-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-34-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-89-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-84-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-215-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-107-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-202-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-82-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-83-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-1-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-90-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-55-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-36-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-170-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-193-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-195-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-196-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-194-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-64-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-223-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-188-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-226-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-63-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-96-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-123-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-37-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-3-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-38-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-185-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-26-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-42-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-117-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-192-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-159-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-157-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-176-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-160-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-141-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-105-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-61-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-5-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-59-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-168-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-167-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-158-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-94-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-32-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-165-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-133-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-154-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-111-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-39-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-4-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-88-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-207-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-214-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-71-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-156-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-120-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-221-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-162-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-16-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-103-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-178-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-110-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-15-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-23-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-206-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-87-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-30-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-14-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-172-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-101-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-18-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-204-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-128-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-127-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-184-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-203-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-179-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-137-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-91-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-182-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-58-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-29-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-224-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-53-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-169-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-54-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-49-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-124-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-10-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-175-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-177-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-46-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-25-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-40-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-126-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-112-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-68-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-2-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-85-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-174-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-131-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-213-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-181-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-81-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-95-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-130-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-77-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-142-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-183-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-45-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-171-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-24-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-43-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-191-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-144-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-186-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-56-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-28-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-97-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-166-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-132-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-119-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-69-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-57-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-79-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-60-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-145-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-216-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-72-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-189-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-200-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-86-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-102-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-218-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-134-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-78-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-80-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-31-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-106-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-146-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-73-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-62-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-20-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-139-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-209-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-52-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-180-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-161-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-155-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-74-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-108-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-129-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-151-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-150-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-205-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-217-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-109-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-17-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-93-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-19-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-99-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-114-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-197-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-100-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-163-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-92-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-173-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-115-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-51-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-211-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-199-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-152-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-48-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-147-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-65-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-149-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-22-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-125-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-210-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:MetaCyc:MONOMER-17340</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-212-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-75-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-70-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-118-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-187-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-44-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-41-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-220-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-113-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-13-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-76-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-27-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-164-MONOMER</t>
   </si>
 </sst>
 </file>
@@ -5807,7 +6407,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5815,6 +6415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6157,10 +6758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O215"/>
+  <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="O57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6179,12 +6780,14 @@
     <col min="12" max="12" width="29.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="112.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="44.5703125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="41.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="34" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="17" width="41.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6230,8 +6833,14 @@
       <c r="O1" s="1" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6271,8 +6880,17 @@
       <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6312,8 +6930,17 @@
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6350,8 +6977,20 @@
       <c r="N4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -6388,8 +7027,17 @@
       <c r="N5" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -6429,8 +7077,20 @@
       <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -6458,36 +7118,57 @@
       <c r="N7" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1347</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>1365</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>1348</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1344</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>1365</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -6524,8 +7205,20 @@
       <c r="N10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -6562,8 +7255,20 @@
       <c r="N11" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -6606,8 +7311,20 @@
       <c r="N12" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -6644,8 +7361,17 @@
       <c r="N13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -6682,8 +7408,20 @@
       <c r="N14" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -6720,8 +7458,17 @@
       <c r="N15" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -6761,8 +7508,17 @@
       <c r="N16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -6799,8 +7555,20 @@
       <c r="N17" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>1935</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -6837,8 +7605,20 @@
       <c r="N18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -6875,8 +7655,20 @@
       <c r="N19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -6913,8 +7705,20 @@
       <c r="N20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
@@ -6957,8 +7761,20 @@
       <c r="N21" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
@@ -6995,8 +7811,17 @@
       <c r="N22" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -7036,8 +7861,20 @@
       <c r="N23" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -7074,8 +7911,20 @@
       <c r="N24" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>1967</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
@@ -7112,8 +7961,20 @@
       <c r="N25" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -7150,8 +8011,17 @@
       <c r="N26" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>155</v>
       </c>
@@ -7188,8 +8058,20 @@
       <c r="N27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>161</v>
       </c>
@@ -7226,8 +8108,20 @@
       <c r="N28" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>169</v>
       </c>
@@ -7267,8 +8161,17 @@
       <c r="N29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -7308,8 +8211,17 @@
       <c r="N30" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
@@ -7349,8 +8261,17 @@
       <c r="N31" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>190</v>
       </c>
@@ -7393,8 +8314,20 @@
       <c r="N32" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>198</v>
       </c>
@@ -7434,8 +8367,17 @@
       <c r="N33" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>205</v>
       </c>
@@ -7475,8 +8417,17 @@
       <c r="N34" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>213</v>
       </c>
@@ -7513,8 +8464,20 @@
       <c r="N35" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>220</v>
       </c>
@@ -7551,8 +8514,20 @@
       <c r="N36" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>228</v>
       </c>
@@ -7589,8 +8564,20 @@
       <c r="N37" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>233</v>
       </c>
@@ -7633,8 +8620,20 @@
       <c r="N38" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -7674,8 +8673,20 @@
       <c r="N39" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>250</v>
       </c>
@@ -7712,8 +8723,20 @@
       <c r="N40" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>256</v>
       </c>
@@ -7750,8 +8773,20 @@
       <c r="N41" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>262</v>
       </c>
@@ -7791,8 +8826,20 @@
       <c r="N42" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>269</v>
       </c>
@@ -7829,8 +8876,17 @@
       <c r="N43" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>276</v>
       </c>
@@ -7867,8 +8923,17 @@
       <c r="N44" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>282</v>
       </c>
@@ -7905,8 +8970,17 @@
       <c r="N45" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>288</v>
       </c>
@@ -7943,8 +9017,20 @@
       <c r="N46" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>294</v>
       </c>
@@ -7981,8 +9067,20 @@
       <c r="N47" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>300</v>
       </c>
@@ -8019,8 +9117,20 @@
       <c r="N48" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
@@ -8060,8 +9170,20 @@
       <c r="N49" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>314</v>
       </c>
@@ -8098,8 +9220,17 @@
       <c r="N50" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -8136,8 +9267,20 @@
       <c r="N51" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>326</v>
       </c>
@@ -8174,8 +9317,20 @@
       <c r="N52" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>332</v>
       </c>
@@ -8215,8 +9370,20 @@
       <c r="N53" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>339</v>
       </c>
@@ -8244,8 +9411,17 @@
       <c r="N54" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>344</v>
       </c>
@@ -8282,8 +9458,17 @@
       <c r="N55" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>352</v>
       </c>
@@ -8323,8 +9508,17 @@
       <c r="N56" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>361</v>
       </c>
@@ -8361,8 +9555,20 @@
       <c r="N57" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>367</v>
       </c>
@@ -8405,8 +9611,20 @@
       <c r="N58" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -8446,8 +9664,20 @@
       <c r="N59" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>385</v>
       </c>
@@ -8484,22 +9714,37 @@
       <c r="N60" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>1950</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1350</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>1365</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>392</v>
       </c>
@@ -8539,8 +9784,20 @@
       <c r="N62" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>398</v>
       </c>
@@ -8577,8 +9834,20 @@
       <c r="N63" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>403</v>
       </c>
@@ -8615,8 +9884,20 @@
       <c r="N64" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>408</v>
       </c>
@@ -8653,8 +9934,17 @@
       <c r="N65" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P65" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>414</v>
       </c>
@@ -8691,8 +9981,20 @@
       <c r="N66" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P66" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>423</v>
       </c>
@@ -8729,8 +10031,20 @@
       <c r="N67" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>430</v>
       </c>
@@ -8767,8 +10081,20 @@
       <c r="N68" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>436</v>
       </c>
@@ -8805,8 +10131,17 @@
       <c r="N69" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P69" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>442</v>
       </c>
@@ -8843,8 +10178,17 @@
       <c r="N70" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P70" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>1966</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>448</v>
       </c>
@@ -8881,8 +10225,20 @@
       <c r="N71" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P71" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>453</v>
       </c>
@@ -8919,8 +10275,17 @@
       <c r="N72" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>458</v>
       </c>
@@ -8960,8 +10325,14 @@
       <c r="N73" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>464</v>
       </c>
@@ -8998,8 +10369,14 @@
       <c r="N74" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>471</v>
       </c>
@@ -9036,8 +10413,17 @@
       <c r="N75" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>477</v>
       </c>
@@ -9080,8 +10466,17 @@
       <c r="N76" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P76" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>486</v>
       </c>
@@ -9124,8 +10519,14 @@
       <c r="N77" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P77" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>495</v>
       </c>
@@ -9165,8 +10566,17 @@
       <c r="N78" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P78" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>501</v>
       </c>
@@ -9203,8 +10613,17 @@
       <c r="N79" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P79" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>507</v>
       </c>
@@ -9241,8 +10660,17 @@
       <c r="N80" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>513</v>
       </c>
@@ -9279,8 +10707,17 @@
       <c r="N81" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P81" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>519</v>
       </c>
@@ -9317,8 +10754,17 @@
       <c r="N82" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P82" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>525</v>
       </c>
@@ -9361,8 +10807,17 @@
       <c r="N83" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P83" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>532</v>
       </c>
@@ -9399,8 +10854,17 @@
       <c r="N84" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P84" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>540</v>
       </c>
@@ -9437,8 +10901,17 @@
       <c r="N85" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P85" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>546</v>
       </c>
@@ -9475,8 +10948,17 @@
       <c r="N86" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P86" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>552</v>
       </c>
@@ -9513,8 +10995,14 @@
       <c r="N87" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P87" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>557</v>
       </c>
@@ -9554,8 +11042,14 @@
       <c r="N88" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P88" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>564</v>
       </c>
@@ -9592,8 +11086,17 @@
       <c r="N89" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>571</v>
       </c>
@@ -9636,8 +11139,14 @@
       <c r="N90" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P90" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>579</v>
       </c>
@@ -9674,22 +11183,34 @@
       <c r="N91" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P91" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1353</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>1365</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>1354</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R92" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>587</v>
       </c>
@@ -9726,8 +11247,14 @@
       <c r="N93" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P93" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>592</v>
       </c>
@@ -9764,8 +11291,17 @@
       <c r="N94" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P94" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>598</v>
       </c>
@@ -9802,8 +11338,14 @@
       <c r="N95" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P95" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>604</v>
       </c>
@@ -9840,8 +11382,17 @@
       <c r="N96" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P96" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>611</v>
       </c>
@@ -9878,8 +11429,17 @@
       <c r="N97" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P97" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>617</v>
       </c>
@@ -9919,8 +11479,14 @@
       <c r="N98" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P98" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>624</v>
       </c>
@@ -9957,8 +11523,14 @@
       <c r="N99" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P99" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>631</v>
       </c>
@@ -10001,8 +11573,14 @@
       <c r="N100" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P100" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>640</v>
       </c>
@@ -10039,8 +11617,17 @@
       <c r="N101" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P101" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>645</v>
       </c>
@@ -10077,8 +11664,17 @@
       <c r="N102" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P102" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>650</v>
       </c>
@@ -10115,8 +11711,14 @@
       <c r="N103" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P103" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>655</v>
       </c>
@@ -10153,8 +11755,14 @@
       <c r="N104" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P104" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>660</v>
       </c>
@@ -10191,8 +11799,17 @@
       <c r="N105" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P105" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>666</v>
       </c>
@@ -10229,8 +11846,17 @@
       <c r="N106" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P106" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>671</v>
       </c>
@@ -10267,8 +11893,17 @@
       <c r="N107" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P107" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>676</v>
       </c>
@@ -10296,8 +11931,17 @@
       <c r="N108" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P108" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>680</v>
       </c>
@@ -10337,8 +11981,17 @@
       <c r="N109" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P109" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>688</v>
       </c>
@@ -10378,8 +12031,17 @@
       <c r="N110" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P110" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>695</v>
       </c>
@@ -10416,8 +12078,20 @@
       <c r="N111" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P111" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>1959</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>700</v>
       </c>
@@ -10457,8 +12131,17 @@
       <c r="N112" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P112" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>706</v>
       </c>
@@ -10498,8 +12181,14 @@
       <c r="N113" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P113" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>711</v>
       </c>
@@ -10542,8 +12231,14 @@
       <c r="N114" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P114" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>719</v>
       </c>
@@ -10580,8 +12275,14 @@
       <c r="N115" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P115" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>724</v>
       </c>
@@ -10618,8 +12319,14 @@
       <c r="N116" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P116" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>729</v>
       </c>
@@ -10656,8 +12363,17 @@
       <c r="N117" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P117" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>735</v>
       </c>
@@ -10694,8 +12410,14 @@
       <c r="N118" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P118" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="R118" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>742</v>
       </c>
@@ -10732,8 +12454,14 @@
       <c r="N119" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P119" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="R119" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>747</v>
       </c>
@@ -10770,8 +12498,17 @@
       <c r="N120" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P120" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="R120" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>752</v>
       </c>
@@ -10808,8 +12545,20 @@
       <c r="N121" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P121" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q121" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="S121" s="3" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>758</v>
       </c>
@@ -10846,8 +12595,17 @@
       <c r="N122" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P122" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="R122" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S122" s="3" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>764</v>
       </c>
@@ -10884,8 +12642,14 @@
       <c r="N123" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P123" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="R123" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>770</v>
       </c>
@@ -10925,8 +12689,14 @@
       <c r="N124" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P124" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="R124" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>776</v>
       </c>
@@ -10966,8 +12736,17 @@
       <c r="N125" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P125" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="R125" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="S125" s="3" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>785</v>
       </c>
@@ -10995,22 +12774,37 @@
       <c r="N126" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P126" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R126" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="S126" s="3" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1356</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>1365</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="M127" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R127" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>789</v>
       </c>
@@ -11047,8 +12841,14 @@
       <c r="N128" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P128" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>795</v>
       </c>
@@ -11085,8 +12885,17 @@
       <c r="N129" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P129" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q129" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R129" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>801</v>
       </c>
@@ -11114,8 +12923,14 @@
       <c r="N130" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P130" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R130" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>806</v>
       </c>
@@ -11152,8 +12967,17 @@
       <c r="N131" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P131" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="R131" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="S131" s="3" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>815</v>
       </c>
@@ -11190,8 +13014,17 @@
       <c r="N132" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P132" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q132" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="R132" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>820</v>
       </c>
@@ -11228,8 +13061,14 @@
       <c r="N133" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P133" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>826</v>
       </c>
@@ -11266,8 +13105,20 @@
       <c r="N134" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P134" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>834</v>
       </c>
@@ -11304,8 +13155,14 @@
       <c r="N135" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P135" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>839</v>
       </c>
@@ -11342,8 +13199,14 @@
       <c r="N136" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P136" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="R136" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>844</v>
       </c>
@@ -11380,8 +13243,17 @@
       <c r="N137" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P137" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="S137" s="3" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>849</v>
       </c>
@@ -11418,8 +13290,17 @@
       <c r="N138" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P138" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="S138" s="3" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>854</v>
       </c>
@@ -11456,8 +13337,17 @@
       <c r="N139" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P139" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="S139" s="3" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>860</v>
       </c>
@@ -11494,8 +13384,17 @@
       <c r="N140" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P140" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="R140" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="S140" s="3" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>865</v>
       </c>
@@ -11532,8 +13431,17 @@
       <c r="N141" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P141" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="S141" s="3" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>872</v>
       </c>
@@ -11573,8 +13481,17 @@
       <c r="N142" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P142" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="R142" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="S142" s="3" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>878</v>
       </c>
@@ -11611,8 +13528,17 @@
       <c r="N143" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P143" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="R143" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="S143" s="3" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>884</v>
       </c>
@@ -11649,8 +13575,14 @@
       <c r="N144" s="2" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P144" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="R144" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>892</v>
       </c>
@@ -11690,8 +13622,17 @@
       <c r="N145" s="2" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P145" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>900</v>
       </c>
@@ -11731,8 +13672,17 @@
       <c r="N146" s="2" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P146" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="R146" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="S146" s="3" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>908</v>
       </c>
@@ -11769,8 +13719,14 @@
       <c r="N147" s="2" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P147" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="R147" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>916</v>
       </c>
@@ -11807,8 +13763,14 @@
       <c r="N148" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P148" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="R148" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>921</v>
       </c>
@@ -11845,8 +13807,14 @@
       <c r="N149" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P149" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="R149" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>927</v>
       </c>
@@ -11883,8 +13851,17 @@
       <c r="N150" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P150" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>932</v>
       </c>
@@ -11921,8 +13898,20 @@
       <c r="N151" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P151" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>937</v>
       </c>
@@ -11962,8 +13951,14 @@
       <c r="N152" s="2" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P152" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="R152" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>944</v>
       </c>
@@ -12003,8 +13998,17 @@
       <c r="N153" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P153" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>950</v>
       </c>
@@ -12044,8 +14048,17 @@
       <c r="N154" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P154" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="R154" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="S154" s="3" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>956</v>
       </c>
@@ -12085,8 +14098,17 @@
       <c r="N155" s="2" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P155" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="R155" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="S155" s="3" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>964</v>
       </c>
@@ -12123,8 +14145,14 @@
       <c r="N156" s="2" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P156" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="R156" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>971</v>
       </c>
@@ -12167,8 +14195,17 @@
       <c r="N157" s="2" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P157" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="S157" s="3" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>980</v>
       </c>
@@ -12205,8 +14242,17 @@
       <c r="N158" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P158" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="R158" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>986</v>
       </c>
@@ -12243,8 +14289,17 @@
       <c r="N159" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P159" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>992</v>
       </c>
@@ -12281,8 +14336,17 @@
       <c r="N160" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P160" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="S160" s="3" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>997</v>
       </c>
@@ -12322,8 +14386,17 @@
       <c r="N161" s="2" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P161" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R161" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1005</v>
       </c>
@@ -12363,8 +14436,17 @@
       <c r="N162" s="2" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P162" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R162" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="S162" s="3" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1013</v>
       </c>
@@ -12401,8 +14483,17 @@
       <c r="N163" s="2" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P163" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R163" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="S163" s="3" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12439,8 +14530,14 @@
       <c r="N164" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P164" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="R164" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1027</v>
       </c>
@@ -12480,8 +14577,17 @@
       <c r="N165" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P165" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R165" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="S165" s="3" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1033</v>
       </c>
@@ -12521,8 +14627,14 @@
       <c r="N166" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P166" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R166" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1038</v>
       </c>
@@ -12559,8 +14671,17 @@
       <c r="N167" s="2" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P167" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="R167" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="S167" s="3" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1045</v>
       </c>
@@ -12597,8 +14718,17 @@
       <c r="N168" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P168" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R168" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="S168" s="3" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1051</v>
       </c>
@@ -12635,8 +14765,17 @@
       <c r="N169" s="2" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P169" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R169" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="S169" s="3" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1059</v>
       </c>
@@ -12676,8 +14815,20 @@
       <c r="N170" s="2" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P170" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="R170" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="S170" s="3" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1067</v>
       </c>
@@ -12714,8 +14865,14 @@
       <c r="N171" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P171" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R171" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1073</v>
       </c>
@@ -12752,8 +14909,17 @@
       <c r="N172" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P172" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="R172" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="S172" s="3" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1079</v>
       </c>
@@ -12790,8 +14956,17 @@
       <c r="N173" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P173" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R173" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="S173" s="3" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1084</v>
       </c>
@@ -12828,8 +15003,20 @@
       <c r="N174" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P174" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="R174" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="S174" s="3" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1089</v>
       </c>
@@ -12869,8 +15056,17 @@
       <c r="N175" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P175" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R175" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="S175" s="3" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1095</v>
       </c>
@@ -12910,8 +15106,20 @@
       <c r="N176" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P176" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S176" s="3" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1101</v>
       </c>
@@ -12948,8 +15156,14 @@
       <c r="N177" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P177" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1108</v>
       </c>
@@ -12986,8 +15200,17 @@
       <c r="N178" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P178" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="S178" s="3" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1114</v>
       </c>
@@ -13027,8 +15250,17 @@
       <c r="N179" s="2" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P179" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="R179" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="S179" s="3" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1122</v>
       </c>
@@ -13071,8 +15303,17 @@
       <c r="N180" s="2" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P180" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="S180" s="3" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1131</v>
       </c>
@@ -13115,8 +15356,14 @@
       <c r="N181" s="2" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P181" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="R181" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1138</v>
       </c>
@@ -13159,8 +15406,17 @@
       <c r="N182" s="2" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P182" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="R182" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="S182" s="3" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1146</v>
       </c>
@@ -13203,8 +15459,14 @@
       <c r="N183" s="2" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P183" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R183" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1154</v>
       </c>
@@ -13241,8 +15503,17 @@
       <c r="N184" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P184" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="S184" s="3" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1160</v>
       </c>
@@ -13282,8 +15553,14 @@
       <c r="N185" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P185" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1166</v>
       </c>
@@ -13323,8 +15600,20 @@
       <c r="N186" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P186" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q186" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="R186" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S186" s="3" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1172</v>
       </c>
@@ -13361,22 +15650,31 @@
       <c r="N187" s="2" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P187" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="R187" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1359</v>
       </c>
+      <c r="B188" s="1" t="s">
+        <v>1365</v>
+      </c>
       <c r="C188" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="M188" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R188" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1178</v>
       </c>
@@ -13419,8 +15717,14 @@
       <c r="N189" s="2" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P189" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="R189" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1186</v>
       </c>
@@ -13457,8 +15761,14 @@
       <c r="N190" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P190" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R190" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1193</v>
       </c>
@@ -13495,8 +15805,14 @@
       <c r="N191" s="2" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P191" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R191" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1200</v>
       </c>
@@ -13533,8 +15849,14 @@
       <c r="N192" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P192" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R192" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1205</v>
       </c>
@@ -13574,8 +15896,14 @@
       <c r="N193" s="2" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P193" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="R193" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1212</v>
       </c>
@@ -13612,8 +15940,14 @@
       <c r="N194" s="2" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P194" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R194" s="3" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1219</v>
       </c>
@@ -13650,8 +15984,17 @@
       <c r="N195" s="2" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P195" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R195" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="S195" s="3" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1226</v>
       </c>
@@ -13688,8 +16031,17 @@
       <c r="N196" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P196" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="Q196" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="R196" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1231</v>
       </c>
@@ -13726,8 +16078,14 @@
       <c r="N197" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P197" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="R197" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1236</v>
       </c>
@@ -13764,8 +16122,17 @@
       <c r="N198" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P198" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q198" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="R198" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1241</v>
       </c>
@@ -13802,8 +16169,14 @@
       <c r="N199" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P199" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="R199" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1246</v>
       </c>
@@ -13843,8 +16216,11 @@
       <c r="N200" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P200" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1252</v>
       </c>
@@ -13881,8 +16257,11 @@
       <c r="N201" s="2" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P201" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13919,8 +16298,11 @@
       <c r="N202" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P202" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1267</v>
       </c>
@@ -13957,8 +16339,11 @@
       <c r="N203" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P203" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1273</v>
       </c>
@@ -13995,8 +16380,11 @@
       <c r="N204" s="2" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P204" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1281</v>
       </c>
@@ -14033,8 +16421,14 @@
       <c r="N205" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P205" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Q205" s="3" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1288</v>
       </c>
@@ -14074,8 +16468,14 @@
       <c r="N206" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P206" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="Q206" s="3" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1293</v>
       </c>
@@ -14112,22 +16512,25 @@
       <c r="N207" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P207" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1362</v>
       </c>
+      <c r="B208" s="1" t="s">
+        <v>1365</v>
+      </c>
       <c r="C208" s="1" t="s">
         <v>1363</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="M208" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1299</v>
       </c>
@@ -14164,8 +16567,11 @@
       <c r="N209" s="2" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P209" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1308</v>
       </c>
@@ -14202,8 +16608,11 @@
       <c r="N210" s="2" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P210" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1316</v>
       </c>
@@ -14243,8 +16652,11 @@
       <c r="N211" s="2" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P211" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1329</v>
       </c>
@@ -14257,8 +16669,11 @@
       <c r="M212" s="1" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O212" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1333</v>
       </c>
@@ -14271,8 +16686,11 @@
       <c r="M213" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O213" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1337</v>
       </c>
@@ -14285,8 +16703,11 @@
       <c r="M214" s="1" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O214" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1341</v>
       </c>
@@ -14298,6 +16719,9 @@
       </c>
       <c r="M215" s="1" t="s">
         <v>1339</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>1770</v>
       </c>
     </row>
   </sheetData>

--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1969">
   <si>
     <t>locus</t>
   </si>
@@ -6407,7 +6407,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6415,7 +6415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6758,10 +6757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S215"/>
+  <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6781,13 +6780,11 @@
     <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="112.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="34" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="17" width="41.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="41.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6834,13 +6831,10 @@
         <v>1366</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6881,16 +6875,10 @@
         <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6931,16 +6919,10 @@
         <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
         <v>1873</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6978,19 +6960,10 @@
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="3" t="s">
         <v>1799</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -7028,16 +7001,10 @@
         <v>35</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="3" t="s">
         <v>1825</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -7078,19 +7045,10 @@
         <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="3" t="s">
         <v>1813</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -7118,17 +7076,8 @@
       <c r="N7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1347</v>
       </c>
@@ -7141,14 +7090,8 @@
       <c r="D8" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1344</v>
       </c>
@@ -7161,14 +7104,8 @@
       <c r="D9" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -7206,19 +7143,10 @@
         <v>35</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="3" t="s">
         <v>1864</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -7256,19 +7184,10 @@
         <v>35</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="3" t="s">
         <v>1965</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -7312,19 +7231,10 @@
         <v>71</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="3" t="s">
         <v>1843</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -7362,16 +7272,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -7409,19 +7313,10 @@
         <v>35</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="3" t="s">
         <v>1834</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -7459,16 +7354,10 @@
         <v>35</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="3" t="s">
         <v>1933</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -7509,16 +7398,10 @@
         <v>35</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -7556,19 +7439,10 @@
         <v>35</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="3" t="s">
         <v>1935</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -7606,19 +7480,10 @@
         <v>35</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q18" s="3" t="s">
         <v>1918</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -7656,19 +7521,10 @@
         <v>35</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="3" t="s">
         <v>1952</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -7706,19 +7562,10 @@
         <v>35</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="3" t="s">
         <v>1839</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
@@ -7762,19 +7609,10 @@
         <v>124</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q21" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
@@ -7812,16 +7650,10 @@
         <v>35</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="3" t="s">
         <v>1868</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -7862,19 +7694,10 @@
         <v>138</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="3" t="s">
         <v>1802</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -7912,19 +7735,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q24" s="3" t="s">
         <v>1967</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
@@ -7962,19 +7776,10 @@
         <v>35</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q25" s="3" t="s">
         <v>1893</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -8012,16 +7817,10 @@
         <v>35</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" s="3" t="s">
         <v>1857</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>155</v>
       </c>
@@ -8059,19 +7858,10 @@
         <v>35</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q27" s="3" t="s">
         <v>1842</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>161</v>
       </c>
@@ -8109,19 +7899,10 @@
         <v>168</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q28" s="3" t="s">
         <v>1913</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>169</v>
       </c>
@@ -8162,16 +7943,10 @@
         <v>35</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q29" s="3" t="s">
         <v>1819</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -8212,16 +7987,10 @@
         <v>182</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q30" s="3" t="s">
         <v>1772</v>
       </c>
-      <c r="R30" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
@@ -8262,16 +8031,10 @@
         <v>189</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q31" s="3" t="s">
         <v>1774</v>
       </c>
-      <c r="R31" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>190</v>
       </c>
@@ -8315,19 +8078,10 @@
         <v>197</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q32" s="3" t="s">
         <v>1785</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>198</v>
       </c>
@@ -8368,16 +8122,10 @@
         <v>204</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q33" s="3" t="s">
         <v>1798</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>205</v>
       </c>
@@ -8418,16 +8166,10 @@
         <v>212</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q34" s="3" t="s">
         <v>1800</v>
       </c>
-      <c r="R34" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>213</v>
       </c>
@@ -8465,19 +8207,10 @@
         <v>35</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q35" s="3" t="s">
         <v>1824</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>220</v>
       </c>
@@ -8515,19 +8248,10 @@
         <v>227</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q36" s="3" t="s">
         <v>1869</v>
       </c>
-      <c r="R36" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>228</v>
       </c>
@@ -8565,19 +8289,10 @@
         <v>35</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q37" s="3" t="s">
         <v>1962</v>
       </c>
-      <c r="R37" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>233</v>
       </c>
@@ -8621,19 +8336,10 @@
         <v>240</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q38" s="3" t="s">
         <v>1803</v>
       </c>
-      <c r="R38" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -8674,19 +8380,10 @@
         <v>249</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q39" s="3" t="s">
         <v>1888</v>
       </c>
-      <c r="R39" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>250</v>
       </c>
@@ -8724,19 +8421,10 @@
         <v>255</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q40" s="3" t="s">
         <v>1961</v>
       </c>
-      <c r="R40" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>256</v>
       </c>
@@ -8774,19 +8462,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q41" s="3" t="s">
         <v>1885</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>262</v>
       </c>
@@ -8827,19 +8506,10 @@
         <v>268</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q42" s="3" t="s">
         <v>1867</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>269</v>
       </c>
@@ -8877,16 +8547,10 @@
         <v>275</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q43" s="3" t="s">
         <v>1948</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>276</v>
       </c>
@@ -8924,16 +8588,10 @@
         <v>35</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q44" s="3" t="s">
         <v>1862</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>282</v>
       </c>
@@ -8971,16 +8629,10 @@
         <v>35</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q45" s="3" t="s">
         <v>1944</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>288</v>
       </c>
@@ -9018,19 +8670,10 @@
         <v>35</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q46" s="3" t="s">
         <v>1921</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>294</v>
       </c>
@@ -9068,19 +8711,10 @@
         <v>35</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q47" s="3" t="s">
         <v>1859</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>300</v>
       </c>
@@ -9118,19 +8752,10 @@
         <v>35</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q48" s="3" t="s">
         <v>1861</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
@@ -9171,19 +8796,10 @@
         <v>313</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q49" s="3" t="s">
         <v>1784</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>314</v>
       </c>
@@ -9221,16 +8837,10 @@
         <v>320</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q50" s="3" t="s">
         <v>1892</v>
       </c>
-      <c r="R50" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -9268,19 +8878,10 @@
         <v>35</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q51" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="R51" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>326</v>
       </c>
@@ -9318,19 +8919,10 @@
         <v>35</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q52" s="3" t="s">
         <v>1856</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>332</v>
       </c>
@@ -9371,19 +8963,10 @@
         <v>35</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q53" s="3" t="s">
         <v>1814</v>
       </c>
-      <c r="R53" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>339</v>
       </c>
@@ -9411,17 +8994,8 @@
       <c r="N54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>344</v>
       </c>
@@ -9459,16 +9033,10 @@
         <v>351</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q55" s="3" t="s">
         <v>1901</v>
       </c>
-      <c r="R55" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>352</v>
       </c>
@@ -9509,16 +9077,10 @@
         <v>360</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q56" s="3" t="s">
         <v>1812</v>
       </c>
-      <c r="R56" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>361</v>
       </c>
@@ -9556,19 +9118,10 @@
         <v>35</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q57" s="3" t="s">
         <v>1917</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>367</v>
       </c>
@@ -9612,19 +9165,10 @@
         <v>375</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q58" s="3" t="s">
         <v>1795</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -9665,19 +9209,10 @@
         <v>384</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q59" s="3" t="s">
         <v>1791</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>385</v>
       </c>
@@ -9715,16 +9250,10 @@
         <v>35</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q60" s="3" t="s">
         <v>1950</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1350</v>
       </c>
@@ -9737,14 +9266,8 @@
       <c r="D61" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="R61" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>392</v>
       </c>
@@ -9785,19 +9308,10 @@
         <v>35</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q62" s="3" t="s">
         <v>1872</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>398</v>
       </c>
@@ -9835,19 +9349,10 @@
         <v>35</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q63" s="3" t="s">
         <v>1898</v>
       </c>
-      <c r="R63" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>403</v>
       </c>
@@ -9885,19 +9390,10 @@
         <v>35</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q64" s="3" t="s">
         <v>1958</v>
       </c>
-      <c r="R64" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>408</v>
       </c>
@@ -9935,16 +9431,10 @@
         <v>35</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q65" s="3" t="s">
         <v>1829</v>
       </c>
-      <c r="R65" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>414</v>
       </c>
@@ -9982,19 +9472,10 @@
         <v>422</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q66" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>423</v>
       </c>
@@ -10032,19 +9513,10 @@
         <v>429</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q67" s="3" t="s">
         <v>1916</v>
       </c>
-      <c r="R67" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="S67" s="3" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>430</v>
       </c>
@@ -10082,19 +9554,10 @@
         <v>35</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q68" s="3" t="s">
         <v>1925</v>
       </c>
-      <c r="R68" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>436</v>
       </c>
@@ -10132,16 +9595,10 @@
         <v>429</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q69" s="3" t="s">
         <v>1957</v>
       </c>
-      <c r="R69" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>442</v>
       </c>
@@ -10179,16 +9636,10 @@
         <v>447</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q70" s="3" t="s">
         <v>1966</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>448</v>
       </c>
@@ -10226,19 +9677,10 @@
         <v>35</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q71" s="3" t="s">
         <v>1882</v>
       </c>
-      <c r="R71" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="S71" s="3" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>453</v>
       </c>
@@ -10276,16 +9718,10 @@
         <v>35</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>458</v>
       </c>
@@ -10326,13 +9762,10 @@
         <v>35</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="R73" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>464</v>
       </c>
@@ -10370,13 +9803,10 @@
         <v>35</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>471</v>
       </c>
@@ -10414,16 +9844,10 @@
         <v>35</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>477</v>
       </c>
@@ -10467,16 +9891,10 @@
         <v>485</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>486</v>
       </c>
@@ -10520,13 +9938,10 @@
         <v>494</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="R77" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>495</v>
       </c>
@@ -10567,16 +9982,10 @@
         <v>35</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="R78" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>501</v>
       </c>
@@ -10614,16 +10023,10 @@
         <v>35</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R79" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="S79" s="3" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>507</v>
       </c>
@@ -10661,16 +10064,10 @@
         <v>35</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>513</v>
       </c>
@@ -10708,16 +10105,10 @@
         <v>518</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>519</v>
       </c>
@@ -10755,16 +10146,10 @@
         <v>35</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R82" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>525</v>
       </c>
@@ -10808,16 +10193,10 @@
         <v>531</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>532</v>
       </c>
@@ -10855,16 +10234,10 @@
         <v>539</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="R84" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>540</v>
       </c>
@@ -10902,16 +10275,10 @@
         <v>35</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="R85" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="S85" s="3" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>546</v>
       </c>
@@ -10949,16 +10316,10 @@
         <v>35</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>552</v>
       </c>
@@ -10996,13 +10357,10 @@
         <v>35</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="R87" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>557</v>
       </c>
@@ -11043,13 +10401,10 @@
         <v>35</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="R88" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>564</v>
       </c>
@@ -11087,16 +10442,10 @@
         <v>570</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>571</v>
       </c>
@@ -11140,13 +10489,10 @@
         <v>578</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="R90" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>579</v>
       </c>
@@ -11184,16 +10530,10 @@
         <v>586</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1353</v>
       </c>
@@ -11206,11 +10546,8 @@
       <c r="D92" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="R92" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>587</v>
       </c>
@@ -11248,13 +10585,10 @@
         <v>35</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="R93" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>592</v>
       </c>
@@ -11292,16 +10626,10 @@
         <v>35</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>598</v>
       </c>
@@ -11339,13 +10667,10 @@
         <v>35</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="R95" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>604</v>
       </c>
@@ -11383,16 +10708,10 @@
         <v>610</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="R96" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="S96" s="3" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>611</v>
       </c>
@@ -11430,16 +10749,10 @@
         <v>35</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S97" s="3" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>617</v>
       </c>
@@ -11480,13 +10793,10 @@
         <v>623</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>624</v>
       </c>
@@ -11524,13 +10834,10 @@
         <v>630</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="R99" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>631</v>
       </c>
@@ -11574,13 +10881,10 @@
         <v>639</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>640</v>
       </c>
@@ -11618,16 +10922,10 @@
         <v>35</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>645</v>
       </c>
@@ -11665,16 +10963,10 @@
         <v>35</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>650</v>
       </c>
@@ -11712,13 +11004,10 @@
         <v>35</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="R103" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>655</v>
       </c>
@@ -11756,13 +11045,10 @@
         <v>35</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="R104" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>660</v>
       </c>
@@ -11800,16 +11086,10 @@
         <v>35</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="R105" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="S105" s="3" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>666</v>
       </c>
@@ -11847,16 +11127,10 @@
         <v>35</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="R106" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="S106" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>671</v>
       </c>
@@ -11894,16 +11168,10 @@
         <v>35</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="R107" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="S107" s="3" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>676</v>
       </c>
@@ -11931,17 +11199,8 @@
       <c r="N108" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P108" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="R108" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="S108" s="3" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>680</v>
       </c>
@@ -11982,16 +11241,10 @@
         <v>687</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="R109" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="S109" s="3" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>688</v>
       </c>
@@ -12032,16 +11285,10 @@
         <v>694</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="R110" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="S110" s="3" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>695</v>
       </c>
@@ -12079,19 +11326,10 @@
         <v>35</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q111" s="3" t="s">
         <v>1959</v>
       </c>
-      <c r="R111" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="S111" s="3" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>700</v>
       </c>
@@ -12132,16 +11370,10 @@
         <v>35</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q112" s="3" t="s">
         <v>1897</v>
       </c>
-      <c r="R112" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>706</v>
       </c>
@@ -12182,13 +11414,10 @@
         <v>35</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="R113" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>711</v>
       </c>
@@ -12232,13 +11461,10 @@
         <v>718</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="R114" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>719</v>
       </c>
@@ -12276,13 +11502,10 @@
         <v>35</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="R115" s="3" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>724</v>
       </c>
@@ -12320,13 +11543,10 @@
         <v>35</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="R116" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>729</v>
       </c>
@@ -12364,16 +11584,10 @@
         <v>35</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="R117" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="S117" s="3" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>735</v>
       </c>
@@ -12411,13 +11625,10 @@
         <v>35</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="R118" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>742</v>
       </c>
@@ -12455,13 +11666,10 @@
         <v>35</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="R119" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>747</v>
       </c>
@@ -12499,16 +11707,10 @@
         <v>35</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="R120" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="S120" s="3" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>752</v>
       </c>
@@ -12546,19 +11748,10 @@
         <v>35</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q121" s="3" t="s">
         <v>1881</v>
       </c>
-      <c r="R121" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="S121" s="3" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>758</v>
       </c>
@@ -12596,16 +11789,10 @@
         <v>35</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="R122" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="S122" s="3" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>764</v>
       </c>
@@ -12643,13 +11830,10 @@
         <v>35</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="R123" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>770</v>
       </c>
@@ -12690,13 +11874,10 @@
         <v>35</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="R124" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>776</v>
       </c>
@@ -12737,16 +11918,10 @@
         <v>784</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="R125" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="S125" s="3" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>785</v>
       </c>
@@ -12774,17 +11949,8 @@
       <c r="N126" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P126" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="R126" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="S126" s="3" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1356</v>
       </c>
@@ -12797,14 +11963,8 @@
       <c r="D127" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="R127" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="S127" s="3" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>789</v>
       </c>
@@ -12842,13 +12002,10 @@
         <v>35</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="R128" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>795</v>
       </c>
@@ -12886,16 +12043,10 @@
         <v>35</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="Q129" s="3" t="s">
         <v>1919</v>
       </c>
-      <c r="R129" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>801</v>
       </c>
@@ -12923,14 +12074,8 @@
       <c r="N130" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P130" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="R130" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>806</v>
       </c>
@@ -12968,16 +12113,10 @@
         <v>814</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="R131" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="S131" s="3" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>815</v>
       </c>
@@ -13015,16 +12154,10 @@
         <v>570</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q132" s="3" t="s">
         <v>1883</v>
       </c>
-      <c r="R132" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>820</v>
       </c>
@@ -13062,13 +12195,10 @@
         <v>35</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="R133" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>826</v>
       </c>
@@ -13106,19 +12236,10 @@
         <v>35</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="Q134" s="3" t="s">
         <v>1902</v>
       </c>
-      <c r="R134" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="S134" s="3" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>834</v>
       </c>
@@ -13156,13 +12277,10 @@
         <v>35</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="R135" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>839</v>
       </c>
@@ -13200,13 +12318,10 @@
         <v>35</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="R136" s="3" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>844</v>
       </c>
@@ -13244,16 +12359,10 @@
         <v>35</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="R137" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="S137" s="3" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>849</v>
       </c>
@@ -13291,16 +12400,10 @@
         <v>35</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="R138" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="S138" s="3" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>854</v>
       </c>
@@ -13338,16 +12441,10 @@
         <v>35</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="R139" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="S139" s="3" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>860</v>
       </c>
@@ -13385,16 +12482,10 @@
         <v>35</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="R140" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="S140" s="3" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>865</v>
       </c>
@@ -13432,16 +12523,10 @@
         <v>871</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="R141" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="S141" s="3" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>872</v>
       </c>
@@ -13482,16 +12567,10 @@
         <v>35</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="R142" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="S142" s="3" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>878</v>
       </c>
@@ -13529,16 +12608,10 @@
         <v>35</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="R143" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="S143" s="3" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>884</v>
       </c>
@@ -13576,13 +12649,10 @@
         <v>891</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="R144" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>892</v>
       </c>
@@ -13623,16 +12693,10 @@
         <v>899</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="R145" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="S145" s="3" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>900</v>
       </c>
@@ -13673,16 +12737,10 @@
         <v>907</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="R146" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="S146" s="3" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>908</v>
       </c>
@@ -13720,13 +12778,10 @@
         <v>915</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="R147" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>916</v>
       </c>
@@ -13764,13 +12819,10 @@
         <v>35</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="R148" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>921</v>
       </c>
@@ -13808,13 +12860,10 @@
         <v>35</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="R149" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>927</v>
       </c>
@@ -13852,16 +12901,10 @@
         <v>35</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="Q150" s="3" t="s">
         <v>1940</v>
       </c>
-      <c r="R150" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>932</v>
       </c>
@@ -13899,19 +12942,10 @@
         <v>35</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="Q151" s="3" t="s">
         <v>1968</v>
       </c>
-      <c r="R151" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="S151" s="3" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>937</v>
       </c>
@@ -13952,13 +12986,10 @@
         <v>943</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="R152" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>944</v>
       </c>
@@ -13999,16 +13030,10 @@
         <v>35</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="R153" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="S153" s="3" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>950</v>
       </c>
@@ -14049,16 +13074,10 @@
         <v>35</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="R154" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="S154" s="3" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>956</v>
       </c>
@@ -14099,16 +13118,10 @@
         <v>963</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="R155" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="S155" s="3" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>964</v>
       </c>
@@ -14146,13 +13159,10 @@
         <v>970</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="R156" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>971</v>
       </c>
@@ -14196,16 +13206,10 @@
         <v>979</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="R157" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="S157" s="3" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>980</v>
       </c>
@@ -14243,16 +13247,10 @@
         <v>35</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="R158" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="S158" s="3" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>986</v>
       </c>
@@ -14290,16 +13288,10 @@
         <v>35</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="R159" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="S159" s="3" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>992</v>
       </c>
@@ -14337,16 +13329,10 @@
         <v>35</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="R160" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="S160" s="3" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>997</v>
       </c>
@@ -14387,16 +13373,10 @@
         <v>1004</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="R161" s="3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="S161" s="3" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1005</v>
       </c>
@@ -14437,16 +13417,10 @@
         <v>1012</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="R162" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="S162" s="3" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1013</v>
       </c>
@@ -14484,16 +13458,10 @@
         <v>1020</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="R163" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="S163" s="3" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1021</v>
       </c>
@@ -14531,13 +13499,10 @@
         <v>35</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="R164" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1027</v>
       </c>
@@ -14578,16 +13543,10 @@
         <v>35</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="R165" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="S165" s="3" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14628,13 +13587,10 @@
         <v>35</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="R166" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1038</v>
       </c>
@@ -14672,16 +13628,10 @@
         <v>1044</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="R167" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="S167" s="3" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1045</v>
       </c>
@@ -14719,16 +13669,10 @@
         <v>35</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R168" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="S168" s="3" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1051</v>
       </c>
@@ -14766,16 +13710,10 @@
         <v>1058</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="R169" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="S169" s="3" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1059</v>
       </c>
@@ -14816,19 +13754,10 @@
         <v>1066</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Q170" s="3" t="s">
         <v>1884</v>
       </c>
-      <c r="R170" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="S170" s="3" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1067</v>
       </c>
@@ -14866,13 +13795,10 @@
         <v>35</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="R171" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1073</v>
       </c>
@@ -14910,16 +13836,10 @@
         <v>35</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="R172" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="S172" s="3" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1079</v>
       </c>
@@ -14957,16 +13877,10 @@
         <v>35</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="R173" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="S173" s="3" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1084</v>
       </c>
@@ -15004,19 +13918,10 @@
         <v>35</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Q174" s="3" t="s">
         <v>1960</v>
       </c>
-      <c r="R174" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="S174" s="3" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1089</v>
       </c>
@@ -15057,16 +13962,10 @@
         <v>35</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="R175" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="S175" s="3" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1095</v>
       </c>
@@ -15107,19 +14006,10 @@
         <v>35</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="Q176" s="3" t="s">
         <v>1905</v>
       </c>
-      <c r="R176" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="S176" s="3" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1101</v>
       </c>
@@ -15157,13 +14047,10 @@
         <v>1107</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="R177" s="3" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15201,16 +14088,10 @@
         <v>35</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="R178" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="S178" s="3" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1114</v>
       </c>
@@ -15251,16 +14132,10 @@
         <v>1121</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="R179" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="S179" s="3" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1122</v>
       </c>
@@ -15304,16 +14179,10 @@
         <v>1130</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="R180" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="S180" s="3" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1131</v>
       </c>
@@ -15357,13 +14226,10 @@
         <v>1137</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="R181" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1138</v>
       </c>
@@ -15407,16 +14273,10 @@
         <v>1145</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="R182" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="S182" s="3" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1146</v>
       </c>
@@ -15460,13 +14320,10 @@
         <v>1153</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="R183" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1154</v>
       </c>
@@ -15504,16 +14361,10 @@
         <v>35</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="R184" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="S184" s="3" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1160</v>
       </c>
@@ -15554,13 +14405,10 @@
         <v>35</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="R185" s="3" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1166</v>
       </c>
@@ -15601,19 +14449,10 @@
         <v>35</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="Q186" s="3" t="s">
         <v>1946</v>
       </c>
-      <c r="R186" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S186" s="3" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1172</v>
       </c>
@@ -15651,13 +14490,10 @@
         <v>1177</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="R187" s="3" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1359</v>
       </c>
@@ -15670,11 +14506,8 @@
       <c r="D188" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="R188" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1178</v>
       </c>
@@ -15718,13 +14551,10 @@
         <v>1185</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="R189" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1186</v>
       </c>
@@ -15762,13 +14592,10 @@
         <v>35</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="R190" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1193</v>
       </c>
@@ -15806,13 +14633,10 @@
         <v>1199</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="R191" s="3" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1200</v>
       </c>
@@ -15850,13 +14674,10 @@
         <v>35</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="R192" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1205</v>
       </c>
@@ -15897,13 +14718,10 @@
         <v>1211</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="R193" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1212</v>
       </c>
@@ -15941,13 +14759,10 @@
         <v>1218</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="R194" s="3" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1219</v>
       </c>
@@ -15985,16 +14800,10 @@
         <v>1225</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="R195" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="S195" s="3" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1226</v>
       </c>
@@ -16032,16 +14841,10 @@
         <v>35</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="Q196" s="3" t="s">
         <v>1954</v>
       </c>
-      <c r="R196" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1231</v>
       </c>
@@ -16079,13 +14882,10 @@
         <v>35</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="R197" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1236</v>
       </c>
@@ -16123,16 +14923,10 @@
         <v>35</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="Q198" s="3" t="s">
         <v>1956</v>
       </c>
-      <c r="R198" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1241</v>
       </c>
@@ -16170,13 +14964,10 @@
         <v>255</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="R199" s="3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1246</v>
       </c>
@@ -16217,10 +15008,10 @@
         <v>35</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1252</v>
       </c>
@@ -16258,10 +15049,10 @@
         <v>1260</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1261</v>
       </c>
@@ -16299,10 +15090,10 @@
         <v>35</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1267</v>
       </c>
@@ -16340,10 +15131,10 @@
         <v>35</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1273</v>
       </c>
@@ -16381,10 +15172,10 @@
         <v>1280</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1281</v>
       </c>
@@ -16422,13 +15213,10 @@
         <v>35</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="Q205" s="3" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1288</v>
       </c>
@@ -16469,13 +15257,10 @@
         <v>35</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="Q206" s="3" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1293</v>
       </c>
@@ -16513,10 +15298,10 @@
         <v>35</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1362</v>
       </c>
@@ -16568,7 +15353,7 @@
         <v>1307</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>1305</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16609,7 +15394,7 @@
         <v>1315</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>1313</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16653,7 +15438,7 @@
         <v>1324</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>1322</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="2200">
   <si>
     <t>locus</t>
   </si>
@@ -5221,95 +5221,1415 @@
     <t>343 AA.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytoplasm
+    <t>Cytoplasm</t>
+  </si>
+  <si>
+    <t>Purine metabolism; 7-cyano-7-deazaguanine biosynthesis.</t>
+  </si>
+  <si>
+    <t>BioCyc AC</t>
+  </si>
+  <si>
+    <t>Genes codificando RNA (tRNA)</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-219-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-33-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-198-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-34-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-89-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-84-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-215-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-107-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-202-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-82-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-83-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-1-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-90-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-55-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-36-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-170-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-193-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-195-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-196-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-194-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-64-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-223-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-188-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-226-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-63-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-96-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-123-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-37-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-3-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-38-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-185-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-26-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-42-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-117-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-192-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-159-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-157-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-176-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-160-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-141-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-105-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-61-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-5-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-59-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-168-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-167-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-158-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-94-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-32-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-165-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-133-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-154-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-111-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-39-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-4-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-88-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-207-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-214-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-71-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-156-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-120-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-221-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-162-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-16-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-103-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-178-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-110-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-15-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-23-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-206-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-87-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-30-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-14-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-172-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-101-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-18-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-204-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-128-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-127-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-184-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-203-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-179-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-137-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-91-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-182-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-58-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-29-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-224-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-53-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-169-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-54-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-49-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-124-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-10-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-175-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-177-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-46-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-25-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-40-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-126-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-112-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-68-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-2-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-85-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-174-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-131-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-213-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-181-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-81-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-95-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-130-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-77-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-142-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-183-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-45-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-171-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-24-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-43-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-191-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-144-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-186-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-56-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-28-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-97-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-166-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-132-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-119-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-69-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-57-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-79-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-60-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-145-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-216-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-72-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-189-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-200-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-86-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-102-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-218-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-134-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-78-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-80-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-31-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-106-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-146-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-73-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-62-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-20-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-139-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-209-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-52-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-180-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-161-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-155-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-74-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-108-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-129-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-151-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-150-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-205-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-217-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-109-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-17-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-93-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-19-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-99-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-114-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-197-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-100-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-163-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-92-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-173-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-115-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-51-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-211-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-199-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-152-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-48-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-147-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-65-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-149-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-22-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-125-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-210-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:MetaCyc:MONOMER-17340</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-212-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-75-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-70-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-118-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-187-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-44-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-41-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-220-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-113-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-13-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-76-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-27-MONOMER</t>
+  </si>
+  <si>
+    <t>BioCyc:NGON242231:GI2G-164-MONOMER</t>
+  </si>
+  <si>
+    <t>KO:K02313</t>
+  </si>
+  <si>
+    <t>KO:K02338</t>
+  </si>
+  <si>
+    <t>KO:K00937</t>
+  </si>
+  <si>
+    <t>KO:K01869</t>
+  </si>
+  <si>
+    <t>KO:K07726</t>
+  </si>
+  <si>
+    <t>KO:K03075</t>
+  </si>
+  <si>
+    <t>KO:K07170</t>
+  </si>
+  <si>
+    <t>KO:K00573</t>
+  </si>
+  <si>
+    <t>KO:K16088</t>
+  </si>
+  <si>
+    <t>KO:K01322</t>
+  </si>
+  <si>
+    <t>KO:K02334</t>
+  </si>
+  <si>
+    <t>KO:K03789</t>
+  </si>
+  <si>
+    <t>KO:K14742</t>
+  </si>
+  <si>
+    <t>KO:K01624</t>
+  </si>
+  <si>
+    <t>KO:K03733</t>
+  </si>
+  <si>
+    <t>KO:K06168</t>
+  </si>
+  <si>
+    <t>KO:K13288</t>
+  </si>
+  <si>
+    <t>KO:K02687</t>
+  </si>
+  <si>
+    <t>KO:K01961</t>
+  </si>
+  <si>
+    <t>KO:K02160</t>
+  </si>
+  <si>
+    <t>KO:K03593</t>
+  </si>
+  <si>
+    <t>KO:K00484</t>
+  </si>
+  <si>
+    <t>KO:K06942</t>
+  </si>
+  <si>
+    <t>KO:K01866</t>
+  </si>
+  <si>
+    <t>KO:K11753</t>
+  </si>
+  <si>
+    <t>KO:K01870</t>
+  </si>
+  <si>
+    <t>KO:K01091</t>
+  </si>
+  <si>
+    <t>KO:K02337</t>
+  </si>
+  <si>
+    <t>KO:K14761</t>
+  </si>
+  <si>
+    <t>KO:K07053</t>
+  </si>
+  <si>
+    <t>KO:K00835</t>
+  </si>
+  <si>
+    <t>KO:K07738</t>
+  </si>
+  <si>
+    <t>KO:K07008</t>
+  </si>
+  <si>
+    <t>KO:K02666</t>
+  </si>
+  <si>
+    <t>KO:K02665</t>
+  </si>
+  <si>
+    <t>KO:K02664</t>
+  </si>
+  <si>
+    <t>KO:K02663</t>
+  </si>
+  <si>
+    <t>KO:K02662</t>
+  </si>
+  <si>
+    <t>KO:K03978</t>
+  </si>
+  <si>
+    <t>KO:K07399</t>
+  </si>
+  <si>
+    <t>KO:K01409</t>
+  </si>
+  <si>
+    <t>KO:K02517</t>
+  </si>
+  <si>
+    <t>KO:K07259</t>
+  </si>
+  <si>
+    <t>KO:K03300</t>
+  </si>
+  <si>
+    <t>KO:K07645</t>
+  </si>
+  <si>
+    <t>KO:K08301</t>
+  </si>
+  <si>
+    <t>KO:K03676</t>
+  </si>
+  <si>
+    <t>KO:K03071</t>
+  </si>
+  <si>
+    <t>KO:K03655</t>
+  </si>
+  <si>
+    <t>KO:K13408</t>
+  </si>
+  <si>
+    <t>KO:K07058</t>
+  </si>
+  <si>
+    <t>KO:K01362</t>
+  </si>
+  <si>
+    <t>KO:K10773</t>
+  </si>
+  <si>
+    <t>KO:K02429</t>
+  </si>
+  <si>
+    <t>KO:K03315</t>
+  </si>
+  <si>
+    <t>KO:K06189</t>
+  </si>
+  <si>
+    <t>KO:K07042</t>
+  </si>
+  <si>
+    <t>KO:K05540</t>
+  </si>
+  <si>
+    <t>KO:K01159</t>
+  </si>
+  <si>
+    <t>KO:K07501</t>
+  </si>
+  <si>
+    <t>KO:K01256</t>
+  </si>
+  <si>
+    <t>KO:K02077</t>
+  </si>
+  <si>
+    <t>KO:K02075</t>
+  </si>
+  <si>
+    <t>KO:K02074</t>
+  </si>
+  <si>
+    <t>KO:K02884</t>
+  </si>
+  <si>
+    <t>KO:K00554</t>
+  </si>
+  <si>
+    <t>KO:K02860</t>
+  </si>
+  <si>
+    <t>KO:K02959</t>
+  </si>
+  <si>
+    <t>KO:K02484</t>
+  </si>
+  <si>
+    <t>KO:K02483</t>
+  </si>
+  <si>
+    <t>KO:K06287</t>
+  </si>
+  <si>
+    <t>KO:K03118</t>
+  </si>
+  <si>
+    <t>KO:K03117</t>
+  </si>
+  <si>
+    <t>KO:K03116</t>
+  </si>
+  <si>
+    <t>KO:K02503</t>
+  </si>
+  <si>
+    <t>KO:K00004</t>
+  </si>
+  <si>
+    <t>KO:K03210</t>
+  </si>
+  <si>
+    <t>KO:K03072</t>
+  </si>
+  <si>
+    <t>KO:K03074</t>
+  </si>
+  <si>
+    <t>KO:K02956</t>
+  </si>
+  <si>
+    <t>KO:K11076</t>
+  </si>
+  <si>
+    <t>KO:K11075</t>
+  </si>
+  <si>
+    <t>KO:K11074</t>
+  </si>
+  <si>
+    <t>KO:K09471</t>
+  </si>
+  <si>
+    <t>KO:K03320</t>
+  </si>
+  <si>
+    <t>KO:K03628</t>
+  </si>
+  <si>
+    <t>KO:K09773</t>
+  </si>
+  <si>
+    <t>KO:K03634</t>
+  </si>
+  <si>
+    <t>KO:K02055</t>
+  </si>
+  <si>
+    <t>KO:K02837</t>
+  </si>
+  <si>
+    <t>KO:K13788</t>
+  </si>
+  <si>
+    <t>KO:K02010</t>
+  </si>
+  <si>
+    <t>KO:K02011</t>
+  </si>
+  <si>
+    <t>KO:K02012</t>
+  </si>
+  <si>
+    <t>KO:K00963</t>
+  </si>
+  <si>
+    <t>KO:K02428</t>
+  </si>
+  <si>
+    <t>KO:K01507</t>
+  </si>
+  <si>
+    <t>KO:K08310</t>
+  </si>
+  <si>
+    <t>KO:K03498</t>
+  </si>
+  <si>
+    <t>KO:K01525</t>
+  </si>
+  <si>
+    <t>KO:K02495</t>
+  </si>
+  <si>
+    <t>KO:K01972</t>
+  </si>
+  <si>
+    <t>KO:K03806</t>
+  </si>
+  <si>
+    <t>KO:K00943</t>
+  </si>
+  <si>
+    <t>KO:K00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytoplasm, Cytoplasmic 
+cPSORTdb v 3.00
 </t>
   </si>
   <si>
-    <t>Cytoplasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cell outer membrane</t>
+    <t>CytoplasmicMembrane
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Unknown 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Cytoplasmic 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cell outer membrane, OuterMembrane 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Periplasmic 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>OuterMembrane 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Cell inner membrane, CytoplasmicMembrane
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cell inner membrane, Extracellular 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Cytoplasm, Extracellular 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Membrane, CytoplasmicMembrane
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Cell inner membrane, Cytoplasmic 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Cell inner membrane, Unknown 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cell inner membrane, CytoplasmicMembrane
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Periplasm, Periplasmic 
+cPSORTdb v 3.00</t>
+  </si>
+  <si>
+    <t>Deoxynucleoside triphosphate + DNA(n) = diphosphate + DNA(n+1).</t>
+  </si>
+  <si>
+    <t>ATP + (phosphate)(n) = ADP + (phosphate)(n+1)</t>
+  </si>
+  <si>
+    <t>ATP + L-leucine + tRNA(Leu) = AMP + diphosphate + L-leucyl-tRNA(Leu).</t>
+  </si>
+  <si>
+    <t>D-glyceraldehyde 3-phosphate = glycerone phosphate.</t>
+  </si>
+  <si>
+    <t>Acetyl-CoA + L-glutamate = CoA + N-acetyl-L- glutamate.</t>
+  </si>
+  <si>
+    <t>Orotidine 5'-phosphate + diphosphate = orotate + 5-phospho-alpha-D-ribose 1-diphosphate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate + D-glyceraldehyde 3-phosphate = 1- deoxy-D-xylulose 5-phosphate + CO(2). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N(6)-dimethylallyladenine(37) in tRNA + sulfur-(sulfur carrier) + 2 S-adenosyl-L-methionine = 2- methylthio-N(6)-dimethylallyladenine(37) in tRNA + S-adenosyl-L- homocysteine + (sulfur carrier) + L-methionine + 5'- deoxyadenosine. </t>
+  </si>
+  <si>
+    <t>(S)-4-amino-5-oxopentanoate = 5- aminolevulinate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S-adenosyl-L-methionine + 7-aminomethyl-7- carbaguanosine(34) in tRNA = L-methionine + adenine + epoxyqueuosine(34) in tRNA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 ATP + L-glutamine + HCO(3)(-) + H(2)O = 2 ADP + phosphate + L-glutamate + carbamoyl phosphate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP + formate + tetrahydrofolate = ADP + phosphate + 10-formyltetrahydrofolate. </t>
+  </si>
+  <si>
+    <t>ATP + L-tyrosine + tRNA(Tyr) = AMP + diphosphate + L-tyrosyl-tRNA(Tyr).</t>
+  </si>
+  <si>
+    <t>ATP + L-isoleucine + tRNA(Ile) = AMP + diphosphate + L-isoleucyl-tRNA(Ile)</t>
+  </si>
+  <si>
+    <t>Release of signal peptides from bacterial membrane prolipoproteins. Hydrolyzes -Xaa-Yaa-Zaa-|- (S,diacylglyceryl)Cys-, in which Xaa is hydrophobic (preferably Leu), and Yaa (Ala or Ser) and Zaa (Gly or Ala) have small, neutral side chains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopentenyl diphosphate + NAD(P)(+) + H(2)O = (E)-4-hydroxy-3-methylbut-2-en-1-yl diphosphate + NAD(P)H.    Dimethylallyl diphosphate + NAD(P)(+) + H(2)O = (E)-4-hydroxy-3-methylbut-2-en-1-yl diphosphate + NAD(P)H. 
+</t>
+  </si>
+  <si>
+    <t>3-deoxy-D-arabino-hept-2-ulosonate 7-phosphate = 3-dehydroquinate + phosphate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATP + shikimate = ADP + shikimate 3-phosphate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-threonylcarbamoyladenylate + adenine(37) in tRNA = AMP + N(6)-L-threonylcarbamoyladenine(37) in tRNA. </t>
+  </si>
+  <si>
+    <t>ATP + L-methionine + H(2)O = phosphate + diphosphate + S-adenosyl-L-methionine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyl-L-glutamate 5-semialdehyde + NADP(+) + phosphate = N-acetyl-5-glutamyl phosphate + NADPH. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-carboxy-7-carbaguanine + NH(3) + ATP = 7- cyano-7-carbaguanine + ADP + phosphate + H(2)O. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7,8-dihydroneopterin 3'-triphosphate + H(2)O = 6-carboxy-5,6,7,8-tetrahydropterin + acetaldehyde + triphosphate.</t>
+  </si>
+  <si>
+    <t>6-carboxy-5,6,7,8-tetrahydropterin = 7- carboxy-7-carbaguanine + NH(3).</t>
+  </si>
+  <si>
+    <t>Hydrolysis of terminal non-reducing N-acetyl- D-hexosamine residues in N-acetyl-beta-D-hexosaminides.</t>
+  </si>
+  <si>
+    <t>The C-O-P bond 3' to the apurinic or apyrimidinic site in DNA is broken by a beta-elimination reaction, leaving a 3'-terminal unsaturated sugar and a product with a terminal 5'-phosphate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 porphobilinogen + H(2)O = hydroxymethylbilane + 4 NH(3). </t>
+  </si>
+  <si>
+    <t>Endonucleolytic cleavage at a junction such as a reciprocal single-stranded crossover between two homologous DNA duplexes (Holliday junction).</t>
+  </si>
+  <si>
+    <t>S-adenosyl-L-methionine + guanine(37) in tRNA = S-adenosyl-L-homocysteine + N(1)-methylguanine(37) in tRNA.</t>
+  </si>
+  <si>
+    <t>ATP + protein L-histidine = ADP + protein N- phospho-L-histidine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-(5-phospho-beta-D-ribosyl)-ATP + H(2)O = 1- (5-phospho-beta-D-ribosyl)-AMP + diphosphate. </t>
+  </si>
+  <si>
+    <t>ATP + H(2)O + polyamine(Out) = ADP + phosphate + polyamine(In).</t>
+  </si>
+  <si>
+    <t>ATP + pyruvate + H(2)O = AMP + phosphoenolpyruvate + phosphate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADP + [pyruvate, water dikinase] = AMP + [pyruvate, water dikinase] phosphate.  [Pyruvate, water dikinase] phosphate + phosphate = [pyruvate, water dikinase] + diphosphate.</t>
+  </si>
+  <si>
+    <t>1-(5-phospho-beta-D-ribosyl)-AMP + H(2)O = 1- (5-phospho-beta-D-ribosyl)-5-((5-phospho-beta-D- ribosylamino)methylideneamino)imidazole-4-carboxamide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5-[(5-phospho-1-deoxyribulos-1- ylamino)methylideneamino]-1-(5-phosphoribosyl)imidazole-4- carboxamide + L-glutamine = imidazole-glycerol phosphate + 5- aminoimidazol-4-carboxamide ribonucleotide + L-glutamate + H(2)O. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-(5-phospho-beta-D-ribosyl)-5-((5-phospho- beta-D-ribosylamino)methylideneamino)imidazole-4-carboxamide = 5- ((5-phospho-1-deoxy-D-ribulos-1-ylamino)methylideneamino)-1-(5- phospho-beta-D-ribosyl)imidazole-4-carboxamide.</t>
+  </si>
+  <si>
+    <t>5-[(5-phospho-1-deoxyribulos-1- ylamino)methylideneamino]-1-(5-phosphoribosyl)imidazole-4- carboxamide + L-glutamine = imidazole-glycerol phosphate + 5- aminoimidazol-4-carboxamide ribonucleotide + L-glutamate + H(2)O.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATP + H(2)O + Fe(3+)(Out) = ADP + phosphate + Fe(3+)(In).</t>
+  </si>
+  <si>
+    <t>2-(N(omega)-L-arginino)succinate = fumarate + L-arginine.</t>
+  </si>
+  <si>
+    <t>UTP + alpha-D-glucose 1-phosphate = diphosphate + UDP-glucose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nucleoside triphosphate + H(2)O = a nucleotide + diphosphate. </t>
+  </si>
+  <si>
+    <t>Diphosphate + H(2)O = 2 phosphate.</t>
+  </si>
+  <si>
+    <t>P(1),P(4)-bis(5'-adenosyl) tetraphosphate + H(2)O = 2 ADP.</t>
+  </si>
+  <si>
+    <t>NAD(+) + (deoxyribonucleotide)(n) + (deoxyribonucleotide)(m) = AMP + beta-nicotinamide D- ribonucleotide + (deoxyribonucleotide)(n+m).</t>
+  </si>
+  <si>
+    <t>ATP + dTMP = ADP + dTDP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP + (2-N,3-O-bis(3-hydroxytetradecanoyl)- beta-D-glucosaminyl)-(1-&gt;6)-(2-N,3-O-bis(3-hydroxytetradecanoyl)- beta-D-glucosaminyl phosphate) = ADP + (2-N,3-O-bis(3- hydroxytetradecanoyl)-4-O-phosphono-beta-D-glucosaminyl)-(1-&gt;6)- (2-N,3-O-bis(3-hydroxytetradecanoyl)-beta-D-glucosaminyl phosphate). </t>
+  </si>
+  <si>
+    <t>KEGG Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R00379  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R03657  </t>
+  </si>
+  <si>
+    <t>R01015</t>
+  </si>
+  <si>
+    <t>R00259 </t>
+  </si>
+  <si>
+    <t>R01870</t>
+  </si>
+  <si>
+    <t>R02272</t>
+  </si>
+  <si>
+    <t>R00943</t>
+  </si>
+  <si>
+    <t>R02918</t>
+  </si>
+  <si>
+    <t>R03656</t>
+  </si>
+  <si>
+    <t>R00379</t>
+  </si>
+  <si>
+    <t>R02412</t>
+  </si>
+  <si>
+    <t>R02625/R02626</t>
+  </si>
+  <si>
+    <t>R00289</t>
+  </si>
+  <si>
+    <t>R02094</t>
+  </si>
+  <si>
+    <t>R01068</t>
+  </si>
+  <si>
+    <t>catlytic activity</t>
+  </si>
+  <si>
+    <t>R02184</t>
+  </si>
+  <si>
+    <t>R05636</t>
+  </si>
+  <si>
+    <t>R04385</t>
+  </si>
+  <si>
+    <t>R00742</t>
+  </si>
+  <si>
+    <r>
+      <t>R00256/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R00575/R07641</t>
+    </r>
+  </si>
+  <si>
+    <t>R05884 R07219 R08209 R08210</t>
+  </si>
+  <si>
+    <t>R01334</t>
+  </si>
+  <si>
+    <t>R01215</t>
+  </si>
+  <si>
+    <t>R03083</t>
+  </si>
+  <si>
+    <t>R00177</t>
+  </si>
+  <si>
+    <t>(Ac)2-L-Lys-D-Ala!D-Ala. Also transpeptidation of peptidyl-alanyl moieties that are N-acyl substituents of D-alanine</t>
+  </si>
+  <si>
+    <t>R03443</t>
+  </si>
+  <si>
+    <t>R00084</t>
+  </si>
+  <si>
+    <t>R04035</t>
+  </si>
+  <si>
+    <t>R00199</t>
+  </si>
+  <si>
+    <t>R04037</t>
+  </si>
+  <si>
+    <t>R04640</t>
+  </si>
+  <si>
+    <t>R01086</t>
+  </si>
+  <si>
+    <t>R00125</t>
+  </si>
+  <si>
+    <t>R03220</t>
+  </si>
+  <si>
+    <t>R00382</t>
+  </si>
+  <si>
+    <t>R00214 R00217</t>
+  </si>
+  <si>
+    <t>R04657</t>
+  </si>
+  <si>
+    <t>KO:K01803</t>
+  </si>
+  <si>
+    <t>KO:K14682</t>
+  </si>
+  <si>
+    <t>KO:K00762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KO:K01662</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KO:K01845</t>
+  </si>
+  <si>
+    <t>KO:K07568</t>
+  </si>
+  <si>
+    <t>KO:K01955</t>
+  </si>
+  <si>
+    <t>KO:K01956</t>
+  </si>
+  <si>
+    <t>KO:K01938</t>
+  </si>
+  <si>
+    <t>KO:K03101</t>
+  </si>
+  <si>
+    <t>KO:K03527</t>
+  </si>
+  <si>
+    <t>KO:K11752</t>
+  </si>
+  <si>
+    <t>KO:K01735</t>
+  </si>
+  <si>
+    <t>KO:K00891</t>
+  </si>
+  <si>
+    <t>KO:K05366</t>
+  </si>
+  <si>
+    <t>KO:K00789</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KO:K00145</t>
+  </si>
+  <si>
+    <t>KO:K06920</t>
+  </si>
+  <si>
+    <t>KO:K01737</t>
+  </si>
+  <si>
+    <t>KO:K01207</t>
+  </si>
+  <si>
+    <t>KO:K01749</t>
+  </si>
+  <si>
+    <t>KO:K01523</t>
+  </si>
+  <si>
+    <t>KO:K01007</t>
+  </si>
+  <si>
+    <t>KO:K01496</t>
+  </si>
+  <si>
+    <t>KO:K02500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KO:K01814</t>
+  </si>
+  <si>
+    <t>KO:K02501</t>
+  </si>
+  <si>
+    <t>KO:K01755</t>
+  </si>
+  <si>
+    <t>KO:K00912</t>
+  </si>
+  <si>
+    <t>KEGG  Orthology</t>
   </si>
   <si>
     <t>Pathway</t>
   </si>
   <si>
-    <t>Cell inner membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cell inner membrane</t>
-  </si>
-  <si>
-    <t>Membrane</t>
-  </si>
-  <si>
-    <t>Periplasm</t>
+    <t xml:space="preserve">Carbohydrate biosynthesis; gluconeogenesis. Carbohydrate degradation; glycolysis; D-glyceraldehyde 3- phosphate from glycerone phosphate: step 1/1.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino-acid biosynthesis; L-arginine biosynthesis; N(2)- acetyl-L-ornithine from L-glutamate: step 1/4. </t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism; UMP biosynthesis via de novo pathway; UMP from orotate: step 1/2.</t>
+  </si>
+  <si>
+    <t>Metabolic intermediate biosynthesis; 1-deoxy-D-xylulose 5-phosphate biosynthesis; 1-deoxy-D-xylulose 5-phosphate from D- glyceraldehyde 3-phosphate and pyruvate: step 1/1.</t>
+  </si>
+  <si>
+    <t>Porphyrin-containing compound metabolism; protoporphyrin- IX biosynthesis; 5-aminolevulinate from L-glutamyl-tRNA(Glu): step 2/2.</t>
+  </si>
+  <si>
+    <t>tRNA modification; tRNA-queuosine biosynthesis.</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-arginine biosynthesis; carbamoyl phosphate from bicarbonate: step 1/1. Pyrimidine metabolism; UMP biosynthesis via de novo pathway; (S)-dihydroorotate from bicarbonate: step 1/3.</t>
+  </si>
+  <si>
+    <t>One-carbon metabolism; tetrahydrofolate interconversion.</t>
+  </si>
+  <si>
+    <t>Protein modification; lipoprotein biosynthesis (signal peptide cleavage).</t>
+  </si>
+  <si>
+    <t>Isoprenoid biosynthesis; dimethylallyl diphosphate biosynthesis; dimethylallyl diphosphate from (2E)-4-hydroxy-3- methylbutenyl diphosphate: step 1/1. Isoprenoid biosynthesis; isopentenyl diphosphate biosynthesis via DXP pathway; isopentenyl diphosphate from 1- deoxy-D-xylulose 5-phosphate: step 6/6.</t>
+  </si>
+  <si>
+    <t>Cofactor biosynthesis; riboflavin biosynthesis; 5-amino- 6-(D-ribitylamino)uracil from GTP: step 2/4. Cofactor biosynthesis; riboflavin biosynthesis; 5-amino- 6-(D-ribitylamino)uracil from GTP: step 3/4.</t>
+  </si>
+  <si>
+    <t>Metabolic intermediate biosynthesis; chorismate biosynthesis; chorismate from D-erythrose 4-phosphate and phosphoenolpyruvate: step 2/7.</t>
+  </si>
+  <si>
+    <t>Metabolic intermediate biosynthesis; chorismate biosynthesis; chorismate from D-erythrose 4-phosphate and phosphoenolpyruvate: step 5/7.</t>
+  </si>
+  <si>
+    <t>Cell wall biogenesis; peptidoglycan biosynthesis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amino-acid biosynthesis; S-adenosyl-L-methionine biosynthesis; S-adenosyl-L-methionine from L-methionine: step 1/1.</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-arginine biosynthesis; N(2)- acetyl-L-ornithine from L-glutamate: step 3/4.</t>
+  </si>
+  <si>
+    <t>Cell wall biogenesis; peptidoglycan recycling.</t>
+  </si>
+  <si>
+    <t>Porphyrin-containing compound metabolism; protoporphyrin- IX biosynthesis; coproporphyrinogen-III from 5-aminolevulinate: step 2/4.</t>
+  </si>
+  <si>
+    <t>Amino-acid biosynthesis; L-histidine biosynthesis; L- histidine from 5-phospho-alpha-D-ribose 1-diphosphate: step 2/9.</t>
   </si>
   <si>
     <t>Carbohydrate biosynthesis; gluconeogenesis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Carbohydrate biosynthesis; gluconeogenesis. Carbohydrate degradation; glycolysis; D-glyceraldehyde 3- phosphate from glycerone phosphate: step 1/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amino-acid biosynthesis; L-arginine biosynthesis; N(2)- acetyl-L-ornithine from L-glutamate: step 1/4. </t>
-  </si>
-  <si>
-    <t>Pyrimidine metabolism; UMP biosynthesis via de novo pathway; UMP from orotate: step 1/2.</t>
-  </si>
-  <si>
-    <t>Metabolic intermediate biosynthesis; 1-deoxy-D-xylulose 5-phosphate biosynthesis; 1-deoxy-D-xylulose 5-phosphate from D- glyceraldehyde 3-phosphate and pyruvate: step 1/1.</t>
-  </si>
-  <si>
-    <t>Porphyrin-containing compound metabolism; protoporphyrin- IX biosynthesis; 5-aminolevulinate from L-glutamyl-tRNA(Glu): step 2/2.</t>
-  </si>
-  <si>
-    <t>tRNA modification; tRNA-queuosine biosynthesis.</t>
-  </si>
-  <si>
-    <t>Amino-acid biosynthesis; L-arginine biosynthesis; carbamoyl phosphate from bicarbonate: step 1/1. Pyrimidine metabolism; UMP biosynthesis via de novo pathway; (S)-dihydroorotate from bicarbonate: step 1/3.</t>
-  </si>
-  <si>
-    <t>One-carbon metabolism; tetrahydrofolate interconversion.</t>
-  </si>
-  <si>
-    <t>Protein modification; lipoprotein biosynthesis (signal peptide cleavage).</t>
-  </si>
-  <si>
-    <t>Isoprenoid biosynthesis; dimethylallyl diphosphate biosynthesis; dimethylallyl diphosphate from (2E)-4-hydroxy-3- methylbutenyl diphosphate: step 1/1. Isoprenoid biosynthesis; isopentenyl diphosphate biosynthesis via DXP pathway; isopentenyl diphosphate from 1- deoxy-D-xylulose 5-phosphate: step 6/6.</t>
-  </si>
-  <si>
-    <t>Cofactor biosynthesis; riboflavin biosynthesis; 5-amino- 6-(D-ribitylamino)uracil from GTP: step 2/4. Cofactor biosynthesis; riboflavin biosynthesis; 5-amino- 6-(D-ribitylamino)uracil from GTP: step 3/4.</t>
-  </si>
-  <si>
-    <t>Metabolic intermediate biosynthesis; chorismate biosynthesis; chorismate from D-erythrose 4-phosphate and phosphoenolpyruvate: step 2/7.</t>
-  </si>
-  <si>
-    <t>Metabolic intermediate biosynthesis; chorismate biosynthesis; chorismate from D-erythrose 4-phosphate and phosphoenolpyruvate: step 5/7.</t>
-  </si>
-  <si>
-    <t>Cell wall biogenesis; peptidoglycan biosynthesis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amino-acid biosynthesis; S-adenosyl-L-methionine biosynthesis; S-adenosyl-L-methionine from L-methionine: step 1/1.</t>
-  </si>
-  <si>
-    <t>Amino-acid biosynthesis; L-arginine biosynthesis; N(2)- acetyl-L-ornithine from L-glutamate: step 3/4.</t>
-  </si>
-  <si>
-    <t>Purine metabolism; 7-cyano-7-deazaguanine biosynthesis.</t>
-  </si>
-  <si>
-    <t>Cell wall biogenesis; peptidoglycan recycling.</t>
-  </si>
-  <si>
-    <t>Porphyrin-containing compound metabolism; protoporphyrin- IX biosynthesis; coproporphyrinogen-III from 5-aminolevulinate: step 2/4.</t>
-  </si>
-  <si>
-    <t>Amino-acid biosynthesis; L-histidine biosynthesis; L- histidine from 5-phospho-alpha-D-ribose 1-diphosphate: step 2/9.</t>
-  </si>
-  <si>
     <t>Amino-acid biosynthesis; L-histidine biosynthesis; L- histidine from 5-phospho-alpha-D-ribose 1-diphosphate: step 3/9.</t>
   </si>
   <si>
@@ -5319,617 +6639,17 @@
     <t xml:space="preserve"> Amino-acid biosynthesis; L-histidine biosynthesis; L- histidine from 5-phospho-alpha-D-ribose 1-diphosphate: step 4/9.</t>
   </si>
   <si>
-    <t xml:space="preserve">Amino-acid biosynthesis; L-arginine biosynthesis; L- arginine from L-ornithine and carbamoyl phosphate: step 3/3. </t>
+    <t>Amino-acid biosynthesis; L-arginine biosynthesis; L- arginine from L-ornithine and carbamoyl phosphate: step 3/3.</t>
   </si>
   <si>
     <t>Glycolipid biosynthesis; lipid IV(A) biosynthesis; lipid IV(A) from (3R)-3-hydroxytetradecanoyl-[acyl-carrier-protein] and UDP-N-acetyl-alpha-D-glucosamine: step 6/6.</t>
-  </si>
-  <si>
-    <t>BioCyc AC</t>
-  </si>
-  <si>
-    <t>Genes codificando RNA (tRNA)</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-219-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-33-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-198-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-34-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-89-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-84-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-215-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-107-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-202-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-82-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-83-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-1-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-90-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-55-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-36-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-170-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-193-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-195-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-196-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-194-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-64-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-223-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-188-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-226-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-63-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-96-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-123-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-37-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-3-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-38-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-185-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-26-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-42-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-117-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-192-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-159-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-157-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-176-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-160-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-141-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-105-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-61-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-5-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-59-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-168-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-167-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-158-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-94-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-32-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-165-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-133-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-154-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-111-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-39-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-4-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-88-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-207-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-214-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-71-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-156-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-120-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-221-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-162-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-16-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-103-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-178-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-110-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-15-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-23-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-206-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-87-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-30-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-14-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-172-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-101-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-18-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-204-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-128-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-127-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-184-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-203-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-179-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-137-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-91-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-182-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-58-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-29-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-224-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-53-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-169-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-54-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-49-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-124-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-10-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-175-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-177-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-46-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-25-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-40-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-126-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-112-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-68-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-2-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-85-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-174-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-131-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-213-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-181-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-81-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-95-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-130-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-77-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-142-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-183-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-45-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-171-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-24-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-43-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-191-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-144-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-186-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-56-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-28-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-97-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-166-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-132-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-119-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-69-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-57-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-79-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-60-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-145-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-216-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-72-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-189-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-200-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-86-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-102-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-218-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-134-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-78-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-80-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-31-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-106-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-146-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-73-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-62-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-20-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-139-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-209-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-52-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-180-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-161-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-155-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-74-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-108-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-129-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-151-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-150-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-205-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-217-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-109-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-17-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-93-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-19-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-99-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-114-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-197-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-100-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-163-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-92-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-173-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-115-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-51-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-211-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-199-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-152-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-48-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-147-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-65-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-149-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-22-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-125-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-210-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:MetaCyc:MONOMER-17340</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-212-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-75-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-70-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-118-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-187-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-44-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-41-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-220-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-113-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-13-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-76-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-27-MONOMER</t>
-  </si>
-  <si>
-    <t>BioCyc:NGON242231:GI2G-164-MONOMER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6061,6 +6781,19 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6407,8 +7140,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6757,13 +7496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P215"/>
+  <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
@@ -6776,15 +7515,18 @@
     <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="112.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="34" style="1" customWidth="1"/>
-    <col min="16" max="16" width="41.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="31.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="41.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="112.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="34" style="1" customWidth="1"/>
+    <col min="17" max="17" width="48.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="37.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6818,23 +7560,32 @@
       <c r="K1" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6866,19 +7617,22 @@
         <v>1376</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6910,19 +7664,28 @@
         <v>1379</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M3" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6953,17 +7716,29 @@
       <c r="J4" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -6994,17 +7769,20 @@
       <c r="J5" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -7036,19 +7814,28 @@
         <v>1385</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M6" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -7070,14 +7857,14 @@
       <c r="G7" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1347</v>
       </c>
@@ -7091,7 +7878,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1344</v>
       </c>
@@ -7105,7 +7892,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -7136,17 +7923,23 @@
       <c r="J10" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="K10" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -7177,17 +7970,23 @@
       <c r="J11" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="K11" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -7219,22 +8018,31 @@
         <v>1391</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="M12" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -7265,17 +8073,23 @@
       <c r="J13" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="K13" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -7306,17 +8120,23 @@
       <c r="J14" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="K14" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -7347,17 +8167,20 @@
       <c r="J15" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="K15" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -7389,19 +8212,22 @@
         <v>1399</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="M16" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -7432,17 +8258,20 @@
       <c r="J17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="K17" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -7473,17 +8302,20 @@
       <c r="J18" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="K18" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -7514,17 +8346,20 @@
       <c r="J19" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="K19" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -7555,17 +8390,23 @@
       <c r="J20" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="K20" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
@@ -7597,22 +8438,31 @@
         <v>1408</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="M21" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
@@ -7643,17 +8493,20 @@
       <c r="J22" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="K22" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -7684,20 +8537,32 @@
       <c r="J23" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="K23" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -7728,17 +8593,23 @@
       <c r="J24" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="K24" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
@@ -7769,17 +8640,23 @@
       <c r="J25" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="K25" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -7810,17 +8687,23 @@
       <c r="J26" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="K26" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>155</v>
       </c>
@@ -7851,17 +8734,20 @@
       <c r="J27" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="K27" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>161</v>
       </c>
@@ -7892,17 +8778,26 @@
       <c r="J28" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="K28" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>169</v>
       </c>
@@ -7934,19 +8829,22 @@
         <v>1424</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M29" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -7977,20 +8875,32 @@
       <c r="J30" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="K30" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
@@ -8022,19 +8932,25 @@
         <v>1428</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M31" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>190</v>
       </c>
@@ -8066,22 +8982,31 @@
         <v>1430</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="M32" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>2179</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>198</v>
       </c>
@@ -8113,19 +9038,22 @@
         <v>1432</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M33" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>205</v>
       </c>
@@ -8157,19 +9085,22 @@
         <v>1434</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M34" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>213</v>
       </c>
@@ -8200,17 +9131,26 @@
       <c r="J35" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="K35" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>220</v>
       </c>
@@ -8241,17 +9181,26 @@
       <c r="J36" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="K36" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>228</v>
       </c>
@@ -8282,17 +9231,20 @@
       <c r="J37" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="K37" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>233</v>
       </c>
@@ -8324,22 +9276,28 @@
         <v>1442</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="M38" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>2180</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -8370,20 +9328,32 @@
       <c r="J39" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="K39" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>250</v>
       </c>
@@ -8414,17 +9384,20 @@
       <c r="J40" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="K40" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>256</v>
       </c>
@@ -8455,17 +9428,20 @@
       <c r="J41" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="K41" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>262</v>
       </c>
@@ -8496,20 +9472,32 @@
       <c r="J42" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="M42" s="1" t="s">
+      <c r="K42" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>269</v>
       </c>
@@ -8540,17 +9528,20 @@
       <c r="J43" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="K43" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>276</v>
       </c>
@@ -8581,17 +9572,23 @@
       <c r="J44" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="K44" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P44" s="1" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>282</v>
       </c>
@@ -8622,17 +9619,20 @@
       <c r="J45" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="K45" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>288</v>
       </c>
@@ -8663,17 +9663,20 @@
       <c r="J46" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="K46" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="O46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>294</v>
       </c>
@@ -8704,17 +9707,23 @@
       <c r="J47" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="K47" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>1958</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="O47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>300</v>
       </c>
@@ -8745,17 +9754,20 @@
       <c r="J48" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="K48" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="O48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
@@ -8786,20 +9798,32 @@
       <c r="J49" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>1751</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="K49" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>314</v>
       </c>
@@ -8830,17 +9854,23 @@
       <c r="J50" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="K50" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="O50" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -8871,17 +9901,20 @@
       <c r="J51" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="K51" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="1" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>326</v>
       </c>
@@ -8912,17 +9945,20 @@
       <c r="J52" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="K52" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="O52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>332</v>
       </c>
@@ -8954,19 +9990,28 @@
         <v>1472</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M53" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="N53" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="O53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q53" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>339</v>
       </c>
@@ -8988,14 +10033,14 @@
       <c r="G54" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="O54" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>344</v>
       </c>
@@ -9026,17 +10071,23 @@
       <c r="J55" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="K55" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="O55" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="1" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>352</v>
       </c>
@@ -9068,19 +10119,28 @@
         <v>1476</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M56" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="O56" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q56" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>361</v>
       </c>
@@ -9111,17 +10171,20 @@
       <c r="J57" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="K57" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q57" s="1" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>367</v>
       </c>
@@ -9153,22 +10216,28 @@
         <v>1480</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="M58" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="N58" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q58" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -9199,20 +10268,32 @@
       <c r="J59" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>1753</v>
-      </c>
-      <c r="M59" s="1" t="s">
+      <c r="K59" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="N59" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="O59" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>385</v>
       </c>
@@ -9243,17 +10324,26 @@
       <c r="J60" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="K60" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="O60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P60" s="1" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1350</v>
       </c>
@@ -9267,7 +10357,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>392</v>
       </c>
@@ -9299,19 +10389,28 @@
         <v>1486</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M62" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>1964</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q62" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>398</v>
       </c>
@@ -9342,17 +10441,23 @@
       <c r="J63" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="K63" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>1965</v>
+      </c>
+      <c r="N63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q63" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>403</v>
       </c>
@@ -9383,17 +10488,20 @@
       <c r="J64" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="K64" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="O64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P64" s="1" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q64" s="1" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>408</v>
       </c>
@@ -9424,17 +10532,23 @@
       <c r="J65" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="K65" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N65" s="2" t="s">
+      <c r="O65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P65" s="1" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q65" s="1" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>414</v>
       </c>
@@ -9465,17 +10579,26 @@
       <c r="J66" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="K66" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="N66" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="O66" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q66" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>423</v>
       </c>
@@ -9506,17 +10629,20 @@
       <c r="J67" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="K67" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="O67" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q67" s="1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>430</v>
       </c>
@@ -9547,17 +10673,20 @@
       <c r="J68" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="K68" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N68" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="O68" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q68" s="1" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>436</v>
       </c>
@@ -9588,17 +10717,20 @@
       <c r="J69" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="K69" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="O69" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q69" s="1" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>442</v>
       </c>
@@ -9629,17 +10761,20 @@
       <c r="J70" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="K70" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q70" s="1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>448</v>
       </c>
@@ -9670,17 +10805,20 @@
       <c r="J71" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="K71" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q71" s="1" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>453</v>
       </c>
@@ -9711,17 +10849,20 @@
       <c r="J72" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="K72" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="O72" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P72" s="1" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q72" s="1" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>458</v>
       </c>
@@ -9752,20 +10893,26 @@
       <c r="J73" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>1754</v>
-      </c>
-      <c r="M73" s="1" t="s">
+      <c r="K73" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="N73" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P73" s="1" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q73" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>464</v>
       </c>
@@ -9796,17 +10943,23 @@
       <c r="J74" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="K74" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>1968</v>
+      </c>
+      <c r="N74" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="O74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q74" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>471</v>
       </c>
@@ -9837,17 +10990,23 @@
       <c r="J75" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="K75" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="N75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="O75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q75" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>477</v>
       </c>
@@ -9879,22 +11038,31 @@
         <v>1454</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>1755</v>
-      </c>
-      <c r="M76" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="N76" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="O76" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P76" s="1" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q76" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>486</v>
       </c>
@@ -9926,22 +11094,31 @@
         <v>1514</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>1756</v>
-      </c>
-      <c r="M77" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="N77" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="O77" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="P77" s="1" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q77" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>495</v>
       </c>
@@ -9973,19 +11150,22 @@
         <v>1516</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="M78" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="N78" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="O78" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P78" s="1" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q78" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>501</v>
       </c>
@@ -10016,17 +11196,23 @@
       <c r="J79" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="K79" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>1971</v>
+      </c>
+      <c r="N79" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="O79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P79" s="1" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q79" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>507</v>
       </c>
@@ -10057,17 +11243,23 @@
       <c r="J80" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="K80" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N80" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="O80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P80" s="1" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q80" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>513</v>
       </c>
@@ -10098,17 +11290,23 @@
       <c r="J81" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="K81" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>1973</v>
+      </c>
+      <c r="N81" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="P81" s="1" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q81" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>519</v>
       </c>
@@ -10139,17 +11337,23 @@
       <c r="J82" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="K82" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="O82" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P82" s="1" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q82" s="1" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>525</v>
       </c>
@@ -10181,22 +11385,25 @@
         <v>1526</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>1757</v>
-      </c>
-      <c r="M83" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>2188</v>
+      </c>
+      <c r="N83" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="O83" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="P83" s="1" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q83" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>532</v>
       </c>
@@ -10227,17 +11434,23 @@
       <c r="J84" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="K84" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>1975</v>
+      </c>
+      <c r="N84" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="O84" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="P84" s="1" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q84" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>540</v>
       </c>
@@ -10268,17 +11481,20 @@
       <c r="J85" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="K85" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="N85" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="O85" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P85" s="1" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q85" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>546</v>
       </c>
@@ -10309,17 +11525,23 @@
       <c r="J86" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="K86" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>1976</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="O86" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P86" s="1" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q86" s="1" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>552</v>
       </c>
@@ -10350,17 +11572,20 @@
       <c r="J87" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="K87" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N87" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="N87" s="2" t="s">
+      <c r="O87" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q87" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>557</v>
       </c>
@@ -10392,19 +11617,25 @@
         <v>1422</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M88" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="N88" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="O88" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P88" s="1" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q88" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>564</v>
       </c>
@@ -10435,17 +11666,23 @@
       <c r="J89" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="K89" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="N89" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="O89" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="P89" s="1" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q89" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>571</v>
       </c>
@@ -10477,22 +11714,31 @@
         <v>1538</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="M90" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="N90" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="O90" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="P90" s="1" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q90" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>579</v>
       </c>
@@ -10523,17 +11769,26 @@
       <c r="J91" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="K91" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>1979</v>
+      </c>
+      <c r="N91" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="O91" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="P91" s="1" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q91" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1353</v>
       </c>
@@ -10547,7 +11802,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>587</v>
       </c>
@@ -10578,17 +11833,20 @@
       <c r="J93" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="K93" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="O93" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P93" s="1" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q93" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>592</v>
       </c>
@@ -10619,17 +11877,23 @@
       <c r="J94" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="K94" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="N94" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="N94" s="2" t="s">
+      <c r="O94" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P94" s="1" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q94" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>598</v>
       </c>
@@ -10660,17 +11924,23 @@
       <c r="J95" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="K95" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="N95" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="N95" s="2" t="s">
+      <c r="O95" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P95" s="1" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q95" s="1" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>604</v>
       </c>
@@ -10701,17 +11971,23 @@
       <c r="J96" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="K96" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="N96" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="O96" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="P96" s="1" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q96" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>611</v>
       </c>
@@ -10742,17 +12018,23 @@
       <c r="J97" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="K97" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>1983</v>
+      </c>
+      <c r="N97" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="O97" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P97" s="1" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q97" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>617</v>
       </c>
@@ -10784,19 +12066,22 @@
         <v>1383</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M98" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N98" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="O98" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="P98" s="1" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q98" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>624</v>
       </c>
@@ -10827,17 +12112,23 @@
       <c r="J99" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="K99" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="N99" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="O99" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="P99" s="1" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q99" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>631</v>
       </c>
@@ -10869,22 +12160,31 @@
         <v>1554</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="M100" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="N100" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="N100" s="2" t="s">
+      <c r="O100" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="P100" s="1" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q100" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>640</v>
       </c>
@@ -10915,17 +12215,20 @@
       <c r="J101" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="K101" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="O101" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P101" s="1" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q101" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>645</v>
       </c>
@@ -10956,17 +12259,20 @@
       <c r="J102" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="K102" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="O102" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P102" s="1" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q102" s="1" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>650</v>
       </c>
@@ -10997,17 +12303,20 @@
       <c r="J103" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="M103" s="1" t="s">
+      <c r="K103" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N103" s="2" t="s">
+      <c r="O103" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q103" s="1" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>655</v>
       </c>
@@ -11038,17 +12347,20 @@
       <c r="J104" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="M104" s="1" t="s">
+      <c r="K104" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="O104" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P104" s="1" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q104" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>660</v>
       </c>
@@ -11079,17 +12391,23 @@
       <c r="J105" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="M105" s="1" t="s">
+      <c r="K105" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N105" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="N105" s="2" t="s">
+      <c r="O105" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P105" s="1" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q105" s="1" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>666</v>
       </c>
@@ -11120,17 +12438,20 @@
       <c r="J106" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="M106" s="1" t="s">
+      <c r="K106" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N106" s="2" t="s">
+      <c r="O106" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P106" s="1" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q106" s="1" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>671</v>
       </c>
@@ -11161,17 +12482,20 @@
       <c r="J107" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="K107" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N107" s="2" t="s">
+      <c r="O107" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P107" s="1" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q107" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>676</v>
       </c>
@@ -11193,14 +12517,14 @@
       <c r="G108" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="M108" s="1" t="s">
+      <c r="N108" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="N108" s="2" t="s">
+      <c r="O108" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>680</v>
       </c>
@@ -11232,19 +12556,22 @@
         <v>1570</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="M109" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>1987</v>
+      </c>
+      <c r="N109" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="N109" s="2" t="s">
+      <c r="O109" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="P109" s="1" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q109" s="1" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>688</v>
       </c>
@@ -11275,20 +12602,29 @@
       <c r="J110" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="L110" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="M110" s="1" t="s">
+      <c r="K110" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N110" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="O110" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="P110" s="1" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q110" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>695</v>
       </c>
@@ -11319,17 +12655,20 @@
       <c r="J111" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="M111" s="1" t="s">
+      <c r="K111" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="O111" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P111" s="1" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q111" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>700</v>
       </c>
@@ -11360,20 +12699,29 @@
       <c r="J112" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="L112" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="M112" s="1" t="s">
+      <c r="K112" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N112" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="O112" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P112" s="1" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q112" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>706</v>
       </c>
@@ -11404,20 +12752,26 @@
       <c r="J113" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="L113" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="M113" s="1" t="s">
+      <c r="K113" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N113" s="2" t="s">
+      <c r="O113" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P113" s="1" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q113" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>711</v>
       </c>
@@ -11449,22 +12803,28 @@
         <v>1580</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="M114" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="N114" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="O114" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="P114" s="1" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q114" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>719</v>
       </c>
@@ -11495,17 +12855,20 @@
       <c r="J115" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="M115" s="1" t="s">
+      <c r="K115" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N115" s="2" t="s">
+      <c r="O115" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P115" s="1" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q115" s="1" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>724</v>
       </c>
@@ -11536,17 +12899,20 @@
       <c r="J116" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="K116" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="O116" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P116" s="1" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q116" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>729</v>
       </c>
@@ -11577,17 +12943,23 @@
       <c r="J117" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="M117" s="1" t="s">
+      <c r="K117" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="N117" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="N117" s="2" t="s">
+      <c r="O117" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P117" s="1" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q117" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>735</v>
       </c>
@@ -11618,17 +12990,26 @@
       <c r="J118" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="K118" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N118" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="O118" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P118" s="1" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q118" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>742</v>
       </c>
@@ -11659,17 +13040,20 @@
       <c r="J119" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="K119" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N119" s="2" t="s">
+      <c r="O119" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P119" s="1" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q119" s="1" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>747</v>
       </c>
@@ -11700,17 +13084,20 @@
       <c r="J120" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="M120" s="1" t="s">
+      <c r="K120" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N120" s="2" t="s">
+      <c r="O120" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P120" s="1" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q120" s="1" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>752</v>
       </c>
@@ -11741,17 +13128,23 @@
       <c r="J121" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="M121" s="1" t="s">
+      <c r="K121" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>1990</v>
+      </c>
+      <c r="N121" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="N121" s="2" t="s">
+      <c r="O121" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P121" s="1" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q121" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>758</v>
       </c>
@@ -11782,17 +13175,23 @@
       <c r="J122" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="M122" s="1" t="s">
+      <c r="K122" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="N122" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="O122" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P122" s="1" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q122" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>764</v>
       </c>
@@ -11823,17 +13222,23 @@
       <c r="J123" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="K123" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="N123" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="N123" s="2" t="s">
+      <c r="O123" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P123" s="1" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q123" s="1" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>770</v>
       </c>
@@ -11865,19 +13270,22 @@
         <v>1574</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M124" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="N124" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="N124" s="2" t="s">
+      <c r="O124" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P124" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q124" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>776</v>
       </c>
@@ -11908,20 +13316,32 @@
       <c r="J125" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="L125" s="2" t="s">
-        <v>1762</v>
-      </c>
-      <c r="M125" s="1" t="s">
+      <c r="K125" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="N125" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="N125" s="2" t="s">
+      <c r="O125" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="P125" s="1" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q125" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>785</v>
       </c>
@@ -11943,14 +13363,14 @@
       <c r="G126" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="M126" s="1" t="s">
+      <c r="N126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N126" s="2" t="s">
+      <c r="O126" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1356</v>
       </c>
@@ -11964,7 +13384,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>789</v>
       </c>
@@ -11995,17 +13415,20 @@
       <c r="J128" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="K128" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N128" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="O128" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P128" s="1" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q128" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>795</v>
       </c>
@@ -12036,17 +13459,23 @@
       <c r="J129" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="K129" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="N129" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="N129" s="2" t="s">
+      <c r="O129" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P129" s="1" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q129" s="1" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>801</v>
       </c>
@@ -12068,14 +13497,14 @@
       <c r="G130" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="N130" s="2" t="s">
+      <c r="O130" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>806</v>
       </c>
@@ -12106,17 +13535,23 @@
       <c r="J131" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="L131" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="N131" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="O131" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="P131" s="1" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q131" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>815</v>
       </c>
@@ -12147,17 +13582,23 @@
       <c r="J132" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="M132" s="1" t="s">
+      <c r="K132" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="N132" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="N132" s="2" t="s">
+      <c r="O132" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="P132" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q132" s="1" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>820</v>
       </c>
@@ -12188,17 +13629,23 @@
       <c r="J133" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="M133" s="1" t="s">
+      <c r="K133" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="N133" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="N133" s="2" t="s">
+      <c r="O133" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P133" s="1" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q133" s="1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>826</v>
       </c>
@@ -12229,17 +13676,23 @@
       <c r="J134" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="M134" s="1" t="s">
+      <c r="K134" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="N134" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="N134" s="2" t="s">
+      <c r="O134" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P134" s="1" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q134" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>834</v>
       </c>
@@ -12270,17 +13723,20 @@
       <c r="J135" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="M135" s="1" t="s">
+      <c r="K135" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N135" s="2" t="s">
+      <c r="O135" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P135" s="1" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q135" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>839</v>
       </c>
@@ -12311,17 +13767,20 @@
       <c r="J136" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="M136" s="1" t="s">
+      <c r="K136" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P136" s="1" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q136" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>844</v>
       </c>
@@ -12352,17 +13811,20 @@
       <c r="J137" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="M137" s="1" t="s">
+      <c r="K137" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N137" s="2" t="s">
+      <c r="O137" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P137" s="1" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q137" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>849</v>
       </c>
@@ -12393,17 +13855,20 @@
       <c r="J138" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="M138" s="1" t="s">
+      <c r="K138" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N138" s="2" t="s">
+      <c r="O138" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P138" s="1" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q138" s="1" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>854</v>
       </c>
@@ -12434,17 +13899,20 @@
       <c r="J139" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="M139" s="1" t="s">
+      <c r="K139" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N139" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="N139" s="2" t="s">
+      <c r="O139" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P139" s="1" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q139" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>860</v>
       </c>
@@ -12475,17 +13943,20 @@
       <c r="J140" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="M140" s="1" t="s">
+      <c r="K140" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N140" s="2" t="s">
+      <c r="O140" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P140" s="1" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q140" s="1" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>865</v>
       </c>
@@ -12516,17 +13987,23 @@
       <c r="J141" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="M141" s="1" t="s">
+      <c r="K141" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="N141" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="N141" s="2" t="s">
+      <c r="O141" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="P141" s="1" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q141" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>872</v>
       </c>
@@ -12558,19 +14035,22 @@
         <v>1625</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M142" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="N142" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="N142" s="2" t="s">
+      <c r="O142" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P142" s="1" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q142" s="1" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>878</v>
       </c>
@@ -12601,17 +14081,20 @@
       <c r="J143" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="M143" s="1" t="s">
+      <c r="L143" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="N143" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="N143" s="2" t="s">
+      <c r="O143" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P143" s="1" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q143" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>884</v>
       </c>
@@ -12642,17 +14125,23 @@
       <c r="J144" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="M144" s="1" t="s">
+      <c r="K144" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="N144" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="N144" s="2" t="s">
+      <c r="O144" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="P144" s="1" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q144" s="1" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>892</v>
       </c>
@@ -12684,19 +14173,25 @@
         <v>1630</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M145" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="N145" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="N145" s="2" t="s">
+      <c r="O145" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="P145" s="1" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q145" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>900</v>
       </c>
@@ -12728,19 +14223,22 @@
         <v>1456</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M146" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="N146" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="N146" s="2" t="s">
+      <c r="O146" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="P146" s="1" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q146" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>908</v>
       </c>
@@ -12771,17 +14269,23 @@
       <c r="J147" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="M147" s="1" t="s">
+      <c r="K147" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="N147" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="N147" s="2" t="s">
+      <c r="O147" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="P147" s="1" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q147" s="1" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>916</v>
       </c>
@@ -12812,17 +14316,29 @@
       <c r="J148" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="M148" s="1" t="s">
+      <c r="K148" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="N148" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="O148" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P148" s="1" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q148" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>921</v>
       </c>
@@ -12853,17 +14369,23 @@
       <c r="J149" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="M149" s="1" t="s">
+      <c r="K149" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N149" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="N149" s="2" t="s">
+      <c r="O149" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P149" s="1" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q149" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>927</v>
       </c>
@@ -12894,17 +14416,20 @@
       <c r="J150" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="M150" s="1" t="s">
+      <c r="K150" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N150" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N150" s="2" t="s">
+      <c r="O150" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P150" s="1" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q150" s="1" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>932</v>
       </c>
@@ -12935,17 +14460,20 @@
       <c r="J151" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="M151" s="1" t="s">
+      <c r="K151" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N151" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="N151" s="2" t="s">
+      <c r="O151" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P151" s="1" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q151" s="1" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>937</v>
       </c>
@@ -12977,19 +14505,22 @@
         <v>1520</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M152" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="N152" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="N152" s="2" t="s">
+      <c r="O152" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="P152" s="1" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q152" s="1" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>944</v>
       </c>
@@ -13021,19 +14552,22 @@
         <v>1643</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="M153" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="N153" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="N153" s="2" t="s">
+      <c r="O153" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P153" s="1" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q153" s="1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>950</v>
       </c>
@@ -13065,19 +14599,22 @@
         <v>1645</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="M154" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N154" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="N154" s="2" t="s">
+      <c r="O154" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P154" s="1" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q154" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>956</v>
       </c>
@@ -13109,19 +14646,22 @@
         <v>1490</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="M155" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N155" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="N155" s="2" t="s">
+      <c r="O155" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="P155" s="1" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q155" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>964</v>
       </c>
@@ -13152,17 +14692,23 @@
       <c r="J156" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="M156" s="1" t="s">
+      <c r="K156" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="N156" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="N156" s="2" t="s">
+      <c r="O156" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="P156" s="1" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q156" s="1" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>971</v>
       </c>
@@ -13194,22 +14740,31 @@
         <v>1397</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L157" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="M157" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M157" s="4" t="s">
+        <v>2193</v>
+      </c>
+      <c r="N157" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="N157" s="2" t="s">
+      <c r="O157" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="P157" s="1" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q157" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>980</v>
       </c>
@@ -13240,17 +14795,23 @@
       <c r="J158" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="M158" s="1" t="s">
+      <c r="K158" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="N158" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="N158" s="2" t="s">
+      <c r="O158" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P158" s="1" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q158" s="1" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>986</v>
       </c>
@@ -13281,17 +14842,20 @@
       <c r="J159" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="M159" s="1" t="s">
+      <c r="K159" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N159" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="N159" s="2" t="s">
+      <c r="O159" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P159" s="1" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q159" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>992</v>
       </c>
@@ -13322,17 +14886,23 @@
       <c r="J160" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="K160" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="N160" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="O160" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P160" s="1" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q160" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>997</v>
       </c>
@@ -13364,19 +14934,22 @@
         <v>1655</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="M161" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="N161" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="N161" s="2" t="s">
+      <c r="O161" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="P161" s="1" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q161" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1005</v>
       </c>
@@ -13408,19 +14981,22 @@
         <v>1599</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="M162" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="N162" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="N162" s="2" t="s">
+      <c r="O162" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="P162" s="1" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q162" s="1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1013</v>
       </c>
@@ -13451,17 +15027,23 @@
       <c r="J163" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="M163" s="1" t="s">
+      <c r="K163" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="N163" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="N163" s="2" t="s">
+      <c r="O163" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="P163" s="1" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q163" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1021</v>
       </c>
@@ -13492,17 +15074,26 @@
       <c r="J164" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="M164" s="1" t="s">
+      <c r="K164" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="N164" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="N164" s="2" t="s">
+      <c r="O164" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P164" s="1" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q164" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1027</v>
       </c>
@@ -13534,19 +15125,22 @@
         <v>1661</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M165" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="N165" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="N165" s="2" t="s">
+      <c r="O165" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P165" s="1" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q165" s="1" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1033</v>
       </c>
@@ -13578,19 +15172,22 @@
         <v>1434</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M166" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>2019</v>
+      </c>
+      <c r="N166" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="O166" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P166" s="1" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q166" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1038</v>
       </c>
@@ -13621,17 +15218,23 @@
       <c r="J167" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="M167" s="1" t="s">
+      <c r="K167" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="N167" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="O167" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="P167" s="1" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q167" s="1" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1045</v>
       </c>
@@ -13662,17 +15265,23 @@
       <c r="J168" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="K168" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="N168" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="N168" s="2" t="s">
+      <c r="O168" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P168" s="1" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q168" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1051</v>
       </c>
@@ -13703,17 +15312,23 @@
       <c r="J169" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="M169" s="1" t="s">
+      <c r="K169" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="N169" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="N169" s="2" t="s">
+      <c r="O169" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="P169" s="1" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q169" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1059</v>
       </c>
@@ -13744,20 +15359,32 @@
       <c r="J170" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="L170" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="M170" s="1" t="s">
+      <c r="K170" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="M170" s="4" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N170" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="N170" s="2" t="s">
+      <c r="O170" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="P170" s="1" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q170" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1067</v>
       </c>
@@ -13788,17 +15415,20 @@
       <c r="J171" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="M171" s="1" t="s">
+      <c r="K171" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N171" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="N171" s="2" t="s">
+      <c r="O171" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P171" s="1" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q171" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1073</v>
       </c>
@@ -13829,17 +15459,26 @@
       <c r="J172" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="K172" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="N172" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="N172" s="2" t="s">
+      <c r="O172" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P172" s="1" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q172" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1079</v>
       </c>
@@ -13870,17 +15509,23 @@
       <c r="J173" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="M173" s="1" t="s">
+      <c r="K173" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="N173" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N173" s="2" t="s">
+      <c r="O173" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P173" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q173" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13911,17 +15556,20 @@
       <c r="J174" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="M174" s="1" t="s">
+      <c r="K174" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N174" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="O174" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P174" s="1" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q174" s="1" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1089</v>
       </c>
@@ -13953,19 +15601,22 @@
         <v>1530</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="M175" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="N175" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="N175" s="2" t="s">
+      <c r="O175" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P175" s="1" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q175" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1095</v>
       </c>
@@ -13997,19 +15648,22 @@
         <v>1680</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="M176" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="N176" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="N176" s="2" t="s">
+      <c r="O176" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P176" s="1" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q176" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1101</v>
       </c>
@@ -14040,17 +15694,20 @@
       <c r="J177" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="M177" s="1" t="s">
+      <c r="K177" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N177" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="N177" s="2" t="s">
+      <c r="O177" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="P177" s="1" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q177" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1108</v>
       </c>
@@ -14081,17 +15738,20 @@
       <c r="J178" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="M178" s="1" t="s">
+      <c r="K178" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N178" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="N178" s="2" t="s">
+      <c r="O178" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P178" s="1" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q178" s="1" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1114</v>
       </c>
@@ -14123,19 +15783,22 @@
         <v>1686</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M179" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L179" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="N179" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="N179" s="2" t="s">
+      <c r="O179" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="P179" s="1" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q179" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1122</v>
       </c>
@@ -14167,22 +15830,31 @@
         <v>1688</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L180" s="2" t="s">
-        <v>1764</v>
-      </c>
-      <c r="M180" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="M180" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="N180" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="N180" s="2" t="s">
+      <c r="O180" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="P180" s="1" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q180" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1131</v>
       </c>
@@ -14214,22 +15886,28 @@
         <v>1690</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L181" s="2" t="s">
-        <v>1765</v>
-      </c>
-      <c r="M181" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="M181" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="N181" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="N181" s="2" t="s">
+      <c r="O181" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="P181" s="1" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q181" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1138</v>
       </c>
@@ -14261,22 +15939,31 @@
         <v>1414</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L182" s="2" t="s">
-        <v>1766</v>
-      </c>
-      <c r="M182" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="M182" s="4" t="s">
+        <v>2197</v>
+      </c>
+      <c r="N182" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="N182" s="2" t="s">
+      <c r="O182" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="P182" s="1" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q182" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1146</v>
       </c>
@@ -14308,22 +15995,28 @@
         <v>1693</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>1765</v>
-      </c>
-      <c r="M183" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="M183" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="N183" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="N183" s="2" t="s">
+      <c r="O183" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="P183" s="1" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q183" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1154</v>
       </c>
@@ -14354,17 +16047,23 @@
       <c r="J184" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="M184" s="1" t="s">
+      <c r="K184" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L184" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="N184" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="N184" s="2" t="s">
+      <c r="O184" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P184" s="1" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q184" s="1" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1160</v>
       </c>
@@ -14396,19 +16095,25 @@
         <v>1697</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="M185" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N185" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="N185" s="2" t="s">
+      <c r="O185" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P185" s="1" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q185" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14440,19 +16145,22 @@
         <v>1699</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M186" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="N186" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="N186" s="2" t="s">
+      <c r="O186" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P186" s="1" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q186" s="1" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1172</v>
       </c>
@@ -14483,17 +16191,23 @@
       <c r="J187" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="M187" s="1" t="s">
+      <c r="K187" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="N187" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N187" s="2" t="s">
+      <c r="O187" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="P187" s="1" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q187" s="1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1359</v>
       </c>
@@ -14507,7 +16221,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1178</v>
       </c>
@@ -14539,22 +16253,31 @@
         <v>1703</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="L189" s="2" t="s">
-        <v>1767</v>
-      </c>
-      <c r="M189" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="M189" s="4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="N189" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="N189" s="2" t="s">
+      <c r="O189" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="P189" s="1" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q189" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1186</v>
       </c>
@@ -14585,17 +16308,29 @@
       <c r="J190" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="M190" s="1" t="s">
+      <c r="K190" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L190" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="N190" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="N190" s="2" t="s">
+      <c r="O190" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P190" s="1" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q190" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1193</v>
       </c>
@@ -14626,17 +16361,26 @@
       <c r="J191" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="M191" s="1" t="s">
+      <c r="K191" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L191" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="N191" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="N191" s="2" t="s">
+      <c r="O191" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="P191" s="1" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q191" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1200</v>
       </c>
@@ -14667,17 +16411,20 @@
       <c r="J192" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="M192" s="1" t="s">
+      <c r="K192" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N192" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="N192" s="2" t="s">
+      <c r="O192" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P192" s="1" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q192" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1205</v>
       </c>
@@ -14709,19 +16456,25 @@
         <v>1446</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="M193" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>2033</v>
+      </c>
+      <c r="N193" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="N193" s="2" t="s">
+      <c r="O193" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="P193" s="1" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q193" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1212</v>
       </c>
@@ -14752,17 +16505,23 @@
       <c r="J194" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="M194" s="1" t="s">
+      <c r="K194" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>2034</v>
+      </c>
+      <c r="N194" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="N194" s="2" t="s">
+      <c r="O194" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="P194" s="1" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q194" s="1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1219</v>
       </c>
@@ -14793,17 +16552,20 @@
       <c r="J195" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="M195" s="1" t="s">
+      <c r="K195" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N195" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="N195" s="2" t="s">
+      <c r="O195" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="P195" s="1" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q195" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1226</v>
       </c>
@@ -14834,17 +16596,20 @@
       <c r="J196" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="M196" s="1" t="s">
+      <c r="K196" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N196" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N196" s="2" t="s">
+      <c r="O196" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P196" s="1" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q196" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1231</v>
       </c>
@@ -14875,17 +16640,20 @@
       <c r="J197" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="M197" s="1" t="s">
+      <c r="K197" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N197" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N197" s="2" t="s">
+      <c r="O197" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P197" s="1" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q197" s="1" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1236</v>
       </c>
@@ -14916,17 +16684,20 @@
       <c r="J198" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="M198" s="1" t="s">
+      <c r="K198" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N198" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N198" s="2" t="s">
+      <c r="O198" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P198" s="1" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q198" s="1" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1241</v>
       </c>
@@ -14957,17 +16728,20 @@
       <c r="J199" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="M199" s="1" t="s">
+      <c r="K199" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N199" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N199" s="2" t="s">
+      <c r="O199" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="P199" s="1" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q199" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1246</v>
       </c>
@@ -14999,19 +16773,22 @@
         <v>1718</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="M200" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="N200" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="N200" s="2" t="s">
+      <c r="O200" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P200" s="1" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q200" s="1" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1252</v>
       </c>
@@ -15042,17 +16819,29 @@
       <c r="J201" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="M201" s="1" t="s">
+      <c r="K201" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="N201" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="N201" s="2" t="s">
+      <c r="O201" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="P201" s="1" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q201" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1261</v>
       </c>
@@ -15083,17 +16872,20 @@
       <c r="J202" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="M202" s="1" t="s">
+      <c r="K202" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N202" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="N202" s="2" t="s">
+      <c r="O202" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P202" s="1" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q202" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1267</v>
       </c>
@@ -15124,17 +16916,20 @@
       <c r="J203" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="M203" s="1" t="s">
+      <c r="K203" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="N203" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="N203" s="2" t="s">
+      <c r="O203" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P203" s="1" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q203" s="1" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1273</v>
       </c>
@@ -15165,17 +16960,26 @@
       <c r="J204" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="M204" s="1" t="s">
+      <c r="K204" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="N204" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="N204" s="2" t="s">
+      <c r="O204" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="P204" s="1" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q204" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1281</v>
       </c>
@@ -15206,17 +17010,29 @@
       <c r="J205" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="M205" s="1" t="s">
+      <c r="K205" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L205" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="N205" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="N205" s="2" t="s">
+      <c r="O205" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P205" s="1" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q205" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="R205" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1288</v>
       </c>
@@ -15248,19 +17064,19 @@
         <v>1727</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="M206" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="N206" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N206" s="2" t="s">
+      <c r="O206" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P206" s="1" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q206" s="1" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1293</v>
       </c>
@@ -15291,17 +17107,23 @@
       <c r="J207" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="M207" s="1" t="s">
+      <c r="K207" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L207" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="N207" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="N207" s="2" t="s">
+      <c r="O207" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P207" s="1" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q207" s="1" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1362</v>
       </c>
@@ -15315,7 +17137,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1299</v>
       </c>
@@ -15346,17 +17168,29 @@
       <c r="J209" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="M209" s="1" t="s">
+      <c r="K209" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L209" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="N209" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="N209" s="2" t="s">
+      <c r="O209" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="P209" s="1" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q209" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="R209" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1308</v>
       </c>
@@ -15387,17 +17221,26 @@
       <c r="J210" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="M210" s="1" t="s">
+      <c r="K210" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L210" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="N210" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="N210" s="2" t="s">
+      <c r="O210" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="P210" s="1" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q210" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1316</v>
       </c>
@@ -15428,20 +17271,32 @@
       <c r="J211" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="L211" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="M211" s="1" t="s">
+      <c r="K211" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="M211" s="4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="N211" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="N211" s="2" t="s">
+      <c r="O211" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="P211" s="1" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q211" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R211" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1329</v>
       </c>
@@ -15451,14 +17306,14 @@
       <c r="D212" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="M212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="O212" s="2" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P212" s="2" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1333</v>
       </c>
@@ -15468,14 +17323,14 @@
       <c r="D213" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="M213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="O213" s="2" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P213" s="2" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1337</v>
       </c>
@@ -15485,14 +17340,14 @@
       <c r="D214" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="M214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="O214" s="2" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P214" s="2" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1341</v>
       </c>
@@ -15502,15 +17357,31 @@
       <c r="D215" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="M215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="O215" s="2" t="s">
-        <v>1770</v>
+      <c r="P215" s="2" t="s">
+        <v>1738</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S23" r:id="rId1" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R01870"/>
+    <hyperlink ref="S32" r:id="rId2" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R02272"/>
+    <hyperlink ref="S49" r:id="rId3" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R00943"/>
+    <hyperlink ref="S53" r:id="rId4" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R02918"/>
+    <hyperlink ref="S56" r:id="rId5" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R03656"/>
+    <hyperlink ref="S62" r:id="rId6" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R00379"/>
+    <hyperlink ref="S77" r:id="rId7" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R02412"/>
+    <hyperlink ref="S148" r:id="rId8" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R02625"/>
+    <hyperlink ref="S209" r:id="rId9" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R02094"/>
+    <hyperlink ref="S28" r:id="rId10" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R01068"/>
+    <hyperlink ref="S4" r:id="rId11" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R02184"/>
+    <hyperlink ref="S30" r:id="rId12" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R05636"/>
+    <hyperlink ref="S35" r:id="rId13" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R04385"/>
+    <hyperlink ref="S36" r:id="rId14" display="http://www.kegg.jp/dbget-bin/www_bget?rn:R00742"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="14" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="14" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="2479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="2473">
   <si>
     <t>locus</t>
   </si>
@@ -7153,9 +7153,6 @@
     <t>protein transmembrane transporter activity; TAT protein transport complex; protein transport by the Tat</t>
   </si>
   <si>
-    <t>integral component of plasma membrane; protein transmembrane transporter activity; protein secretion; TAT protein transport complex; protein transport by the Tat</t>
-  </si>
-  <si>
     <t>protein transmembrane transporter activity; protein secretion; TAT protein transport complex; protein transport by the Tat</t>
   </si>
   <si>
@@ -7171,13 +7168,7 @@
     <t>protein targeting; P-P-bond-hydrolysis-driven protein transmembrane transporter activity; protein transport by the Sec; intracellular protein transmembrane transport</t>
   </si>
   <si>
-    <t>translation; rRNA binding</t>
-  </si>
-  <si>
     <t>ATP binding; polyamine-transporting ATPase activity; ATP-binding cassette (ABC) transporter complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transport  function  </t>
   </si>
   <si>
     <t xml:space="preserve">ammonium transmembrane transporter activity </t>
@@ -7227,9 +7218,6 @@
     <t xml:space="preserve">ATP binding;   ferric-transporting ATPase activity; ATP-binding cassette (ABC) transporter complex; iron ion homeostasis    </t>
   </si>
   <si>
-    <t>transporter activity</t>
-  </si>
-  <si>
     <t xml:space="preserve">argininosuccinate lyase activity; arginine biosynthetic process via ornithine   
 </t>
   </si>
@@ -7250,14 +7238,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">endonuclease activity
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potassium ion symporter activity
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">bis(5'-nucleosyl)-tetraphosphatase (symmetrical) activity
 </t>
   </si>
@@ -7370,9 +7350,6 @@
     <t xml:space="preserve">GO:0008320; GO:0033281; GO:0043953 </t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0005887; GO:0008320; GO:0009306; GO:0033281; GO:0043953 </t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0008320; GO:0009306; GO:0033281; GO:0043953 </t>
   </si>
   <si>
@@ -7385,20 +7362,10 @@
     <t>GO:0008270; GO:0016491</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0006605 GO:0015450 GO:0043952 GO:0065002 </t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0006605; GO:0015450; GO:0043952; GO:0065002 </t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0006412; GO:0019843 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0005524; GO:0015417; GO:0043190 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006810 </t>
   </si>
   <si>
     <t xml:space="preserve">GO:0016491 </t>
@@ -7450,9 +7417,6 @@
     <t xml:space="preserve">GO:0005524; GO:0015408; GO:0043190; GO:0055072 </t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0005215 </t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0004056; GO:0042450  
 </t>
   </si>
@@ -7513,13 +7477,29 @@
   <si>
     <t xml:space="preserve">GO:0005524; GO:0009029; GO:0009245 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006605; GO:0015450 GO:0043952 GO:0065002 </t>
+  </si>
+  <si>
+    <t>rRNA binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GO:0019843 
+</t>
+  </si>
+  <si>
+    <t>endonuclease activity</t>
+  </si>
+  <si>
+    <t>potassium ion symporter activity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7668,8 +7648,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7849,6 +7837,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -8010,13 +8004,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8362,8 +8362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Y105" sqref="Y105"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8382,7 +8382,7 @@
     <col min="12" max="12" width="25" style="2" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="41.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="112.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="100.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="34" style="2" customWidth="1"/>
     <col min="17" max="17" width="48.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="37.85546875" style="2" customWidth="1"/>
@@ -8392,68 +8392,68 @@
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>2342</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>2343</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>2166</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>2167</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>2330</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1732</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>2193</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>2099</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>2194</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>2195</v>
       </c>
     </row>
@@ -13566,7 +13566,7 @@
         <v>2344</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13616,7 +13616,7 @@
         <v>2345</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13672,7 +13672,7 @@
         <v>2346</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13754,7 +13754,7 @@
         <v>2347</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13848,7 +13848,7 @@
         <v>2348</v>
       </c>
       <c r="U118" s="2" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13964,6 +13964,9 @@
       <c r="O121" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P121" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q121" s="2" t="s">
         <v>1844</v>
       </c>
@@ -13971,7 +13974,7 @@
         <v>2349</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14011,6 +14014,9 @@
       <c r="O122" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P122" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q122" s="2" t="s">
         <v>1839</v>
       </c>
@@ -14018,7 +14024,7 @@
         <v>2350</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14065,7 +14071,7 @@
         <v>2351</v>
       </c>
       <c r="U123" s="2" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14112,7 +14118,7 @@
         <v>2352</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14174,7 +14180,7 @@
         <v>2353</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14255,7 +14261,7 @@
         <v>2354</v>
       </c>
       <c r="U128" s="2" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14302,7 +14308,7 @@
         <v>2355</v>
       </c>
       <c r="U129" s="2" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14368,6 +14374,9 @@
       <c r="O131" s="2" t="s">
         <v>812</v>
       </c>
+      <c r="P131" s="2" t="s">
+        <v>2332</v>
+      </c>
       <c r="Q131" s="2" t="s">
         <v>1773</v>
       </c>
@@ -14378,7 +14387,7 @@
         <v>2356</v>
       </c>
       <c r="U131" s="2" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14425,7 +14434,7 @@
         <v>2357</v>
       </c>
       <c r="U132" s="2" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14472,7 +14481,7 @@
         <v>2358</v>
       </c>
       <c r="U133" s="2" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14525,7 +14534,7 @@
         <v>2359</v>
       </c>
       <c r="U134" s="2" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14800,7 +14809,7 @@
         <v>2360</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14847,7 +14856,7 @@
         <v>2361</v>
       </c>
       <c r="U142" s="2" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14891,7 +14900,7 @@
         <v>2362</v>
       </c>
       <c r="U143" s="2" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14934,6 +14943,9 @@
       <c r="O144" s="2" t="s">
         <v>889</v>
       </c>
+      <c r="P144" s="2" t="s">
+        <v>2339</v>
+      </c>
       <c r="Q144" s="2" t="s">
         <v>1770</v>
       </c>
@@ -14941,7 +14953,7 @@
         <v>2363</v>
       </c>
       <c r="U144" s="2" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14994,7 +15006,7 @@
         <v>2364</v>
       </c>
       <c r="U145" s="2" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15037,6 +15049,9 @@
       <c r="O146" s="2" t="s">
         <v>905</v>
       </c>
+      <c r="P146" s="2" t="s">
+        <v>2339</v>
+      </c>
       <c r="Q146" s="2" t="s">
         <v>1769</v>
       </c>
@@ -15044,7 +15059,7 @@
         <v>2365</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="147" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15087,6 +15102,9 @@
       <c r="O147" s="2" t="s">
         <v>913</v>
       </c>
+      <c r="P147" s="2" t="s">
+        <v>2339</v>
+      </c>
       <c r="Q147" s="2" t="s">
         <v>1772</v>
       </c>
@@ -15094,7 +15112,7 @@
         <v>2363</v>
       </c>
       <c r="U147" s="2" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15147,7 +15165,7 @@
         <v>2315</v>
       </c>
       <c r="U148" s="2" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15194,7 +15212,7 @@
         <v>2366</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15351,6 +15369,9 @@
       <c r="O153" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P153" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q153" s="2" t="s">
         <v>1858</v>
       </c>
@@ -15358,7 +15379,7 @@
         <v>2367</v>
       </c>
       <c r="U153" s="2" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15398,6 +15419,9 @@
       <c r="O154" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P154" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q154" s="2" t="s">
         <v>1779</v>
       </c>
@@ -15405,7 +15429,7 @@
         <v>2368</v>
       </c>
       <c r="U154" s="2" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15452,10 +15476,10 @@
         <v>1778</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="U155" s="2" t="s">
-        <v>2436</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="156" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15495,14 +15519,17 @@
       <c r="O156" s="2" t="s">
         <v>968</v>
       </c>
+      <c r="P156" s="2" t="s">
+        <v>2336</v>
+      </c>
       <c r="Q156" s="2" t="s">
         <v>1823</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="U156" s="2" t="s">
-        <v>2437</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15561,10 +15588,10 @@
         <v>2127</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="U157" s="2" t="s">
-        <v>2438</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15608,10 +15635,10 @@
         <v>1849</v>
       </c>
       <c r="T158" s="2" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="U158" s="2" t="s">
-        <v>2439</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="159" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15733,14 +15760,17 @@
       <c r="O161" s="2" t="s">
         <v>1002</v>
       </c>
+      <c r="P161" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q161" s="2" t="s">
         <v>1838</v>
       </c>
       <c r="T161" s="2" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="U161" s="2" t="s">
-        <v>2440</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="162" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15783,14 +15813,17 @@
       <c r="O162" s="2" t="s">
         <v>1010</v>
       </c>
+      <c r="P162" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q162" s="2" t="s">
         <v>1828</v>
       </c>
       <c r="T162" s="2" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="U162" s="2" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15833,14 +15866,17 @@
       <c r="O163" s="2" t="s">
         <v>1018</v>
       </c>
+      <c r="P163" s="2" t="s">
+        <v>2339</v>
+      </c>
       <c r="Q163" s="2" t="s">
         <v>1771</v>
       </c>
       <c r="T163" s="2" t="s">
-        <v>2374</v>
+        <v>2469</v>
       </c>
       <c r="U163" s="2" t="s">
-        <v>2442</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15887,10 +15923,10 @@
         <v>2083</v>
       </c>
       <c r="T164" s="2" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="U164" s="2" t="s">
-        <v>2443</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15930,14 +15966,11 @@
       <c r="O165" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P165" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q165" s="2" t="s">
         <v>1799</v>
-      </c>
-      <c r="T165" s="2" t="s">
-        <v>2376</v>
-      </c>
-      <c r="U165" s="2" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15977,14 +16010,11 @@
       <c r="O166" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P166" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q166" s="2" t="s">
         <v>1815</v>
-      </c>
-      <c r="T166" s="2" t="s">
-        <v>2376</v>
-      </c>
-      <c r="U166" s="2" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="167" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16031,7 +16061,7 @@
         <v>2247</v>
       </c>
       <c r="U167" s="2" t="s">
-        <v>2445</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="168" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16071,14 +16101,17 @@
       <c r="O168" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P168" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q168" s="2" t="s">
         <v>1841</v>
       </c>
       <c r="T168" s="2" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="U168" s="2" t="s">
-        <v>2446</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16121,14 +16154,17 @@
       <c r="O169" s="2" t="s">
         <v>1056</v>
       </c>
+      <c r="P169" s="2" t="s">
+        <v>2332</v>
+      </c>
       <c r="Q169" s="2" t="s">
         <v>1818</v>
       </c>
       <c r="T169" s="2" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="U169" s="2" t="s">
-        <v>2447</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16174,6 +16210,9 @@
       <c r="O170" s="2" t="s">
         <v>1064</v>
       </c>
+      <c r="P170" s="2" t="s">
+        <v>2336</v>
+      </c>
       <c r="Q170" s="2" t="s">
         <v>1847</v>
       </c>
@@ -16184,10 +16223,10 @@
         <v>2128</v>
       </c>
       <c r="T170" s="2" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="U170" s="2" t="s">
-        <v>2448</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16272,10 +16311,10 @@
         <v>2085</v>
       </c>
       <c r="T172" s="2" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="U172" s="2" t="s">
-        <v>2449</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16319,10 +16358,10 @@
         <v>1854</v>
       </c>
       <c r="T173" s="2" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="U173" s="2" t="s">
-        <v>2450</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="174" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16400,14 +16439,17 @@
       <c r="O175" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P175" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q175" s="2" t="s">
         <v>1756</v>
       </c>
       <c r="T175" s="2" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="U175" s="2" t="s">
-        <v>2451</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="176" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16447,14 +16489,17 @@
       <c r="O176" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P176" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q176" s="2" t="s">
         <v>1868</v>
       </c>
       <c r="T176" s="2" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="U176" s="2" t="s">
-        <v>2452</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="177" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16495,10 +16540,10 @@
         <v>1918</v>
       </c>
       <c r="T177" s="2" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="U177" s="2" t="s">
-        <v>2453</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16583,10 +16628,10 @@
         <v>1768</v>
       </c>
       <c r="T179" s="2" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="U179" s="2" t="s">
-        <v>2454</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="180" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16645,10 +16690,10 @@
         <v>2129</v>
       </c>
       <c r="T180" s="2" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="U180" s="2" t="s">
-        <v>2455</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16698,10 +16743,10 @@
         <v>2087</v>
       </c>
       <c r="T181" s="2" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="U181" s="2" t="s">
-        <v>2456</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="182" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16757,10 +16802,10 @@
         <v>2130</v>
       </c>
       <c r="T182" s="2" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="U182" s="2" t="s">
-        <v>2457</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="183" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16806,6 +16851,9 @@
       <c r="O183" s="2" t="s">
         <v>1151</v>
       </c>
+      <c r="P183" s="2" t="s">
+        <v>2336</v>
+      </c>
       <c r="Q183" s="2" t="s">
         <v>1752</v>
       </c>
@@ -16813,10 +16861,10 @@
         <v>2089</v>
       </c>
       <c r="T183" s="2" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="U183" s="2" t="s">
-        <v>2458</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="184" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16860,10 +16908,10 @@
         <v>1901</v>
       </c>
       <c r="T184" s="2" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="U184" s="2" t="s">
-        <v>2459</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16903,6 +16951,9 @@
       <c r="O185" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P185" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q185" s="2" t="s">
         <v>1736</v>
       </c>
@@ -16910,10 +16961,10 @@
         <v>2090</v>
       </c>
       <c r="T185" s="2" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="U185" s="2" t="s">
-        <v>2460</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="186" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16953,14 +17004,11 @@
       <c r="O186" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P186" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q186" s="2" t="s">
         <v>1909</v>
-      </c>
-      <c r="T186" s="2" t="s">
-        <v>2376</v>
-      </c>
-      <c r="U186" s="2" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="187" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17000,14 +17048,11 @@
       <c r="O187" s="2" t="s">
         <v>1175</v>
       </c>
+      <c r="P187" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q187" s="2" t="s">
         <v>1869</v>
-      </c>
-      <c r="T187" s="2" t="s">
-        <v>2392</v>
-      </c>
-      <c r="U187" s="2" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17077,10 +17122,10 @@
         <v>2131</v>
       </c>
       <c r="T189" s="2" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="U189" s="2" t="s">
-        <v>2462</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="190" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17133,10 +17178,10 @@
         <v>2112</v>
       </c>
       <c r="T190" s="2" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="U190" s="2" t="s">
-        <v>2463</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="191" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17176,6 +17221,9 @@
       <c r="O191" s="2" t="s">
         <v>1197</v>
       </c>
+      <c r="P191" s="2" t="s">
+        <v>2336</v>
+      </c>
       <c r="Q191" s="2" t="s">
         <v>1810</v>
       </c>
@@ -17183,10 +17231,10 @@
         <v>2093</v>
       </c>
       <c r="T191" s="2" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="U191" s="2" t="s">
-        <v>2464</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="192" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17264,6 +17312,9 @@
       <c r="O193" s="2" t="s">
         <v>1209</v>
       </c>
+      <c r="P193" s="2" t="s">
+        <v>2336</v>
+      </c>
       <c r="Q193" s="2" t="s">
         <v>1803</v>
       </c>
@@ -17271,10 +17322,10 @@
         <v>2094</v>
       </c>
       <c r="T193" s="2" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="U193" s="2" t="s">
-        <v>2465</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17314,14 +17365,17 @@
       <c r="O194" s="2" t="s">
         <v>1216</v>
       </c>
+      <c r="P194" s="2" t="s">
+        <v>2332</v>
+      </c>
       <c r="Q194" s="2" t="s">
         <v>1790</v>
       </c>
       <c r="T194" s="2" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="U194" s="2" t="s">
-        <v>2466</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="195" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17438,10 +17492,10 @@
         <v>1908</v>
       </c>
       <c r="T197" s="2" t="s">
-        <v>2398</v>
+        <v>2471</v>
       </c>
       <c r="U197" s="2" t="s">
-        <v>2467</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="198" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17557,14 +17611,17 @@
       <c r="O200" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P200" s="2" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q200" s="2" t="s">
         <v>1791</v>
       </c>
       <c r="T200" s="2" t="s">
-        <v>2399</v>
+        <v>2472</v>
       </c>
       <c r="U200" s="2" t="s">
-        <v>2468</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="201" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17620,10 +17677,10 @@
         <v>2132</v>
       </c>
       <c r="T201" s="2" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="U201" s="2" t="s">
-        <v>2469</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="202" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17664,10 +17721,10 @@
         <v>1866</v>
       </c>
       <c r="T202" s="2" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="U202" s="2" t="s">
-        <v>2470</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="203" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17708,10 +17765,10 @@
         <v>1894</v>
       </c>
       <c r="T203" s="2" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="U203" s="2" t="s">
-        <v>2471</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="204" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17761,10 +17818,10 @@
         <v>2133</v>
       </c>
       <c r="T204" s="2" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="U204" s="2" t="s">
-        <v>2472</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="205" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17807,6 +17864,9 @@
       <c r="O205" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P205" s="2" t="s">
+        <v>2332</v>
+      </c>
       <c r="Q205" s="2" t="s">
         <v>1734</v>
       </c>
@@ -17817,10 +17877,10 @@
         <v>2134</v>
       </c>
       <c r="T205" s="2" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="U205" s="2" t="s">
-        <v>2473</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="206" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17861,10 +17921,10 @@
         <v>1926</v>
       </c>
       <c r="T206" s="2" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="U206" s="2" t="s">
-        <v>2474</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="207" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17908,10 +17968,10 @@
         <v>1795</v>
       </c>
       <c r="T207" s="2" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="U207" s="2" t="s">
-        <v>2475</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="208" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17981,10 +18041,10 @@
         <v>2113</v>
       </c>
       <c r="T209" s="2" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="U209" s="2" t="s">
-        <v>2476</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="210" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18034,10 +18094,10 @@
         <v>2135</v>
       </c>
       <c r="T210" s="2" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="U210" s="2" t="s">
-        <v>2477</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18096,10 +18156,10 @@
         <v>2136</v>
       </c>
       <c r="T211" s="2" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="U211" s="2" t="s">
-        <v>2478</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="212" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="2473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="2519">
   <si>
     <t>locus</t>
   </si>
@@ -7493,6 +7493,377 @@
   </si>
   <si>
     <t>potassium ion symporter activity</t>
+  </si>
+  <si>
+    <t>ngo02020  
+Two-component system</t>
+  </si>
+  <si>
+    <t>ngo00230  
+Purine metabolism
+ngo00240  
+Pyrimidine metabolism
+ngo01100  
+Metabolic pathways
+ngo03030  
+DNA replication
+ngo03430  
+Mismatch repair
+ngo03440  
+Homologous recombination</t>
+  </si>
+  <si>
+    <t>ngo00190  
+Oxidative phosphorylation
+ngo03018  
+RNA degradation</t>
+  </si>
+  <si>
+    <t>ngo00970  
+Aminoacyl-tRNA biosynthesis</t>
+  </si>
+  <si>
+    <t>ngo03060  
+Protein export
+ngo03070  
+Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>ngo00010  
+Glycolysis / Gluconeogenesis
+ngo00051  
+Fructose and mannose metabolism
+ngo00562  
+Inositol phosphate metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01120  
+Microbial metabolism in diverse environments
+ngo01200  
+Carbon metabolism
+ngo01230  
+Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>ngo00330  
+Arginine and proline metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01210  
+2-Oxocarboxylic acid metabolism
+ngo01230  
+Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>ngo00240  
+Pyrimidine metabolism
+ngo01100  
+Metabolic pathways</t>
+  </si>
+  <si>
+    <t>ngo00010  
+Glycolysis / Gluconeogenesis
+ngo00030  
+Pentose phosphate pathway
+ngo00051  
+Fructose and mannose metabolism
+ngo00680  
+Methane metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01120  
+Microbial metabolism in diverse environments
+ngo01200  
+Carbon metabolism
+ngo01230  
+Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>ngo00730  
+Thiamine metabolism
+ngo00900  
+Terpenoid backbone biosynthesis
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>ngo00860  
+Porphyrin and chlorophyll metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>ngo00061  
+Fatty acid biosynthesis
+ngo00620  
+Pyruvate metabolism
+ngo00640  
+Propanoate metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01120  
+Microbial metabolism in diverse environments
+ngo01200  
+Carbon metabolism
+ngo01212  
+Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>ngo00240  
+Pyrimidine metabolism
+ngo00250  
+Alanine, aspartate and glutamate metabolism
+ngo01100  
+Metabolic pathways</t>
+  </si>
+  <si>
+    <t>ngo00350  
+Tyrosine metabolism
+ngo01120  
+Microbial metabolism in diverse environments
+ngo01220  
+Degradation of aromatic compounds</t>
+  </si>
+  <si>
+    <t>ngo00670  
+One carbon pool by folate
+ngo01100  
+Metabolic pathways
+ngo01120  
+Microbial metabolism in diverse environments
+ngo01200  
+Carbon metabolism</t>
+  </si>
+  <si>
+    <t>ngo00740  
+Riboflavin metabolism
+ngo01100  
+Metabolic pathways</t>
+  </si>
+  <si>
+    <t>ngo03060  
+Protein export</t>
+  </si>
+  <si>
+    <t>ngo00900  
+Terpenoid backbone biosynthesis
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>ngo00630  
+Glyoxylate and dicarboxylate metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>ngo00290  
+Valine, leucine and isoleucine biosynthesis
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>ngo00340  
+Histidine metabolism</t>
+  </si>
+  <si>
+    <t>ngo00400  
+Phenylalanine, tyrosine and tryptophan biosynthesis
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01230  
+Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>ngo00550  
+Peptidoglycan biosynthesis
+ngo01100  
+Metabolic pathways
+ngo01501  
+beta-Lactam resistance</t>
+  </si>
+  <si>
+    <t>ngo00540  
+Lipopolysaccharide biosynthesis
+ngo01100  
+Metabolic pathways</t>
+  </si>
+  <si>
+    <t>ngo00270  
+Cysteine and methionine metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01230  
+Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>ngo00550  
+Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>ngo03440  
+Homologous recombination</t>
+  </si>
+  <si>
+    <t>ngo00790  
+Folate biosynthesis
+ngo01100  
+Metabolic pathways</t>
+  </si>
+  <si>
+    <t>ngo00520  
+Amino sugar and nucleotide sugar metabolism
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01501  
+beta-Lactam resistance</t>
+  </si>
+  <si>
+    <t>ngo03410  
+Base excision repair</t>
+  </si>
+  <si>
+    <t>ngo00480  
+Glutathione metabolism
+ngo01100  
+Metabolic pathways</t>
+  </si>
+  <si>
+    <t>ngo03010  
+Ribosome</t>
+  </si>
+  <si>
+    <t>ngo00340  
+Histidine metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01230  
+Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>ngo00650  
+Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>ngo02010  
+ABC transporters</t>
+  </si>
+  <si>
+    <t>ngo00330  
+Arginine and proline metabolism
+ngo01100  
+Metabolic pathways</t>
+  </si>
+  <si>
+    <t>ngo03018  
+RNA degradation</t>
+  </si>
+  <si>
+    <t>ngo00620  
+Pyruvate metabolism
+ngo00680  
+Methane metabolism
+ngo01100  
+Metabolic pathways
+ngo01120  
+Microbial metabolism in diverse environments
+ngo01200  
+Carbon metabolism</t>
+  </si>
+  <si>
+    <t>ngo00430  
+Taurine and hypotaurine metabolism
+ngo00620  
+Pyruvate metabolism
+ngo00640  
+Propanoate metabolism
+ngo00680  
+Methane metabolism
+ngo01100  
+Metabolic pathways
+ngo01120  
+Microbial metabolism in diverse environments
+ngo01200  
+Carbon metabolism</t>
+  </si>
+  <si>
+    <t>ngo00250  
+Alanine, aspartate and glutamate metabolism
+ngo00330  
+Arginine and proline metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites
+ngo01230  
+Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>ngo00040  
+Pentose and glucuronate interconversions
+ngo00052  
+Galactose metabolism
+ngo00500  
+Starch and sucrose metabolism
+ngo00520  
+Amino sugar and nucleotide sugar metabolism
+ngo01100  
+Metabolic pathways
+ngo01110  
+Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>ngo00230  
+Purine metabolism</t>
+  </si>
+  <si>
+    <t>ngo00190  
+Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>ngo03030  
+DNA replication
+ngo03410  
+Base excision repair
+ngo03420  
+Nucleotide excision repair
+ngo03430  
+Mismatch repair</t>
+  </si>
+  <si>
+    <t>ngo00620  
+Pyruvate metabolism
+ngo01200  
+Carbon metabolism
+ngo02020  
+Two-component system</t>
+  </si>
+  <si>
+    <t>KEGG  Pathway</t>
   </si>
 </sst>
 </file>
@@ -8360,10 +8731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:V215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8379,20 +8750,20 @@
     <col min="9" max="9" width="21.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="100.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="34" style="2" customWidth="1"/>
-    <col min="17" max="17" width="48.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="37.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="33.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="13" width="25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="41.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="100.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34" style="2" customWidth="1"/>
+    <col min="18" max="18" width="48.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="37.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8430,34 +8801,37 @@
         <v>2166</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>2167</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>2330</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1732</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>2193</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>2099</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>2194</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8491,26 +8865,29 @@
       <c r="L2" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>2331</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>2197</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -8544,32 +8921,35 @@
       <c r="L3" s="2" t="s">
         <v>1933</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>2100</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>2333</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -8603,29 +8983,32 @@
       <c r="L4" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>2200</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -8653,17 +9036,17 @@
       <c r="K5" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -8700,29 +9083,32 @@
       <c r="L6" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="M6" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>2101</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>2202</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -8738,14 +9124,14 @@
       <c r="G7" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1345</v>
       </c>
@@ -8759,7 +9145,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1342</v>
       </c>
@@ -8773,7 +9159,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -8804,23 +9190,23 @@
       <c r="L10" s="2" t="s">
         <v>1936</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>2204</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -8854,26 +9240,29 @@
       <c r="L11" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>2334</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -8911,34 +9300,37 @@
         <v>2137</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>2168</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>2055</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>2102</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>2207</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -8969,17 +9361,17 @@
       <c r="L13" s="2" t="s">
         <v>1938</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -9010,23 +9402,23 @@
       <c r="L14" s="2" t="s">
         <v>1939</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>2209</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -9054,17 +9446,17 @@
       <c r="K15" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -9095,26 +9487,26 @@
       <c r="L16" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>2211</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -9142,17 +9534,17 @@
       <c r="K17" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>97</v>
       </c>
@@ -9180,17 +9572,17 @@
       <c r="K18" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>103</v>
       </c>
@@ -9218,26 +9610,26 @@
       <c r="K19" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>2331</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>2337</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>2212</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>109</v>
       </c>
@@ -9268,23 +9660,23 @@
       <c r="L20" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="V20" s="2" t="s">
         <v>2213</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>115</v>
       </c>
@@ -9319,31 +9711,34 @@
         <v>2138</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>2169</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>2103</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>2216</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="V21" s="2" t="s">
         <v>2215</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>123</v>
       </c>
@@ -9371,17 +9766,17 @@
       <c r="K22" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>1831</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>128</v>
       </c>
@@ -9419,31 +9814,34 @@
         <v>2139</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>2480</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>2170</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>2057</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>2104</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>2218</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>137</v>
       </c>
@@ -9474,17 +9872,17 @@
       <c r="L24" s="2" t="s">
         <v>1942</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
@@ -9515,23 +9913,23 @@
       <c r="L25" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>1856</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="U25" s="2" t="s">
         <v>2220</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>2219</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -9562,23 +9960,23 @@
       <c r="L26" s="2" t="s">
         <v>1944</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>2222</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="V26" s="2" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -9606,17 +10004,17 @@
       <c r="K27" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>159</v>
       </c>
@@ -9650,29 +10048,32 @@
       <c r="L28" s="2" t="s">
         <v>1945</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="M28" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>2224</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>167</v>
       </c>
@@ -9703,23 +10104,23 @@
       <c r="L29" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>2338</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -9754,31 +10155,34 @@
         <v>2140</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>2171</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>2116</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>2227</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>2226</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>181</v>
       </c>
@@ -9809,26 +10213,26 @@
       <c r="L31" s="2" t="s">
         <v>1947</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>2059</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="U31" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="V31" s="2" t="s">
         <v>2228</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>188</v>
       </c>
@@ -9863,31 +10267,34 @@
         <v>2141</v>
       </c>
       <c r="M32" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>2172</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>2060</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>2105</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="U32" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="V32" s="2" t="s">
         <v>2230</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>196</v>
       </c>
@@ -9918,23 +10325,23 @@
       <c r="L33" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>2233</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="V33" s="2" t="s">
         <v>2232</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>203</v>
       </c>
@@ -9968,23 +10375,23 @@
       <c r="L34" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="U34" s="2" t="s">
         <v>2235</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="V34" s="2" t="s">
         <v>2234</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>211</v>
       </c>
@@ -10018,26 +10425,29 @@
       <c r="L35" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="M35" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="R35" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>2117</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="U35" s="2" t="s">
         <v>2237</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="V35" s="2" t="s">
         <v>2236</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>218</v>
       </c>
@@ -10071,26 +10481,29 @@
       <c r="L36" s="2" t="s">
         <v>1951</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="M36" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="U36" s="2" t="s">
         <v>2239</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="V36" s="2" t="s">
         <v>2238</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>226</v>
       </c>
@@ -10118,17 +10531,17 @@
       <c r="K37" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>231</v>
       </c>
@@ -10162,29 +10575,29 @@
       <c r="L38" s="2" t="s">
         <v>2142</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>2173</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="R38" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="S38" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="U38" s="2" t="s">
         <v>2241</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="V38" s="2" t="s">
         <v>2240</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>239</v>
       </c>
@@ -10222,31 +10635,34 @@
         <v>2143</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>2174</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>1851</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="S39" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="T39" s="2" t="s">
         <v>2329</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="U39" s="2" t="s">
         <v>2243</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="V39" s="2" t="s">
         <v>2242</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>248</v>
       </c>
@@ -10274,17 +10690,17 @@
       <c r="K40" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="R40" s="2" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>254</v>
       </c>
@@ -10312,17 +10728,17 @@
       <c r="K41" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="R41" s="2" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>260</v>
       </c>
@@ -10357,31 +10773,34 @@
         <v>2144</v>
       </c>
       <c r="M42" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>2174</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="S42" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="T42" s="2" t="s">
         <v>2329</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="U42" s="2" t="s">
         <v>2245</v>
       </c>
-      <c r="U42" s="2" t="s">
+      <c r="V42" s="2" t="s">
         <v>2244</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>267</v>
       </c>
@@ -10409,17 +10828,17 @@
       <c r="K43" s="2" t="s">
         <v>2043</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="R43" s="2" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>274</v>
       </c>
@@ -10450,17 +10869,17 @@
       <c r="L44" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>280</v>
       </c>
@@ -10488,23 +10907,23 @@
       <c r="K45" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>2246</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>286</v>
       </c>
@@ -10532,26 +10951,26 @@
       <c r="K46" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="O46" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="P46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="Q46" s="2" t="s">
         <v>2331</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="R46" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="U46" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="U46" s="2" t="s">
+      <c r="V46" s="2" t="s">
         <v>2248</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>292</v>
       </c>
@@ -10582,23 +11001,26 @@
       <c r="L47" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="M47" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="P47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="R47" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="U47" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="U47" s="2" t="s">
+      <c r="V47" s="2" t="s">
         <v>2250</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>298</v>
       </c>
@@ -10626,23 +11048,23 @@
       <c r="K48" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="O48" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="P48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="R48" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="U48" s="2" t="s">
         <v>2253</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="V48" s="2" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>304</v>
       </c>
@@ -10677,31 +11099,34 @@
         <v>2145</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>2175</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="S49" s="2" t="s">
         <v>2063</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="T49" s="1" t="s">
         <v>2106</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="U49" s="2" t="s">
         <v>2255</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="V49" s="2" t="s">
         <v>2254</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>312</v>
       </c>
@@ -10732,26 +11157,26 @@
       <c r="L50" s="2" t="s">
         <v>1954</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="O50" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="P50" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="Q50" s="2" t="s">
         <v>2339</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="R50" s="2" t="s">
         <v>1855</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="U50" s="2" t="s">
         <v>2257</v>
       </c>
-      <c r="U50" s="2" t="s">
+      <c r="V50" s="2" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>319</v>
       </c>
@@ -10779,17 +11204,17 @@
       <c r="K51" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="R51" s="2" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>324</v>
       </c>
@@ -10817,23 +11242,23 @@
       <c r="K52" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="O52" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="P52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="R52" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="U52" s="2" t="s">
         <v>2259</v>
       </c>
-      <c r="U52" s="2" t="s">
+      <c r="V52" s="2" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>330</v>
       </c>
@@ -10867,29 +11292,32 @@
       <c r="L53" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="M53" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="P53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="R53" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="S53" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="S53" s="1" t="s">
+      <c r="T53" s="1" t="s">
         <v>2107</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="U53" s="2" t="s">
         <v>2261</v>
       </c>
-      <c r="U53" s="2" t="s">
+      <c r="V53" s="2" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>337</v>
       </c>
@@ -10905,14 +11333,14 @@
       <c r="G54" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="O54" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="P54" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>342</v>
       </c>
@@ -10946,23 +11374,26 @@
       <c r="L55" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="M55" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="P55" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="R55" s="2" t="s">
         <v>1864</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="U55" s="2" t="s">
         <v>2263</v>
       </c>
-      <c r="U55" s="2" t="s">
+      <c r="V55" s="2" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>350</v>
       </c>
@@ -10999,29 +11430,32 @@
       <c r="L56" s="2" t="s">
         <v>1957</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="M56" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="P56" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="S56" s="2" t="s">
         <v>2065</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="T56" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="U56" s="2" t="s">
         <v>2265</v>
       </c>
-      <c r="U56" s="2" t="s">
+      <c r="V56" s="2" t="s">
         <v>2264</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>359</v>
       </c>
@@ -11049,23 +11483,23 @@
       <c r="K57" s="2" t="s">
         <v>2043</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="P57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="R57" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="U57" s="2" t="s">
         <v>2267</v>
       </c>
-      <c r="U57" s="2" t="s">
+      <c r="V57" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>365</v>
       </c>
@@ -11103,28 +11537,31 @@
         <v>2146</v>
       </c>
       <c r="M58" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>2176</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="P58" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="R58" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="S58" s="2" t="s">
         <v>2066</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="U58" s="2" t="s">
         <v>2269</v>
       </c>
-      <c r="U58" s="2" t="s">
+      <c r="V58" s="2" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>374</v>
       </c>
@@ -11162,31 +11599,34 @@
         <v>2147</v>
       </c>
       <c r="M59" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="N59" s="2" t="s">
         <v>2177</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="O59" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="P59" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="R59" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="S59" s="2" t="s">
         <v>2067</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="T59" s="2" t="s">
         <v>2119</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="U59" s="2" t="s">
         <v>2271</v>
       </c>
-      <c r="U59" s="2" t="s">
+      <c r="V59" s="2" t="s">
         <v>2270</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>383</v>
       </c>
@@ -11220,26 +11660,29 @@
       <c r="L60" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="M60" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="P60" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="R60" s="2" t="s">
         <v>1913</v>
       </c>
-      <c r="S60" s="2" t="s">
+      <c r="T60" s="2" t="s">
         <v>2120</v>
       </c>
-      <c r="T60" s="2" t="s">
+      <c r="U60" s="2" t="s">
         <v>2273</v>
       </c>
-      <c r="U60" s="2" t="s">
+      <c r="V60" s="2" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1348</v>
       </c>
@@ -11253,7 +11696,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>390</v>
       </c>
@@ -11287,32 +11730,35 @@
       <c r="L62" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="M62" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="P62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="Q62" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="R62" s="2" t="s">
         <v>1835</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="S62" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="T62" s="1" t="s">
         <v>2109</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="U62" s="2" t="s">
         <v>2275</v>
       </c>
-      <c r="U62" s="2" t="s">
+      <c r="V62" s="2" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>396</v>
       </c>
@@ -11343,23 +11789,23 @@
       <c r="L63" s="2" t="s">
         <v>1960</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="P63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="R63" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="T63" s="2" t="s">
+      <c r="U63" s="2" t="s">
         <v>2277</v>
       </c>
-      <c r="U63" s="2" t="s">
+      <c r="V63" s="2" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>401</v>
       </c>
@@ -11387,17 +11833,17 @@
       <c r="K64" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="O64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="P64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="R64" s="2" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>406</v>
       </c>
@@ -11428,26 +11874,26 @@
       <c r="L65" s="2" t="s">
         <v>1961</v>
       </c>
-      <c r="N65" s="2" t="s">
+      <c r="O65" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="P65" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="Q65" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="R65" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="U65" s="2" t="s">
         <v>2279</v>
       </c>
-      <c r="U65" s="2" t="s">
+      <c r="V65" s="2" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>412</v>
       </c>
@@ -11484,26 +11930,29 @@
       <c r="L66" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="M66" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="P66" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="R66" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="T66" s="2" t="s">
         <v>2121</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="U66" s="2" t="s">
         <v>2281</v>
       </c>
-      <c r="U66" s="2" t="s">
+      <c r="V66" s="2" t="s">
         <v>2280</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>421</v>
       </c>
@@ -11531,23 +11980,23 @@
       <c r="K67" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="O67" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="P67" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="R67" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="U67" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="U67" s="2" t="s">
+      <c r="V67" s="2" t="s">
         <v>2282</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>428</v>
       </c>
@@ -11575,26 +12024,26 @@
       <c r="K68" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="O68" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="P68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="Q68" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="R68" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="U68" s="2" t="s">
         <v>2285</v>
       </c>
-      <c r="U68" s="2" t="s">
+      <c r="V68" s="2" t="s">
         <v>2284</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>434</v>
       </c>
@@ -11622,17 +12071,17 @@
       <c r="K69" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="O69" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="P69" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="R69" s="2" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>440</v>
       </c>
@@ -11660,17 +12109,17 @@
       <c r="K70" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="P70" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="R70" s="2" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>446</v>
       </c>
@@ -11698,23 +12147,23 @@
       <c r="K71" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="P71" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="R71" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="T71" s="2" t="s">
+      <c r="U71" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="U71" s="2" t="s">
+      <c r="V71" s="2" t="s">
         <v>2282</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>451</v>
       </c>
@@ -11742,23 +12191,23 @@
       <c r="K72" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="O72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="P72" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="R72" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="T72" s="2" t="s">
+      <c r="U72" s="2" t="s">
         <v>2287</v>
       </c>
-      <c r="U72" s="2" t="s">
+      <c r="V72" s="2" t="s">
         <v>2286</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>456</v>
       </c>
@@ -11790,25 +12239,28 @@
         <v>2148</v>
       </c>
       <c r="M73" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>2178</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="P73" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="R73" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="U73" s="2" t="s">
         <v>2289</v>
       </c>
-      <c r="U73" s="2" t="s">
+      <c r="V73" s="2" t="s">
         <v>2288</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>462</v>
       </c>
@@ -11842,26 +12294,26 @@
       <c r="L74" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="O74" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="P74" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="Q74" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="R74" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="U74" s="2" t="s">
         <v>2291</v>
       </c>
-      <c r="U74" s="2" t="s">
+      <c r="V74" s="2" t="s">
         <v>2290</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>469</v>
       </c>
@@ -11892,17 +12344,20 @@
       <c r="L75" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="M75" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="P75" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="R75" s="2" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>475</v>
       </c>
@@ -11940,31 +12395,34 @@
         <v>2149</v>
       </c>
       <c r="M76" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="N76" s="2" t="s">
         <v>2179</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="O76" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="O76" s="2" t="s">
+      <c r="P76" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="R76" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="R76" s="2" t="s">
+      <c r="S76" s="2" t="s">
         <v>2068</v>
       </c>
-      <c r="S76" s="2" t="s">
+      <c r="T76" s="2" t="s">
         <v>2122</v>
       </c>
-      <c r="T76" s="2" t="s">
+      <c r="U76" s="2" t="s">
         <v>2293</v>
       </c>
-      <c r="U76" s="2" t="s">
+      <c r="V76" s="2" t="s">
         <v>2292</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>484</v>
       </c>
@@ -12002,31 +12460,34 @@
         <v>2150</v>
       </c>
       <c r="M77" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>2180</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="O77" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="P77" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="R77" s="2" t="s">
         <v>1744</v>
       </c>
-      <c r="R77" s="2" t="s">
+      <c r="S77" s="2" t="s">
         <v>2069</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="T77" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="T77" s="2" t="s">
+      <c r="U77" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="U77" s="2" t="s">
+      <c r="V77" s="2" t="s">
         <v>2294</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>493</v>
       </c>
@@ -12057,23 +12518,23 @@
       <c r="L78" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="O78" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="P78" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="R78" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="T78" s="2" t="s">
+      <c r="U78" s="2" t="s">
         <v>2297</v>
       </c>
-      <c r="U78" s="2" t="s">
+      <c r="V78" s="2" t="s">
         <v>2296</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>499</v>
       </c>
@@ -12104,17 +12565,17 @@
       <c r="L79" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="O79" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="P79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>1837</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>505</v>
       </c>
@@ -12145,17 +12606,17 @@
       <c r="L80" s="2" t="s">
         <v>1967</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="O80" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="O80" s="2" t="s">
+      <c r="P80" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="R80" s="2" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>511</v>
       </c>
@@ -12186,17 +12647,17 @@
       <c r="L81" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="P81" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="Q81" s="2" t="s">
+      <c r="R81" s="2" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>517</v>
       </c>
@@ -12227,17 +12688,17 @@
       <c r="L82" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="O82" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="P82" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q82" s="2" t="s">
+      <c r="R82" s="2" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>523</v>
       </c>
@@ -12269,25 +12730,28 @@
         <v>2151</v>
       </c>
       <c r="M83" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="N83" s="2" t="s">
         <v>2181</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="O83" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="P83" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="Q83" s="2" t="s">
+      <c r="R83" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="T83" s="2" t="s">
+      <c r="U83" s="2" t="s">
         <v>2299</v>
       </c>
-      <c r="U83" s="2" t="s">
+      <c r="V83" s="2" t="s">
         <v>2298</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>530</v>
       </c>
@@ -12321,23 +12785,23 @@
       <c r="L84" s="2" t="s">
         <v>1970</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="O84" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="P84" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="R84" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="T84" s="2" t="s">
+      <c r="U84" s="2" t="s">
         <v>2301</v>
       </c>
-      <c r="U84" s="2" t="s">
+      <c r="V84" s="2" t="s">
         <v>2300</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>538</v>
       </c>
@@ -12365,23 +12829,23 @@
       <c r="K85" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="O85" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="P85" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q85" s="2" t="s">
+      <c r="R85" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="U85" s="2" t="s">
         <v>2303</v>
       </c>
-      <c r="U85" s="2" t="s">
+      <c r="V85" s="2" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>544</v>
       </c>
@@ -12412,17 +12876,17 @@
       <c r="L86" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="O86" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="P86" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q86" s="2" t="s">
+      <c r="R86" s="2" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>550</v>
       </c>
@@ -12450,17 +12914,17 @@
       <c r="K87" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N87" s="2" t="s">
+      <c r="O87" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="O87" s="2" t="s">
+      <c r="P87" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q87" s="2" t="s">
+      <c r="R87" s="2" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>555</v>
       </c>
@@ -12494,26 +12958,26 @@
       <c r="L88" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="O88" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="O88" s="2" t="s">
+      <c r="P88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q88" s="2" t="s">
+      <c r="R88" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="R88" s="2" t="s">
+      <c r="S88" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="T88" s="2" t="s">
+      <c r="U88" s="2" t="s">
         <v>2305</v>
       </c>
-      <c r="U88" s="2" t="s">
+      <c r="V88" s="2" t="s">
         <v>2304</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>562</v>
       </c>
@@ -12544,23 +13008,26 @@
       <c r="L89" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="M89" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="O89" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="O89" s="2" t="s">
+      <c r="P89" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="Q89" s="2" t="s">
+      <c r="R89" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="T89" s="2" t="s">
+      <c r="U89" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="U89" s="2" t="s">
+      <c r="V89" s="2" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>569</v>
       </c>
@@ -12595,31 +13062,34 @@
         <v>2152</v>
       </c>
       <c r="M90" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>2182</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="O90" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="P90" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="Q90" s="2" t="s">
+      <c r="R90" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="R90" s="2" t="s">
+      <c r="S90" s="2" t="s">
         <v>2071</v>
       </c>
-      <c r="S90" s="2" t="s">
+      <c r="T90" s="2" t="s">
         <v>2123</v>
       </c>
-      <c r="T90" s="2" t="s">
+      <c r="U90" s="2" t="s">
         <v>2309</v>
       </c>
-      <c r="U90" s="2" t="s">
+      <c r="V90" s="2" t="s">
         <v>2308</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>577</v>
       </c>
@@ -12653,26 +13123,29 @@
       <c r="L91" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="M91" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="P91" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="Q91" s="2" t="s">
+      <c r="R91" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="R91" s="2" t="s">
+      <c r="S91" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="T91" s="2" t="s">
+      <c r="U91" s="2" t="s">
         <v>2311</v>
       </c>
-      <c r="U91" s="2" t="s">
+      <c r="V91" s="2" t="s">
         <v>2310</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>1351</v>
       </c>
@@ -12686,7 +13159,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>585</v>
       </c>
@@ -12714,17 +13187,17 @@
       <c r="K93" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="O93" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O93" s="2" t="s">
+      <c r="P93" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q93" s="2" t="s">
+      <c r="R93" s="2" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>590</v>
       </c>
@@ -12755,26 +13228,26 @@
       <c r="L94" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="N94" s="2" t="s">
+      <c r="O94" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="O94" s="2" t="s">
+      <c r="P94" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P94" s="2" t="s">
+      <c r="Q94" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q94" s="2" t="s">
+      <c r="R94" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="T94" s="2" t="s">
+      <c r="U94" s="2" t="s">
         <v>2313</v>
       </c>
-      <c r="U94" s="2" t="s">
+      <c r="V94" s="2" t="s">
         <v>2312</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>596</v>
       </c>
@@ -12805,23 +13278,26 @@
       <c r="L95" s="2" t="s">
         <v>1976</v>
       </c>
-      <c r="N95" s="2" t="s">
+      <c r="M95" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="O95" s="2" t="s">
+      <c r="P95" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q95" s="2" t="s">
+      <c r="R95" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="T95" s="2" t="s">
+      <c r="U95" s="2" t="s">
         <v>2315</v>
       </c>
-      <c r="U95" s="2" t="s">
+      <c r="V95" s="2" t="s">
         <v>2314</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>602</v>
       </c>
@@ -12852,26 +13328,26 @@
       <c r="L96" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="O96" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="P96" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="P96" s="2" t="s">
+      <c r="Q96" s="2" t="s">
         <v>2340</v>
       </c>
-      <c r="Q96" s="2" t="s">
+      <c r="R96" s="2" t="s">
         <v>1871</v>
       </c>
-      <c r="T96" s="2" t="s">
+      <c r="U96" s="2" t="s">
         <v>2317</v>
       </c>
-      <c r="U96" s="2" t="s">
+      <c r="V96" s="2" t="s">
         <v>2316</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>609</v>
       </c>
@@ -12902,23 +13378,23 @@
       <c r="L97" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="O97" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="O97" s="2" t="s">
+      <c r="P97" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q97" s="2" t="s">
+      <c r="R97" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="T97" s="2" t="s">
+      <c r="U97" s="2" t="s">
         <v>2341</v>
       </c>
-      <c r="U97" s="2" t="s">
+      <c r="V97" s="2" t="s">
         <v>2318</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>615</v>
       </c>
@@ -12949,26 +13425,29 @@
       <c r="L98" s="2" t="s">
         <v>1979</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="M98" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O98" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="O98" s="2" t="s">
+      <c r="P98" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="P98" s="2" t="s">
+      <c r="Q98" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q98" s="2" t="s">
+      <c r="R98" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="T98" s="2" t="s">
+      <c r="U98" s="2" t="s">
         <v>2320</v>
       </c>
-      <c r="U98" s="2" t="s">
+      <c r="V98" s="2" t="s">
         <v>2319</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>622</v>
       </c>
@@ -12999,26 +13478,29 @@
       <c r="L99" s="2" t="s">
         <v>1980</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="M99" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="O99" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="O99" s="2" t="s">
+      <c r="P99" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="P99" s="2" t="s">
+      <c r="Q99" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q99" s="2" t="s">
+      <c r="R99" s="2" t="s">
         <v>1877</v>
       </c>
-      <c r="T99" s="2" t="s">
+      <c r="U99" s="2" t="s">
         <v>2322</v>
       </c>
-      <c r="U99" s="2" t="s">
+      <c r="V99" s="2" t="s">
         <v>2321</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>629</v>
       </c>
@@ -13056,31 +13538,34 @@
         <v>2153</v>
       </c>
       <c r="M100" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="N100" s="2" t="s">
         <v>2183</v>
       </c>
-      <c r="N100" s="2" t="s">
+      <c r="O100" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="O100" s="2" t="s">
+      <c r="P100" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="Q100" s="2" t="s">
+      <c r="R100" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="R100" s="2" t="s">
+      <c r="S100" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="S100" s="2" t="s">
+      <c r="T100" s="2" t="s">
         <v>2125</v>
       </c>
-      <c r="T100" s="2" t="s">
+      <c r="U100" s="2" t="s">
         <v>2324</v>
       </c>
-      <c r="U100" s="2" t="s">
+      <c r="V100" s="2" t="s">
         <v>2323</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>638</v>
       </c>
@@ -13108,17 +13593,17 @@
       <c r="K101" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="O101" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O101" s="2" t="s">
+      <c r="P101" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q101" s="2" t="s">
+      <c r="R101" s="2" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>643</v>
       </c>
@@ -13146,17 +13631,17 @@
       <c r="K102" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="O102" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O102" s="2" t="s">
+      <c r="P102" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q102" s="2" t="s">
+      <c r="R102" s="2" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>648</v>
       </c>
@@ -13184,17 +13669,17 @@
       <c r="K103" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N103" s="2" t="s">
+      <c r="O103" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O103" s="2" t="s">
+      <c r="P103" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q103" s="2" t="s">
+      <c r="R103" s="2" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>653</v>
       </c>
@@ -13222,17 +13707,17 @@
       <c r="K104" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="O104" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O104" s="2" t="s">
+      <c r="P104" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q104" s="2" t="s">
+      <c r="R104" s="2" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>658</v>
       </c>
@@ -13263,26 +13748,26 @@
       <c r="L105" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="N105" s="2" t="s">
+      <c r="O105" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="O105" s="2" t="s">
+      <c r="P105" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P105" s="2" t="s">
+      <c r="Q105" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q105" s="2" t="s">
+      <c r="R105" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="T105" s="2" t="s">
+      <c r="U105" s="2" t="s">
         <v>2326</v>
       </c>
-      <c r="U105" s="2" t="s">
+      <c r="V105" s="2" t="s">
         <v>2325</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>664</v>
       </c>
@@ -13310,17 +13795,17 @@
       <c r="K106" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N106" s="2" t="s">
+      <c r="O106" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O106" s="2" t="s">
+      <c r="P106" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q106" s="2" t="s">
+      <c r="R106" s="2" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>669</v>
       </c>
@@ -13348,17 +13833,17 @@
       <c r="K107" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N107" s="2" t="s">
+      <c r="O107" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O107" s="2" t="s">
+      <c r="P107" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q107" s="2" t="s">
+      <c r="R107" s="2" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>674</v>
       </c>
@@ -13374,14 +13859,14 @@
       <c r="G108" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="N108" s="2" t="s">
+      <c r="O108" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="O108" s="2" t="s">
+      <c r="P108" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>678</v>
       </c>
@@ -13415,17 +13900,17 @@
       <c r="L109" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="N109" s="2" t="s">
+      <c r="O109" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="O109" s="2" t="s">
+      <c r="P109" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="Q109" s="2" t="s">
+      <c r="R109" s="2" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>686</v>
       </c>
@@ -13457,28 +13942,31 @@
         <v>2154</v>
       </c>
       <c r="M110" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="N110" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="O110" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="O110" s="2" t="s">
+      <c r="P110" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="R110" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="R110" s="2" t="s">
+      <c r="S110" s="2" t="s">
         <v>2073</v>
       </c>
-      <c r="T110" s="2" t="s">
+      <c r="U110" s="2" t="s">
         <v>2328</v>
       </c>
-      <c r="U110" s="2" t="s">
+      <c r="V110" s="2" t="s">
         <v>2327</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>693</v>
       </c>
@@ -13506,17 +13994,17 @@
       <c r="K111" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="O111" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O111" s="2" t="s">
+      <c r="P111" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q111" s="2" t="s">
+      <c r="R111" s="2" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>698</v>
       </c>
@@ -13548,28 +14036,31 @@
         <v>2155</v>
       </c>
       <c r="M112" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="O112" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="O112" s="2" t="s">
+      <c r="P112" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q112" s="2" t="s">
+      <c r="R112" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="R112" s="2" t="s">
+      <c r="S112" s="2" t="s">
         <v>2074</v>
       </c>
-      <c r="T112" s="2" t="s">
+      <c r="U112" s="2" t="s">
         <v>2344</v>
       </c>
-      <c r="U112" s="2" t="s">
+      <c r="V112" s="2" t="s">
         <v>2404</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>704</v>
       </c>
@@ -13597,29 +14088,29 @@
       <c r="K113" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="N113" s="2" t="s">
+      <c r="O113" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O113" s="2" t="s">
+      <c r="P113" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q113" s="2" t="s">
+      <c r="R113" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="R113" s="2" t="s">
+      <c r="S113" s="2" t="s">
         <v>2075</v>
       </c>
-      <c r="T113" s="2" t="s">
+      <c r="U113" s="2" t="s">
         <v>2345</v>
       </c>
-      <c r="U113" s="2" t="s">
+      <c r="V113" s="2" t="s">
         <v>2405</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>709</v>
       </c>
@@ -13654,28 +14145,31 @@
         <v>2156</v>
       </c>
       <c r="M114" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="N114" s="2" t="s">
         <v>2184</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="O114" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="O114" s="2" t="s">
+      <c r="P114" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="Q114" s="2" t="s">
+      <c r="R114" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="R114" s="2" t="s">
+      <c r="S114" s="2" t="s">
         <v>2076</v>
       </c>
-      <c r="T114" s="2" t="s">
+      <c r="U114" s="2" t="s">
         <v>2346</v>
       </c>
-      <c r="U114" s="2" t="s">
+      <c r="V114" s="2" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>717</v>
       </c>
@@ -13703,17 +14197,17 @@
       <c r="K115" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N115" s="2" t="s">
+      <c r="O115" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O115" s="2" t="s">
+      <c r="P115" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q115" s="2" t="s">
+      <c r="R115" s="2" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>722</v>
       </c>
@@ -13741,23 +14235,23 @@
       <c r="K116" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="O116" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O116" s="2" t="s">
+      <c r="P116" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q116" s="2" t="s">
+      <c r="R116" s="2" t="s">
         <v>1916</v>
       </c>
-      <c r="T116" s="2" t="s">
+      <c r="U116" s="2" t="s">
         <v>2347</v>
       </c>
-      <c r="U116" s="2" t="s">
+      <c r="V116" s="2" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>727</v>
       </c>
@@ -13788,17 +14282,17 @@
       <c r="L117" s="2" t="s">
         <v>1983</v>
       </c>
-      <c r="N117" s="2" t="s">
+      <c r="O117" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="O117" s="2" t="s">
+      <c r="P117" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q117" s="2" t="s">
+      <c r="R117" s="2" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>733</v>
       </c>
@@ -13832,26 +14326,29 @@
       <c r="L118" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="M118" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="O118" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="O118" s="2" t="s">
+      <c r="P118" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q118" s="2" t="s">
+      <c r="R118" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="R118" s="2" t="s">
+      <c r="S118" s="2" t="s">
         <v>2077</v>
       </c>
-      <c r="T118" s="2" t="s">
+      <c r="U118" s="2" t="s">
         <v>2348</v>
       </c>
-      <c r="U118" s="2" t="s">
+      <c r="V118" s="2" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>740</v>
       </c>
@@ -13879,17 +14376,17 @@
       <c r="K119" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N119" s="2" t="s">
+      <c r="O119" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O119" s="2" t="s">
+      <c r="P119" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q119" s="2" t="s">
+      <c r="R119" s="2" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>745</v>
       </c>
@@ -13917,17 +14414,17 @@
       <c r="K120" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N120" s="2" t="s">
+      <c r="O120" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O120" s="2" t="s">
+      <c r="P120" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q120" s="2" t="s">
+      <c r="R120" s="2" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>750</v>
       </c>
@@ -13958,26 +14455,26 @@
       <c r="L121" s="2" t="s">
         <v>1985</v>
       </c>
-      <c r="N121" s="2" t="s">
+      <c r="O121" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="O121" s="2" t="s">
+      <c r="P121" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P121" s="2" t="s">
+      <c r="Q121" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q121" s="2" t="s">
+      <c r="R121" s="2" t="s">
         <v>1844</v>
       </c>
-      <c r="T121" s="2" t="s">
+      <c r="U121" s="2" t="s">
         <v>2349</v>
       </c>
-      <c r="U121" s="2" t="s">
+      <c r="V121" s="2" t="s">
         <v>2409</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>756</v>
       </c>
@@ -14008,26 +14505,26 @@
       <c r="L122" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="O122" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="O122" s="2" t="s">
+      <c r="P122" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P122" s="2" t="s">
+      <c r="Q122" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q122" s="2" t="s">
+      <c r="R122" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="T122" s="2" t="s">
+      <c r="U122" s="2" t="s">
         <v>2350</v>
       </c>
-      <c r="U122" s="2" t="s">
+      <c r="V122" s="2" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>762</v>
       </c>
@@ -14058,23 +14555,23 @@
       <c r="L123" s="2" t="s">
         <v>1987</v>
       </c>
-      <c r="N123" s="2" t="s">
+      <c r="O123" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="O123" s="2" t="s">
+      <c r="P123" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q123" s="2" t="s">
+      <c r="R123" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="T123" s="2" t="s">
+      <c r="U123" s="2" t="s">
         <v>2351</v>
       </c>
-      <c r="U123" s="2" t="s">
+      <c r="V123" s="2" t="s">
         <v>2411</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>768</v>
       </c>
@@ -14105,23 +14602,23 @@
       <c r="L124" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="N124" s="2" t="s">
+      <c r="O124" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="O124" s="2" t="s">
+      <c r="P124" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q124" s="2" t="s">
+      <c r="R124" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="T124" s="2" t="s">
+      <c r="U124" s="2" t="s">
         <v>2352</v>
       </c>
-      <c r="U124" s="2" t="s">
+      <c r="V124" s="2" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>774</v>
       </c>
@@ -14159,31 +14656,34 @@
         <v>2157</v>
       </c>
       <c r="M125" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="N125" s="2" t="s">
         <v>2185</v>
       </c>
-      <c r="N125" s="2" t="s">
+      <c r="O125" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="O125" s="2" t="s">
+      <c r="P125" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="Q125" s="2" t="s">
+      <c r="R125" s="2" t="s">
         <v>1873</v>
       </c>
-      <c r="R125" s="2" t="s">
+      <c r="S125" s="2" t="s">
         <v>2078</v>
       </c>
-      <c r="S125" s="2" t="s">
+      <c r="T125" s="2" t="s">
         <v>2126</v>
       </c>
-      <c r="T125" s="2" t="s">
+      <c r="U125" s="2" t="s">
         <v>2353</v>
       </c>
-      <c r="U125" s="2" t="s">
+      <c r="V125" s="2" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>783</v>
       </c>
@@ -14199,14 +14699,14 @@
       <c r="G126" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="N126" s="2" t="s">
+      <c r="O126" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O126" s="2" t="s">
+      <c r="P126" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>1354</v>
       </c>
@@ -14220,7 +14720,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>787</v>
       </c>
@@ -14248,23 +14748,23 @@
       <c r="K128" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="O128" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="O128" s="2" t="s">
+      <c r="P128" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q128" s="2" t="s">
+      <c r="R128" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="T128" s="2" t="s">
+      <c r="U128" s="2" t="s">
         <v>2354</v>
       </c>
-      <c r="U128" s="2" t="s">
+      <c r="V128" s="2" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>793</v>
       </c>
@@ -14295,23 +14795,23 @@
       <c r="L129" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="N129" s="2" t="s">
+      <c r="O129" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="O129" s="2" t="s">
+      <c r="P129" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q129" s="2" t="s">
+      <c r="R129" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="T129" s="2" t="s">
+      <c r="U129" s="2" t="s">
         <v>2355</v>
       </c>
-      <c r="U129" s="2" t="s">
+      <c r="V129" s="2" t="s">
         <v>2415</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>799</v>
       </c>
@@ -14327,14 +14827,14 @@
       <c r="G130" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="N130" s="2" t="s">
+      <c r="O130" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="O130" s="2" t="s">
+      <c r="P130" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>804</v>
       </c>
@@ -14368,29 +14868,32 @@
       <c r="L131" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="M131" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="O131" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="O131" s="2" t="s">
+      <c r="P131" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="P131" s="2" t="s">
+      <c r="Q131" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q131" s="2" t="s">
+      <c r="R131" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="R131" s="2" t="s">
+      <c r="S131" s="2" t="s">
         <v>2079</v>
       </c>
-      <c r="T131" s="2" t="s">
+      <c r="U131" s="2" t="s">
         <v>2356</v>
       </c>
-      <c r="U131" s="2" t="s">
+      <c r="V131" s="2" t="s">
         <v>2416</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>813</v>
       </c>
@@ -14421,23 +14924,26 @@
       <c r="L132" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="N132" s="2" t="s">
+      <c r="M132" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="O132" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="O132" s="2" t="s">
+      <c r="P132" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="Q132" s="2" t="s">
+      <c r="R132" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="T132" s="2" t="s">
+      <c r="U132" s="2" t="s">
         <v>2357</v>
       </c>
-      <c r="U132" s="2" t="s">
+      <c r="V132" s="2" t="s">
         <v>2417</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>818</v>
       </c>
@@ -14468,23 +14974,23 @@
       <c r="L133" s="2" t="s">
         <v>1991</v>
       </c>
-      <c r="N133" s="2" t="s">
+      <c r="O133" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="O133" s="2" t="s">
+      <c r="P133" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q133" s="2" t="s">
+      <c r="R133" s="2" t="s">
         <v>1853</v>
       </c>
-      <c r="T133" s="2" t="s">
+      <c r="U133" s="2" t="s">
         <v>2358</v>
       </c>
-      <c r="U133" s="2" t="s">
+      <c r="V133" s="2" t="s">
         <v>2418</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>824</v>
       </c>
@@ -14521,23 +15027,26 @@
       <c r="L134" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="N134" s="2" t="s">
+      <c r="M134" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="O134" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="O134" s="2" t="s">
+      <c r="P134" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q134" s="2" t="s">
+      <c r="R134" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="T134" s="2" t="s">
+      <c r="U134" s="2" t="s">
         <v>2359</v>
       </c>
-      <c r="U134" s="2" t="s">
+      <c r="V134" s="2" t="s">
         <v>2419</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>832</v>
       </c>
@@ -14565,17 +15074,17 @@
       <c r="K135" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N135" s="2" t="s">
+      <c r="O135" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O135" s="2" t="s">
+      <c r="P135" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q135" s="2" t="s">
+      <c r="R135" s="2" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>837</v>
       </c>
@@ -14603,17 +15112,17 @@
       <c r="K136" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O136" s="2" t="s">
+      <c r="P136" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q136" s="2" t="s">
+      <c r="R136" s="2" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>842</v>
       </c>
@@ -14641,17 +15150,17 @@
       <c r="K137" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N137" s="2" t="s">
+      <c r="O137" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O137" s="2" t="s">
+      <c r="P137" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q137" s="2" t="s">
+      <c r="R137" s="2" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>847</v>
       </c>
@@ -14679,17 +15188,17 @@
       <c r="K138" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N138" s="2" t="s">
+      <c r="O138" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O138" s="2" t="s">
+      <c r="P138" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q138" s="2" t="s">
+      <c r="R138" s="2" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>852</v>
       </c>
@@ -14717,17 +15226,17 @@
       <c r="K139" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N139" s="2" t="s">
+      <c r="O139" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="O139" s="2" t="s">
+      <c r="P139" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q139" s="2" t="s">
+      <c r="R139" s="2" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>858</v>
       </c>
@@ -14755,17 +15264,17 @@
       <c r="K140" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N140" s="2" t="s">
+      <c r="O140" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O140" s="2" t="s">
+      <c r="P140" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q140" s="2" t="s">
+      <c r="R140" s="2" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>863</v>
       </c>
@@ -14796,23 +15305,23 @@
       <c r="L141" s="2" t="s">
         <v>1993</v>
       </c>
-      <c r="N141" s="2" t="s">
+      <c r="O141" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="O141" s="2" t="s">
+      <c r="P141" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="Q141" s="2" t="s">
+      <c r="R141" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="T141" s="2" t="s">
+      <c r="U141" s="2" t="s">
         <v>2360</v>
       </c>
-      <c r="U141" s="2" t="s">
+      <c r="V141" s="2" t="s">
         <v>2420</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>870</v>
       </c>
@@ -14843,23 +15352,23 @@
       <c r="L142" s="2" t="s">
         <v>1994</v>
       </c>
-      <c r="N142" s="2" t="s">
+      <c r="O142" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="O142" s="2" t="s">
+      <c r="P142" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q142" s="2" t="s">
+      <c r="R142" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="T142" s="2" t="s">
+      <c r="U142" s="2" t="s">
         <v>2361</v>
       </c>
-      <c r="U142" s="2" t="s">
+      <c r="V142" s="2" t="s">
         <v>2421</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>876</v>
       </c>
@@ -14887,23 +15396,23 @@
       <c r="L143" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="N143" s="2" t="s">
+      <c r="O143" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="O143" s="2" t="s">
+      <c r="P143" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q143" s="2" t="s">
+      <c r="R143" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="T143" s="2" t="s">
+      <c r="U143" s="2" t="s">
         <v>2362</v>
       </c>
-      <c r="U143" s="2" t="s">
+      <c r="V143" s="2" t="s">
         <v>2422</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>882</v>
       </c>
@@ -14937,26 +15446,29 @@
       <c r="L144" s="2" t="s">
         <v>1996</v>
       </c>
-      <c r="N144" s="2" t="s">
+      <c r="M144" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="O144" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="O144" s="2" t="s">
+      <c r="P144" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="P144" s="2" t="s">
+      <c r="Q144" s="2" t="s">
         <v>2339</v>
       </c>
-      <c r="Q144" s="2" t="s">
+      <c r="R144" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="T144" s="2" t="s">
+      <c r="U144" s="2" t="s">
         <v>2363</v>
       </c>
-      <c r="U144" s="2" t="s">
+      <c r="V144" s="2" t="s">
         <v>2423</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>890</v>
       </c>
@@ -14990,26 +15502,26 @@
       <c r="L145" s="2" t="s">
         <v>1997</v>
       </c>
-      <c r="N145" s="2" t="s">
+      <c r="O145" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="O145" s="2" t="s">
+      <c r="P145" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="Q145" s="2" t="s">
+      <c r="R145" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="R145" s="2" t="s">
+      <c r="S145" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="T145" s="2" t="s">
+      <c r="U145" s="2" t="s">
         <v>2364</v>
       </c>
-      <c r="U145" s="2" t="s">
+      <c r="V145" s="2" t="s">
         <v>2424</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>898</v>
       </c>
@@ -15043,26 +15555,26 @@
       <c r="L146" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="N146" s="2" t="s">
+      <c r="O146" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="O146" s="2" t="s">
+      <c r="P146" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="P146" s="2" t="s">
+      <c r="Q146" s="2" t="s">
         <v>2339</v>
       </c>
-      <c r="Q146" s="2" t="s">
+      <c r="R146" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="T146" s="2" t="s">
+      <c r="U146" s="2" t="s">
         <v>2365</v>
       </c>
-      <c r="U146" s="2" t="s">
+      <c r="V146" s="2" t="s">
         <v>2425</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>906</v>
       </c>
@@ -15096,26 +15608,29 @@
       <c r="L147" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="N147" s="2" t="s">
+      <c r="M147" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="O147" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="O147" s="2" t="s">
+      <c r="P147" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="P147" s="2" t="s">
+      <c r="Q147" s="2" t="s">
         <v>2339</v>
       </c>
-      <c r="Q147" s="2" t="s">
+      <c r="R147" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="T147" s="2" t="s">
+      <c r="U147" s="2" t="s">
         <v>2363</v>
       </c>
-      <c r="U147" s="2" t="s">
+      <c r="V147" s="2" t="s">
         <v>2423</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>914</v>
       </c>
@@ -15146,29 +15661,29 @@
       <c r="L148" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="O148" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="O148" s="2" t="s">
+      <c r="P148" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q148" s="2" t="s">
+      <c r="R148" s="2" t="s">
         <v>1886</v>
       </c>
-      <c r="R148" s="2" t="s">
+      <c r="S148" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="S148" s="1" t="s">
+      <c r="T148" s="1" t="s">
         <v>2111</v>
       </c>
-      <c r="T148" s="2" t="s">
+      <c r="U148" s="2" t="s">
         <v>2315</v>
       </c>
-      <c r="U148" s="2" t="s">
+      <c r="V148" s="2" t="s">
         <v>2426</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>919</v>
       </c>
@@ -15199,23 +15714,23 @@
       <c r="L149" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="N149" s="2" t="s">
+      <c r="O149" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="O149" s="2" t="s">
+      <c r="P149" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q149" s="2" t="s">
+      <c r="R149" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="T149" s="2" t="s">
+      <c r="U149" s="2" t="s">
         <v>2366</v>
       </c>
-      <c r="U149" s="2" t="s">
+      <c r="V149" s="2" t="s">
         <v>2427</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>925</v>
       </c>
@@ -15243,17 +15758,17 @@
       <c r="K150" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N150" s="2" t="s">
+      <c r="O150" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O150" s="2" t="s">
+      <c r="P150" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q150" s="2" t="s">
+      <c r="R150" s="2" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>930</v>
       </c>
@@ -15281,17 +15796,17 @@
       <c r="K151" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N151" s="2" t="s">
+      <c r="O151" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="O151" s="2" t="s">
+      <c r="P151" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q151" s="2" t="s">
+      <c r="R151" s="2" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>935</v>
       </c>
@@ -15322,17 +15837,17 @@
       <c r="L152" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="N152" s="2" t="s">
+      <c r="O152" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="O152" s="2" t="s">
+      <c r="P152" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="Q152" s="2" t="s">
+      <c r="R152" s="2" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>942</v>
       </c>
@@ -15363,26 +15878,29 @@
       <c r="L153" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="N153" s="2" t="s">
+      <c r="M153" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O153" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="O153" s="2" t="s">
+      <c r="P153" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P153" s="2" t="s">
+      <c r="Q153" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q153" s="2" t="s">
+      <c r="R153" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="T153" s="2" t="s">
+      <c r="U153" s="2" t="s">
         <v>2367</v>
       </c>
-      <c r="U153" s="2" t="s">
+      <c r="V153" s="2" t="s">
         <v>2428</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>948</v>
       </c>
@@ -15413,26 +15931,29 @@
       <c r="L154" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="N154" s="2" t="s">
+      <c r="M154" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O154" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="O154" s="2" t="s">
+      <c r="P154" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P154" s="2" t="s">
+      <c r="Q154" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q154" s="2" t="s">
+      <c r="R154" s="2" t="s">
         <v>1779</v>
       </c>
-      <c r="T154" s="2" t="s">
+      <c r="U154" s="2" t="s">
         <v>2368</v>
       </c>
-      <c r="U154" s="2" t="s">
+      <c r="V154" s="2" t="s">
         <v>2429</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>954</v>
       </c>
@@ -15466,23 +15987,26 @@
       <c r="L155" s="2" t="s">
         <v>2005</v>
       </c>
-      <c r="N155" s="2" t="s">
+      <c r="M155" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O155" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="O155" s="2" t="s">
+      <c r="P155" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="Q155" s="2" t="s">
+      <c r="R155" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="T155" s="2" t="s">
+      <c r="U155" s="2" t="s">
         <v>2368</v>
       </c>
-      <c r="U155" s="2" t="s">
+      <c r="V155" s="2" t="s">
         <v>2429</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>962</v>
       </c>
@@ -15513,26 +16037,26 @@
       <c r="L156" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="N156" s="2" t="s">
+      <c r="O156" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="O156" s="2" t="s">
+      <c r="P156" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="P156" s="2" t="s">
+      <c r="Q156" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Q156" s="2" t="s">
+      <c r="R156" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="T156" s="2" t="s">
+      <c r="U156" s="2" t="s">
         <v>2369</v>
       </c>
-      <c r="U156" s="2" t="s">
+      <c r="V156" s="2" t="s">
         <v>2430</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>969</v>
       </c>
@@ -15570,31 +16094,34 @@
         <v>2158</v>
       </c>
       <c r="M157" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="N157" s="2" t="s">
         <v>2186</v>
       </c>
-      <c r="N157" s="2" t="s">
+      <c r="O157" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="O157" s="2" t="s">
+      <c r="P157" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="Q157" s="2" t="s">
+      <c r="R157" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="R157" s="2" t="s">
+      <c r="S157" s="2" t="s">
         <v>2082</v>
       </c>
-      <c r="S157" s="2" t="s">
+      <c r="T157" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="T157" s="2" t="s">
+      <c r="U157" s="2" t="s">
         <v>2370</v>
       </c>
-      <c r="U157" s="2" t="s">
+      <c r="V157" s="2" t="s">
         <v>2431</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>978</v>
       </c>
@@ -15625,23 +16152,26 @@
       <c r="L158" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="N158" s="2" t="s">
+      <c r="M158" s="2" t="s">
+        <v>2506</v>
+      </c>
+      <c r="O158" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="O158" s="2" t="s">
+      <c r="P158" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q158" s="2" t="s">
+      <c r="R158" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="T158" s="2" t="s">
+      <c r="U158" s="2" t="s">
         <v>2371</v>
       </c>
-      <c r="U158" s="2" t="s">
+      <c r="V158" s="2" t="s">
         <v>2432</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>984</v>
       </c>
@@ -15669,17 +16199,17 @@
       <c r="K159" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N159" s="2" t="s">
+      <c r="O159" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="O159" s="2" t="s">
+      <c r="P159" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q159" s="2" t="s">
+      <c r="R159" s="2" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>990</v>
       </c>
@@ -15710,17 +16240,20 @@
       <c r="L160" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="M160" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O160" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O160" s="2" t="s">
+      <c r="P160" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q160" s="2" t="s">
+      <c r="R160" s="2" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>995</v>
       </c>
@@ -15754,26 +16287,29 @@
       <c r="L161" s="2" t="s">
         <v>2009</v>
       </c>
-      <c r="N161" s="2" t="s">
+      <c r="M161" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O161" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="O161" s="2" t="s">
+      <c r="P161" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="P161" s="2" t="s">
+      <c r="Q161" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q161" s="2" t="s">
+      <c r="R161" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="T161" s="2" t="s">
+      <c r="U161" s="2" t="s">
         <v>2372</v>
       </c>
-      <c r="U161" s="2" t="s">
+      <c r="V161" s="2" t="s">
         <v>2468</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>1003</v>
       </c>
@@ -15807,26 +16343,29 @@
       <c r="L162" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="N162" s="2" t="s">
+      <c r="M162" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="O162" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="O162" s="2" t="s">
+      <c r="P162" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="P162" s="2" t="s">
+      <c r="Q162" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q162" s="2" t="s">
+      <c r="R162" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="T162" s="2" t="s">
+      <c r="U162" s="2" t="s">
         <v>2372</v>
       </c>
-      <c r="U162" s="2" t="s">
+      <c r="V162" s="2" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>1011</v>
       </c>
@@ -15860,26 +16399,29 @@
       <c r="L163" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="N163" s="2" t="s">
+      <c r="M163" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="O163" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="O163" s="2" t="s">
+      <c r="P163" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="P163" s="2" t="s">
+      <c r="Q163" s="2" t="s">
         <v>2339</v>
       </c>
-      <c r="Q163" s="2" t="s">
+      <c r="R163" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="T163" s="2" t="s">
+      <c r="U163" s="2" t="s">
         <v>2469</v>
       </c>
-      <c r="U163" s="2" t="s">
+      <c r="V163" s="2" t="s">
         <v>2470</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>1019</v>
       </c>
@@ -15910,26 +16452,29 @@
       <c r="L164" s="2" t="s">
         <v>2012</v>
       </c>
-      <c r="N164" s="2" t="s">
+      <c r="M164" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="O164" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="O164" s="2" t="s">
+      <c r="P164" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q164" s="2" t="s">
+      <c r="R164" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="R164" s="2" t="s">
+      <c r="S164" s="2" t="s">
         <v>2083</v>
       </c>
-      <c r="T164" s="2" t="s">
+      <c r="U164" s="2" t="s">
         <v>2373</v>
       </c>
-      <c r="U164" s="2" t="s">
+      <c r="V164" s="2" t="s">
         <v>2434</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>1025</v>
       </c>
@@ -15960,20 +16505,23 @@
       <c r="L165" s="2" t="s">
         <v>2013</v>
       </c>
-      <c r="N165" s="2" t="s">
+      <c r="M165" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="O165" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="O165" s="2" t="s">
+      <c r="P165" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P165" s="2" t="s">
+      <c r="Q165" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q165" s="2" t="s">
+      <c r="R165" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>1031</v>
       </c>
@@ -16004,20 +16552,23 @@
       <c r="L166" s="2" t="s">
         <v>2014</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="M166" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="O166" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="O166" s="2" t="s">
+      <c r="P166" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P166" s="2" t="s">
+      <c r="Q166" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q166" s="2" t="s">
+      <c r="R166" s="2" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>1036</v>
       </c>
@@ -16048,23 +16599,26 @@
       <c r="L167" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="M167" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="O167" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="O167" s="2" t="s">
+      <c r="P167" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="Q167" s="2" t="s">
+      <c r="R167" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="T167" s="2" t="s">
+      <c r="U167" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="U167" s="2" t="s">
+      <c r="V167" s="2" t="s">
         <v>2435</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>1043</v>
       </c>
@@ -16095,26 +16649,26 @@
       <c r="L168" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="N168" s="2" t="s">
+      <c r="O168" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="O168" s="2" t="s">
+      <c r="P168" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P168" s="2" t="s">
+      <c r="Q168" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q168" s="2" t="s">
+      <c r="R168" s="2" t="s">
         <v>1841</v>
       </c>
-      <c r="T168" s="2" t="s">
+      <c r="U168" s="2" t="s">
         <v>2374</v>
       </c>
-      <c r="U168" s="2" t="s">
+      <c r="V168" s="2" t="s">
         <v>2436</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>1049</v>
       </c>
@@ -16148,26 +16702,29 @@
       <c r="L169" s="2" t="s">
         <v>2017</v>
       </c>
-      <c r="N169" s="2" t="s">
+      <c r="M169" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="O169" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="O169" s="2" t="s">
+      <c r="P169" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="P169" s="2" t="s">
+      <c r="Q169" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q169" s="2" t="s">
+      <c r="R169" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="T169" s="2" t="s">
+      <c r="U169" s="2" t="s">
         <v>2375</v>
       </c>
-      <c r="U169" s="2" t="s">
+      <c r="V169" s="2" t="s">
         <v>2437</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>1057</v>
       </c>
@@ -16202,34 +16759,37 @@
         <v>2159</v>
       </c>
       <c r="M170" s="2" t="s">
+        <v>2510</v>
+      </c>
+      <c r="N170" s="2" t="s">
         <v>2187</v>
       </c>
-      <c r="N170" s="2" t="s">
+      <c r="O170" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="O170" s="2" t="s">
+      <c r="P170" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="P170" s="2" t="s">
+      <c r="Q170" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Q170" s="2" t="s">
+      <c r="R170" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="R170" s="2" t="s">
+      <c r="S170" s="2" t="s">
         <v>2084</v>
       </c>
-      <c r="S170" s="2" t="s">
+      <c r="T170" s="2" t="s">
         <v>2128</v>
       </c>
-      <c r="T170" s="2" t="s">
+      <c r="U170" s="2" t="s">
         <v>2376</v>
       </c>
-      <c r="U170" s="2" t="s">
+      <c r="V170" s="2" t="s">
         <v>2438</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>1065</v>
       </c>
@@ -16257,17 +16817,17 @@
       <c r="K171" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N171" s="2" t="s">
+      <c r="O171" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="O171" s="2" t="s">
+      <c r="P171" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q171" s="2" t="s">
+      <c r="R171" s="2" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>1071</v>
       </c>
@@ -16298,26 +16858,26 @@
       <c r="L172" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="N172" s="2" t="s">
+      <c r="O172" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="O172" s="2" t="s">
+      <c r="P172" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q172" s="2" t="s">
+      <c r="R172" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="R172" s="2" t="s">
+      <c r="S172" s="2" t="s">
         <v>2085</v>
       </c>
-      <c r="T172" s="2" t="s">
+      <c r="U172" s="2" t="s">
         <v>2377</v>
       </c>
-      <c r="U172" s="2" t="s">
+      <c r="V172" s="2" t="s">
         <v>2439</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1077</v>
       </c>
@@ -16348,23 +16908,26 @@
       <c r="L173" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="N173" s="2" t="s">
+      <c r="M173" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="O173" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="O173" s="2" t="s">
+      <c r="P173" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q173" s="2" t="s">
+      <c r="R173" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="T173" s="2" t="s">
+      <c r="U173" s="2" t="s">
         <v>2378</v>
       </c>
-      <c r="U173" s="2" t="s">
+      <c r="V173" s="2" t="s">
         <v>2440</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>1082</v>
       </c>
@@ -16392,17 +16955,17 @@
       <c r="K174" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="O174" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O174" s="2" t="s">
+      <c r="P174" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q174" s="2" t="s">
+      <c r="R174" s="2" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>1087</v>
       </c>
@@ -16433,26 +16996,26 @@
       <c r="L175" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="N175" s="2" t="s">
+      <c r="O175" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="O175" s="2" t="s">
+      <c r="P175" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P175" s="2" t="s">
+      <c r="Q175" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q175" s="2" t="s">
+      <c r="R175" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="T175" s="2" t="s">
+      <c r="U175" s="2" t="s">
         <v>2379</v>
       </c>
-      <c r="U175" s="2" t="s">
+      <c r="V175" s="2" t="s">
         <v>2441</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>1093</v>
       </c>
@@ -16483,26 +17046,26 @@
       <c r="L176" s="2" t="s">
         <v>2020</v>
       </c>
-      <c r="N176" s="2" t="s">
+      <c r="O176" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="O176" s="2" t="s">
+      <c r="P176" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P176" s="2" t="s">
+      <c r="Q176" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q176" s="2" t="s">
+      <c r="R176" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="T176" s="2" t="s">
+      <c r="U176" s="2" t="s">
         <v>2380</v>
       </c>
-      <c r="U176" s="2" t="s">
+      <c r="V176" s="2" t="s">
         <v>2442</v>
       </c>
     </row>
-    <row r="177" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>1099</v>
       </c>
@@ -16530,23 +17093,23 @@
       <c r="K177" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N177" s="2" t="s">
+      <c r="O177" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="O177" s="2" t="s">
+      <c r="P177" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="Q177" s="2" t="s">
+      <c r="R177" s="2" t="s">
         <v>1918</v>
       </c>
-      <c r="T177" s="2" t="s">
+      <c r="U177" s="2" t="s">
         <v>2381</v>
       </c>
-      <c r="U177" s="2" t="s">
+      <c r="V177" s="2" t="s">
         <v>2443</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>1106</v>
       </c>
@@ -16574,17 +17137,17 @@
       <c r="K178" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N178" s="2" t="s">
+      <c r="O178" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="O178" s="2" t="s">
+      <c r="P178" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q178" s="2" t="s">
+      <c r="R178" s="2" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>1112</v>
       </c>
@@ -16618,23 +17181,23 @@
       <c r="L179" s="2" t="s">
         <v>2021</v>
       </c>
-      <c r="N179" s="2" t="s">
+      <c r="O179" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="O179" s="2" t="s">
+      <c r="P179" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="Q179" s="2" t="s">
+      <c r="R179" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="T179" s="2" t="s">
+      <c r="U179" s="2" t="s">
         <v>2382</v>
       </c>
-      <c r="U179" s="2" t="s">
+      <c r="V179" s="2" t="s">
         <v>2444</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>1120</v>
       </c>
@@ -16672,31 +17235,34 @@
         <v>2160</v>
       </c>
       <c r="M180" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="N180" s="2" t="s">
         <v>2188</v>
       </c>
-      <c r="N180" s="2" t="s">
+      <c r="O180" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="O180" s="2" t="s">
+      <c r="P180" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="Q180" s="2" t="s">
+      <c r="R180" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="R180" s="2" t="s">
+      <c r="S180" s="2" t="s">
         <v>2086</v>
       </c>
-      <c r="S180" s="2" t="s">
+      <c r="T180" s="2" t="s">
         <v>2129</v>
       </c>
-      <c r="T180" s="2" t="s">
+      <c r="U180" s="2" t="s">
         <v>2383</v>
       </c>
-      <c r="U180" s="2" t="s">
+      <c r="V180" s="2" t="s">
         <v>2445</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>1129</v>
       </c>
@@ -16728,28 +17294,31 @@
         <v>2161</v>
       </c>
       <c r="M181" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="N181" s="2" t="s">
         <v>2189</v>
       </c>
-      <c r="N181" s="2" t="s">
+      <c r="O181" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="O181" s="2" t="s">
+      <c r="P181" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="Q181" s="2" t="s">
+      <c r="R181" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="R181" s="2" t="s">
+      <c r="S181" s="2" t="s">
         <v>2087</v>
       </c>
-      <c r="T181" s="2" t="s">
+      <c r="U181" s="2" t="s">
         <v>2384</v>
       </c>
-      <c r="U181" s="2" t="s">
+      <c r="V181" s="2" t="s">
         <v>2446</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>1136</v>
       </c>
@@ -16784,31 +17353,34 @@
         <v>2162</v>
       </c>
       <c r="M182" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="N182" s="2" t="s">
         <v>2190</v>
       </c>
-      <c r="N182" s="2" t="s">
+      <c r="O182" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="O182" s="2" t="s">
+      <c r="P182" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="Q182" s="2" t="s">
+      <c r="R182" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="R182" s="2" t="s">
+      <c r="S182" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="S182" s="2" t="s">
+      <c r="T182" s="2" t="s">
         <v>2130</v>
       </c>
-      <c r="T182" s="2" t="s">
+      <c r="U182" s="2" t="s">
         <v>2385</v>
       </c>
-      <c r="U182" s="2" t="s">
+      <c r="V182" s="2" t="s">
         <v>2447</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>1144</v>
       </c>
@@ -16843,31 +17415,34 @@
         <v>2163</v>
       </c>
       <c r="M183" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="N183" s="2" t="s">
         <v>2189</v>
       </c>
-      <c r="N183" s="2" t="s">
+      <c r="O183" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="O183" s="2" t="s">
+      <c r="P183" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="P183" s="2" t="s">
+      <c r="Q183" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Q183" s="2" t="s">
+      <c r="R183" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="R183" s="2" t="s">
+      <c r="S183" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="T183" s="2" t="s">
+      <c r="U183" s="2" t="s">
         <v>2386</v>
       </c>
-      <c r="U183" s="2" t="s">
+      <c r="V183" s="2" t="s">
         <v>2448</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>1152</v>
       </c>
@@ -16898,23 +17473,26 @@
       <c r="L184" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="N184" s="2" t="s">
+      <c r="M184" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="O184" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="O184" s="2" t="s">
+      <c r="P184" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q184" s="2" t="s">
+      <c r="R184" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="T184" s="2" t="s">
+      <c r="U184" s="2" t="s">
         <v>2387</v>
       </c>
-      <c r="U184" s="2" t="s">
+      <c r="V184" s="2" t="s">
         <v>2449</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>1158</v>
       </c>
@@ -16945,29 +17523,32 @@
       <c r="L185" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="N185" s="2" t="s">
+      <c r="M185" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="O185" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="O185" s="2" t="s">
+      <c r="P185" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P185" s="2" t="s">
+      <c r="Q185" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q185" s="2" t="s">
+      <c r="R185" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="R185" s="2" t="s">
+      <c r="S185" s="2" t="s">
         <v>2090</v>
       </c>
-      <c r="T185" s="2" t="s">
+      <c r="U185" s="2" t="s">
         <v>2388</v>
       </c>
-      <c r="U185" s="2" t="s">
+      <c r="V185" s="2" t="s">
         <v>2450</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>1164</v>
       </c>
@@ -16998,20 +17579,23 @@
       <c r="L186" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="N186" s="2" t="s">
+      <c r="M186" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="O186" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="O186" s="2" t="s">
+      <c r="P186" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P186" s="2" t="s">
+      <c r="Q186" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q186" s="2" t="s">
+      <c r="R186" s="2" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>1170</v>
       </c>
@@ -17042,20 +17626,23 @@
       <c r="L187" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="N187" s="2" t="s">
+      <c r="M187" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="O187" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O187" s="2" t="s">
+      <c r="P187" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="P187" s="2" t="s">
+      <c r="Q187" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q187" s="2" t="s">
+      <c r="R187" s="2" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>1357</v>
       </c>
@@ -17069,7 +17656,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>1176</v>
       </c>
@@ -17104,31 +17691,34 @@
         <v>2164</v>
       </c>
       <c r="M189" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="N189" s="2" t="s">
         <v>2191</v>
       </c>
-      <c r="N189" s="2" t="s">
+      <c r="O189" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="O189" s="2" t="s">
+      <c r="P189" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="Q189" s="2" t="s">
+      <c r="R189" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="R189" s="2" t="s">
+      <c r="S189" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="S189" s="2" t="s">
+      <c r="T189" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="T189" s="2" t="s">
+      <c r="U189" s="2" t="s">
         <v>2389</v>
       </c>
-      <c r="U189" s="2" t="s">
+      <c r="V189" s="2" t="s">
         <v>2451</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>1184</v>
       </c>
@@ -17162,29 +17752,32 @@
       <c r="L190" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="N190" s="2" t="s">
+      <c r="M190" s="2" t="s">
+        <v>2513</v>
+      </c>
+      <c r="O190" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="O190" s="2" t="s">
+      <c r="P190" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q190" s="2" t="s">
+      <c r="R190" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="R190" s="2" t="s">
+      <c r="S190" s="2" t="s">
         <v>2092</v>
       </c>
-      <c r="S190" s="2" t="s">
+      <c r="T190" s="2" t="s">
         <v>2112</v>
       </c>
-      <c r="T190" s="2" t="s">
+      <c r="U190" s="2" t="s">
         <v>2390</v>
       </c>
-      <c r="U190" s="2" t="s">
+      <c r="V190" s="2" t="s">
         <v>2452</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>1191</v>
       </c>
@@ -17215,29 +17808,32 @@
       <c r="L191" s="2" t="s">
         <v>2027</v>
       </c>
-      <c r="N191" s="2" t="s">
+      <c r="M191" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="O191" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="O191" s="2" t="s">
+      <c r="P191" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="P191" s="2" t="s">
+      <c r="Q191" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Q191" s="2" t="s">
+      <c r="R191" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="R191" s="2" t="s">
+      <c r="S191" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="T191" s="2" t="s">
+      <c r="U191" s="2" t="s">
         <v>2391</v>
       </c>
-      <c r="U191" s="2" t="s">
+      <c r="V191" s="2" t="s">
         <v>2453</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>1198</v>
       </c>
@@ -17265,17 +17861,17 @@
       <c r="K192" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="N192" s="2" t="s">
+      <c r="O192" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="O192" s="2" t="s">
+      <c r="P192" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q192" s="2" t="s">
+      <c r="R192" s="2" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17306,29 +17902,32 @@
       <c r="L193" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="N193" s="2" t="s">
+      <c r="M193" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="O193" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="O193" s="2" t="s">
+      <c r="P193" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="P193" s="2" t="s">
+      <c r="Q193" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="Q193" s="2" t="s">
+      <c r="R193" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="R193" s="2" t="s">
+      <c r="S193" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="T193" s="2" t="s">
+      <c r="U193" s="2" t="s">
         <v>2392</v>
       </c>
-      <c r="U193" s="2" t="s">
+      <c r="V193" s="2" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>1210</v>
       </c>
@@ -17359,26 +17958,26 @@
       <c r="L194" s="2" t="s">
         <v>2029</v>
       </c>
-      <c r="N194" s="2" t="s">
+      <c r="O194" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="O194" s="2" t="s">
+      <c r="P194" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="P194" s="2" t="s">
+      <c r="Q194" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q194" s="2" t="s">
+      <c r="R194" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="T194" s="2" t="s">
+      <c r="U194" s="2" t="s">
         <v>2393</v>
       </c>
-      <c r="U194" s="2" t="s">
+      <c r="V194" s="2" t="s">
         <v>2455</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>1217</v>
       </c>
@@ -17406,17 +18005,17 @@
       <c r="K195" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N195" s="2" t="s">
+      <c r="O195" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="O195" s="2" t="s">
+      <c r="P195" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="Q195" s="2" t="s">
+      <c r="R195" s="2" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>1224</v>
       </c>
@@ -17444,17 +18043,17 @@
       <c r="K196" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N196" s="2" t="s">
+      <c r="O196" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O196" s="2" t="s">
+      <c r="P196" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q196" s="2" t="s">
+      <c r="R196" s="2" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>1229</v>
       </c>
@@ -17482,23 +18081,23 @@
       <c r="K197" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="N197" s="2" t="s">
+      <c r="O197" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O197" s="2" t="s">
+      <c r="P197" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q197" s="2" t="s">
+      <c r="R197" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="T197" s="2" t="s">
+      <c r="U197" s="2" t="s">
         <v>2471</v>
       </c>
-      <c r="U197" s="2" t="s">
+      <c r="V197" s="2" t="s">
         <v>2456</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>1234</v>
       </c>
@@ -17526,17 +18125,17 @@
       <c r="K198" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N198" s="2" t="s">
+      <c r="O198" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O198" s="2" t="s">
+      <c r="P198" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q198" s="2" t="s">
+      <c r="R198" s="2" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>1239</v>
       </c>
@@ -17564,17 +18163,17 @@
       <c r="K199" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N199" s="2" t="s">
+      <c r="O199" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O199" s="2" t="s">
+      <c r="P199" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="Q199" s="2" t="s">
+      <c r="R199" s="2" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>1244</v>
       </c>
@@ -17605,26 +18204,26 @@
       <c r="L200" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="N200" s="2" t="s">
+      <c r="O200" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="O200" s="2" t="s">
+      <c r="P200" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P200" s="2" t="s">
+      <c r="Q200" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="Q200" s="2" t="s">
+      <c r="R200" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="T200" s="2" t="s">
+      <c r="U200" s="2" t="s">
         <v>2472</v>
       </c>
-      <c r="U200" s="2" t="s">
+      <c r="V200" s="2" t="s">
         <v>2457</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>1250</v>
       </c>
@@ -17661,29 +18260,32 @@
       <c r="L201" s="2" t="s">
         <v>2031</v>
       </c>
-      <c r="N201" s="2" t="s">
+      <c r="M201" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="O201" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="O201" s="2" t="s">
+      <c r="P201" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="Q201" s="2" t="s">
+      <c r="R201" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="R201" s="2" t="s">
+      <c r="S201" s="2" t="s">
         <v>2095</v>
       </c>
-      <c r="S201" s="2" t="s">
+      <c r="T201" s="2" t="s">
         <v>2132</v>
       </c>
-      <c r="T201" s="2" t="s">
+      <c r="U201" s="2" t="s">
         <v>2394</v>
       </c>
-      <c r="U201" s="2" t="s">
+      <c r="V201" s="2" t="s">
         <v>2458</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>1259</v>
       </c>
@@ -17711,23 +18313,23 @@
       <c r="K202" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="N202" s="2" t="s">
+      <c r="O202" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="O202" s="2" t="s">
+      <c r="P202" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q202" s="2" t="s">
+      <c r="R202" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="T202" s="2" t="s">
+      <c r="U202" s="2" t="s">
         <v>2395</v>
       </c>
-      <c r="U202" s="2" t="s">
+      <c r="V202" s="2" t="s">
         <v>2459</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>1265</v>
       </c>
@@ -17755,23 +18357,23 @@
       <c r="K203" s="2" t="s">
         <v>2043</v>
       </c>
-      <c r="N203" s="2" t="s">
+      <c r="O203" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="O203" s="2" t="s">
+      <c r="P203" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q203" s="2" t="s">
+      <c r="R203" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="T203" s="2" t="s">
+      <c r="U203" s="2" t="s">
         <v>2396</v>
       </c>
-      <c r="U203" s="2" t="s">
+      <c r="V203" s="2" t="s">
         <v>2460</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>1271</v>
       </c>
@@ -17805,26 +18407,29 @@
       <c r="L204" s="2" t="s">
         <v>2032</v>
       </c>
-      <c r="N204" s="2" t="s">
+      <c r="M204" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="O204" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="O204" s="2" t="s">
+      <c r="P204" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="Q204" s="2" t="s">
+      <c r="R204" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="S204" s="2" t="s">
+      <c r="T204" s="2" t="s">
         <v>2133</v>
       </c>
-      <c r="T204" s="2" t="s">
+      <c r="U204" s="2" t="s">
         <v>2397</v>
       </c>
-      <c r="U204" s="2" t="s">
+      <c r="V204" s="2" t="s">
         <v>2461</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>1279</v>
       </c>
@@ -17858,32 +18463,35 @@
       <c r="L205" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="N205" s="2" t="s">
+      <c r="M205" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="O205" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="O205" s="2" t="s">
+      <c r="P205" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P205" s="2" t="s">
+      <c r="Q205" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="Q205" s="2" t="s">
+      <c r="R205" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="R205" s="2" t="s">
+      <c r="S205" s="2" t="s">
         <v>2096</v>
       </c>
-      <c r="S205" s="2" t="s">
+      <c r="T205" s="2" t="s">
         <v>2134</v>
       </c>
-      <c r="T205" s="2" t="s">
+      <c r="U205" s="2" t="s">
         <v>2398</v>
       </c>
-      <c r="U205" s="2" t="s">
+      <c r="V205" s="2" t="s">
         <v>2462</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>1286</v>
       </c>
@@ -17911,23 +18519,23 @@
       <c r="K206" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="N206" s="2" t="s">
+      <c r="O206" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O206" s="2" t="s">
+      <c r="P206" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q206" s="2" t="s">
+      <c r="R206" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="T206" s="2" t="s">
+      <c r="U206" s="2" t="s">
         <v>2399</v>
       </c>
-      <c r="U206" s="2" t="s">
+      <c r="V206" s="2" t="s">
         <v>2463</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>1291</v>
       </c>
@@ -17958,23 +18566,23 @@
       <c r="L207" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="N207" s="2" t="s">
+      <c r="O207" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="O207" s="2" t="s">
+      <c r="P207" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q207" s="2" t="s">
+      <c r="R207" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="T207" s="2" t="s">
+      <c r="U207" s="2" t="s">
         <v>2400</v>
       </c>
-      <c r="U207" s="2" t="s">
+      <c r="V207" s="2" t="s">
         <v>2464</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>1360</v>
       </c>
@@ -17988,7 +18596,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1297</v>
       </c>
@@ -18025,29 +18633,32 @@
       <c r="L209" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="N209" s="2" t="s">
+      <c r="M209" s="2" t="s">
+        <v>2480</v>
+      </c>
+      <c r="O209" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="O209" s="2" t="s">
+      <c r="P209" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="Q209" s="2" t="s">
+      <c r="R209" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="R209" s="2" t="s">
+      <c r="S209" s="2" t="s">
         <v>2097</v>
       </c>
-      <c r="S209" s="1" t="s">
+      <c r="T209" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="T209" s="2" t="s">
+      <c r="U209" s="2" t="s">
         <v>2401</v>
       </c>
-      <c r="U209" s="2" t="s">
+      <c r="V209" s="2" t="s">
         <v>2465</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>1306</v>
       </c>
@@ -18081,26 +18692,29 @@
       <c r="L210" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="N210" s="2" t="s">
+      <c r="M210" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="O210" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="O210" s="2" t="s">
+      <c r="P210" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="Q210" s="2" t="s">
+      <c r="R210" s="2" t="s">
         <v>1821</v>
       </c>
-      <c r="S210" s="2" t="s">
+      <c r="T210" s="2" t="s">
         <v>2135</v>
       </c>
-      <c r="T210" s="2" t="s">
+      <c r="U210" s="2" t="s">
         <v>2402</v>
       </c>
-      <c r="U210" s="2" t="s">
+      <c r="V210" s="2" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>1314</v>
       </c>
@@ -18138,31 +18752,34 @@
         <v>2165</v>
       </c>
       <c r="M211" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="N211" s="2" t="s">
         <v>2192</v>
       </c>
-      <c r="N211" s="2" t="s">
+      <c r="O211" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="O211" s="2" t="s">
+      <c r="P211" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="Q211" s="2" t="s">
+      <c r="R211" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="R211" s="2" t="s">
+      <c r="S211" s="2" t="s">
         <v>2098</v>
       </c>
-      <c r="S211" s="2" t="s">
+      <c r="T211" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="T211" s="2" t="s">
+      <c r="U211" s="2" t="s">
         <v>2403</v>
       </c>
-      <c r="U211" s="2" t="s">
+      <c r="V211" s="2" t="s">
         <v>2467</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>1327</v>
       </c>
@@ -18172,14 +18789,17 @@
       <c r="D212" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="N212" s="2" t="s">
+      <c r="M212" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O212" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="P212" s="2" t="s">
+      <c r="Q212" s="2" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>1331</v>
       </c>
@@ -18189,14 +18809,17 @@
       <c r="D213" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="N213" s="2" t="s">
+      <c r="M213" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O213" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="P213" s="2" t="s">
+      <c r="Q213" s="2" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="214" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>1335</v>
       </c>
@@ -18206,14 +18829,17 @@
       <c r="D214" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="N214" s="2" t="s">
+      <c r="M214" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O214" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="P214" s="2" t="s">
+      <c r="Q214" s="2" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>1339</v>
       </c>
@@ -18223,10 +18849,13 @@
       <c r="D215" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="N215" s="2" t="s">
+      <c r="M215" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O215" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="P215" s="2" t="s">
+      <c r="Q215" s="2" t="s">
         <v>1733</v>
       </c>
     </row>

--- a/res/excel/FINAL.xlsx
+++ b/res/excel/FINAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="2519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="2699">
   <si>
     <t>locus</t>
   </si>
@@ -7864,6 +7864,546 @@
   </si>
   <si>
     <t>KEGG  Pathway</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:256535', 'CDD:273037', 'CDD:99707', 'CDD:99707', 'CDD:99707', 'CDD:99707', 'CDD:99707', 'CDD:119330', 'CDD:119330'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235541', 'CDD:238082', 'CDD:238082', 'CDD:238082', 'CDD:238082', 'CDD:238082'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235469', 'CDD:257492', 'CDD:251338', 'CDD:197262', 'CDD:197262', 'CDD:197262', 'CDD:197262', 'CDD:197265', 'CDD:197265', 'CDD:197265', 'CDD:197265'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:234743', 'CDD:173906', 'CDD:173906', 'CDD:257918', 'CDD:275460', 'CDD:173912', 'CDD:173912', 'CDD:153412', 'CDD:153412'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:225495', 'CDD:238045', 'CDD:238045', 'CDD:238045', 'CDD:238045'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:252199'</t>
+  </si>
+  <si>
+    <t>'CDD:238190', 'CDD:238190', 'CDD:238190', 'CDD:238190'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:224867'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:225316', 'CDD:100107', 'CDD:100107'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238786', 'CDD:238786'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:227114', 'CDD:238657', 'CDD:238657', 'CDD:238657'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223734'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223687', 'CDD:238560', 'CDD:238560'</t>
+  </si>
+  <si>
+    <t>'CDD:225117', 'CDD:249644'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:224422', 'CDD:249771'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:273856', 'CDD:239770', 'CDD:239770', 'CDD:239770', 'CDD:239770', 'CDD:173926', 'CDD:173926'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:264474'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:206754', 'CDD:206754'</t>
+  </si>
+  <si>
+    <t>'CDD:275600', 'CDD:198424'</t>
+  </si>
+  <si>
+    <t>'CDD:223532', 'CDD:173926', 'CDD:173926', 'CDD:276195'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:224135', 'CDD:250152'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:255039'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238477', 'CDD:238477', 'CDD:238477', 'CDD:238477', 'CDD:238477'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:227307', 'CDD:145844', 'CDD:271179', 'CDD:271179'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235470', 'CDD:238965', 'CDD:238965', 'CDD:132916', 'CDD:132916', 'CDD:132916', 'CDD:132916', 'CDD:251527'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:237673', 'CDD:250224', 'CDD:100105', 'CDD:100105', 'CDD:110897'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:234607', 'CDD:99735', 'CDD:99735', 'CDD:99735', 'CDD:99735'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:99838', 'CDD:99838', 'CDD:99838', 'CDD:99838', 'CDD:99838'</t>
+  </si>
+  <si>
+    <t>'CDD:253677', 'CDD:276194', 'CDD:100107', 'CDD:100107'</t>
+  </si>
+  <si>
+    <t>'CDD:236307', 'CDD:249744', 'CDD:190425', 'CDD:214878'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235777', 'CDD:133459', 'CDD:133459', 'CDD:133459'</t>
+  </si>
+  <si>
+    <t>'CDD:234666'</t>
+  </si>
+  <si>
+    <t>'CDD:235393', 'CDD:249744', 'CDD:190425', 'CDD:198164', 'CDD:249744', 'CDD:276202', 'CDD:238712', 'CDD:238712', 'CDD:238712', 'CDD:238712', 'CDD:238712'</t>
+  </si>
+  <si>
+    <t>'CDD:238509', 'CDD:238509'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:237139', 'CDD:198165', 'CDD:153215', 'CDD:153215', 'CDD:153215'</t>
+  </si>
+  <si>
+    <t>'CDD:225953', 'CDD:253258'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:183270', 'CDD:238994', 'CDD:238994'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:239309', 'CDD:239309'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:188209', 'CDD:197670', 'CDD:238042', 'CDD:238042', 'CDD:238042'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:131349'</t>
+  </si>
+  <si>
+    <t>'CDD:224129', 'CDD:133044', 'CDD:133044', 'CDD:133044'</t>
+  </si>
+  <si>
+    <t>'CDD:238266', 'CDD:238266', 'CDD:238266'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:236583', 'CDD:206687', 'CDD:206687', 'CDD:206687', 'CDD:206687', 'CDD:206687', 'CDD:206687', 'CDD:206687', 'CDD:206687', 'CDD:206687', 'CDD:133440'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:224748', 'CDD:260768', 'CDD:238141'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235645', 'CDD:173902', 'CDD:173902', 'CDD:173902', 'CDD:173902', 'CDD:173902'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:276322'</t>
+  </si>
+  <si>
+    <t>'CDD:235536', 'CDD:185679', 'CDD:185679', 'CDD:214901'</t>
+  </si>
+  <si>
+    <t>'CDD:235588', 'CDD:275460', 'CDD:173912', 'CDD:173912', 'CDD:173912', 'CDD:173909', 'CDD:173909', 'CDD:173909', 'CDD:153414', 'CDD:153414', 'CDD:153414', 'CDD:253933'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:234739'</t>
+  </si>
+  <si>
+    <t>'CDD:260116', 'CDD:260116', 'CDD:260116', 'CDD:260116'</t>
+  </si>
+  <si>
+    <t>'CDD:223620', 'CDD:119389', 'CDD:119389', 'CDD:257599'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235554', 'CDD:213988', 'CDD:213988', 'CDD:213988', 'CDD:254393', 'CDD:258717', 'CDD:239931', 'CDD:239931', 'CDD:239931'</t>
+  </si>
+  <si>
+    <t>'CDD:238095', 'CDD:238095'</t>
+  </si>
+  <si>
+    <t>'CDD:223686', 'CDD:213993', 'CDD:213993'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:236517', 'CDD:99734', 'CDD:99734', 'CDD:99734', 'CDD:99734'</t>
+  </si>
+  <si>
+    <t>'CDD:224011', 'CDD:271430', 'CDD:187548', 'CDD:187548', 'CDD:187548', 'CDD:187548', 'CDD:187548'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:99740', 'CDD:99740', 'CDD:99740', 'CDD:99740'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:251270', 'CDD:100050', 'CDD:234265', 'CDD:100050', 'CDD:100050'</t>
+  </si>
+  <si>
+    <t>'CDD:275912', 'CDD:223515'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223515', 'CDD:275912'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:225153', 'CDD:263758'</t>
+  </si>
+  <si>
+    <t>, 'CDD:232920', 'CDD:238611', 'CDD:238611', 'CDD:238611', 'CDD:224896']</t>
+  </si>
+  <si>
+    <t>'CDD:234774', 'CDD:251987'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238889', 'CDD:238889', 'CDD:249761', 'CDD:238889'</t>
+  </si>
+  <si>
+    <t>'CDD:173954', 'CDD:173954', 'CDD:173954', 'CDD:173954'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223775', 'CDD:238260', 'CDD:238260', 'CDD:238260', 'CDD:238260'</t>
+  </si>
+  <si>
+    <t>'CDD:256588', 'CDD:233905', 'CDD:198033', 'CDD:252276', 'CDD:249725'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:225709'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:260846'</t>
+  </si>
+  <si>
+    <t>'CDD:225707'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:227306'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:227342', 'CDD:250219', 'CDD:250215'</t>
+  </si>
+  <si>
+    <t>'CDD:223296', 'CDD:206665', 'CDD:206665', 'CDD:206665', 'CDD:206665', 'CDD:206665', 'CDD:206665', 'CDD:206665', 'CDD:206665', 'CDD:206665'</t>
+  </si>
+  <si>
+    <t>'CDD:225418', 'CDD:249527'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:224252'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:275607'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:236585', 'CDD:276486'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:153246', 'CDD:153246'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235374', 'CDD:249858', 'CDD:251520', 'CDD:111646'</t>
+  </si>
+  <si>
+    <t>'CDD:224938', 'CDD:251093'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:225407', 'CDD:252049'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223715', 'CDD:119399', 'CDD:119399', 'CDD:119399', 'CDD:238030', 'CDD:238030', 'CDD:238030', 'CDD:238030'</t>
+  </si>
+  <si>
+    <t>'CDD:183285', 'CDD:239900', 'CDD:239900', 'CDD:239900', 'CDD:255792'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:239510', 'CDD:239510', 'CDD:239510'</t>
+  </si>
+  <si>
+    <t>'CDD:213561', 'CDD:238312', 'CDD:238312'</t>
+  </si>
+  <si>
+    <t>'CDD:236794', 'CDD:239934', 'CDD:239934', 'CDD:239934', 'CDD:238005', 'CDD:238005', 'CDD:238005', 'CDD:238034', 'CDD:238034', 'CDD:238034'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:234761', 'CDD:250373', 'CDD:187535', 'CDD:268288'</t>
+  </si>
+  <si>
+    <t>'CDD:179791'</t>
+  </si>
+  <si>
+    <t>'CDD:225406'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:130902', 'CDD:271629', 'CDD:271712', 'CDD:99778', 'CDD:99778', 'CDD:99778', 'CDD:99778', 'CDD:271757', 'CDD:257762'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:239100', 'CDD:239100', 'CDD:226359', 'CDD:276299', 'CDD:213179', 'CDD:213179', 'CDD:213179'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:179791', 'CDD:273260'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238953', 'CDD:238953'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:148918'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223792', 'CDD:250470', 'CDD:238351'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:226282', 'CDD:223675', 'CDD:100105', 'CDD:100105'</t>
+  </si>
+  <si>
+    <t>'CDD:235417'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:224671', 'CDD:252025'</t>
+  </si>
+  <si>
+    <t>'CDD:233695', 'CDD:257693', 'CDD:238487', 'CDD:238487', 'CDD:238487', 'CDD:238487'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:182661', 'CDD:238013', 'CDD:238013', 'CDD:238013', 'CDD:238013', 'CDD:238013', 'CDD:197771'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:224159'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223809', 'CDD:119392', 'CDD:119392'</t>
+  </si>
+  <si>
+    <t>'CDD:224671', 'CDD:252025'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:226910', 'CDD:239963', 'CDD:215020'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223396'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:234612', 'CDD:270364', 'CDD:270364', 'CDD:270364'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:257686'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238167', 'CDD:214692', 'CDD:238167', 'CDD:238167', 'CDD:238167', 'CDD:238034', 'CDD:238034', 'CDD:238034'</t>
+  </si>
+  <si>
+    <t>'CDD:129820', 'CDD:239200', 'CDD:239200', 'CDD:239200', 'CDD:239200', 'CDD:239200'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:179348'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238294', 'CDD:238294', 'CDD:238294', 'CDD:238294'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:99825', 'CDD:99825', 'CDD:99825', 'CDD:99825', 'CDD:255760'</t>
+  </si>
+  <si>
+    <t>'CDD:237585', 'CDD:189007', 'CDD:189007', 'CDD:189007'</t>
+  </si>
+  <si>
+    <t>'CDD:271796'</t>
+  </si>
+  <si>
+    <t>'CDD:223874', 'CDD:275504', 'CDD:238347'</t>
+  </si>
+  <si>
+    <t>'CDD:224033', 'CDD:275585', 'CDD:119348', 'CDD:119348', 'CDD:119348'</t>
+  </si>
+  <si>
+    <t>'CDD:224046', 'CDD:213202'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235418'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:234581'</t>
+  </si>
+  <si>
+    <t>'CDD:223877', 'CDD:250860', 'CDD:253112'</t>
+  </si>
+  <si>
+    <t>'CDD:234588'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223715', 'CDD:100122', 'CDD:100122', 'CDD:119399', 'CDD:119399', 'CDD:119399', 'CDD:238030', 'CDD:238030', 'CDD:238030', 'CDD:238030'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223816', 'CDD:238088', 'CDD:238088', 'CDD:238088', 'CDD:238088', 'CDD:238088', 'CDD:238225', 'CDD:238225'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:225844', 'CDD:252887', 'CDD:256667'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:242419'</t>
+  </si>
+  <si>
+    <t>'CDD:238310', 'CDD:238310', 'CDD:238310'</t>
+  </si>
+  <si>
+    <t>'CDD:275617'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:234818', 'CDD:275655'</t>
+  </si>
+  <si>
+    <t>'CDD:235091'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238607', 'CDD:238607', 'CDD:238607', 'CDD:238607'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:212141', 'CDD:212141'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223991', 'CDD:176195', 'CDD:176195', 'CDD:176195'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:212541', 'CDD:212541', 'CDD:212541'</t>
+  </si>
+  <si>
+    <t>'CDD:251482'</t>
+  </si>
+  <si>
+    <t>'CDD:258018', 'CDD:235615', 'CDD:254281', 'CDD:273336'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:237275', 'CDD:254281', 'CDD:216990'</t>
+  </si>
+  <si>
+    <t>'CDD:238213', 'CDD:238213', 'CDD:238213', 'CDD:238213'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:183226', 'CDD:276299', 'CDD:213179', 'CDD:213179', 'CDD:213179', 'CDD:213179', 'CDD:213179', 'CDD:213179', 'CDD:213179', 'CDD:254779'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394'</t>
+  </si>
+  <si>
+    <t>'CDD:224098', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394'</t>
+  </si>
+  <si>
+    <t>'CDD:276298', 'CDD:223737'</t>
+  </si>
+  <si>
+    <t>'CDD:223083'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:236490', 'CDD:198027', 'CDD:239906', 'CDD:239906', 'CDD:238548', 'CDD:238548', 'CDD:238548', 'CDD:238548', 'CDD:238548'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:235809', 'CDD:250534', 'CDD:249825', 'CDD:271901'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:226201'</t>
+  </si>
+  <si>
+    <t>'CDD:224719'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:276303', 'CDD:223620', 'CDD:119389', 'CDD:119389'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:153097', 'CDD:153097'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:178807'</t>
+  </si>
+  <si>
+    <t>'CDD:270377', 'CDD:270377', 'CDD:270377'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223539', 'CDD:132997', 'CDD:132997'</t>
+  </si>
+  <si>
+    <t>'CDD:223735', 'CDD:100051', 'CDD:100051', 'CDD:100051'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:179105', 'CDD:206732', 'CDD:206732', 'CDD:206732', 'CDD:206732', 'CDD:206732', 'CDD:206732', 'CDD:206732', 'CDD:206732', 'CDD:206732', 'CDD:206732', 'CDD:239660', 'CDD:258632'</t>
+  </si>
+  <si>
+    <t>'CDD:234598'</t>
+  </si>
+  <si>
+    <t>'CDD:240082', 'CDD:240082', 'CDD:240082'</t>
+  </si>
+  <si>
+    <t>'CDD:240083', 'CDD:240083'</t>
+  </si>
+  <si>
+    <t>'CDD:153219', 'CDD:171871', 'CDD:153219', 'CDD:153219', 'CDD:153219'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223357'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:226361', 'CDD:213226', 'CDD:213226', 'CDD:213226', 'CDD:213226', 'CDD:213226', 'CDD:213226', 'CDD:213226', 'CDD:213226'</t>
+  </si>
+  <si>
+    <t>'CDD:224099', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394', 'CDD:119394'</t>
+  </si>
+  <si>
+    <t>'CDD:270261', 'CDD:270261'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:179143', 'CDD:176463', 'CDD:176463', 'CDD:176463'</t>
+  </si>
+  <si>
+    <t>'CDD:133021', 'CDD:182252', 'CDD:133021', 'CDD:133021'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238285', 'CDD:238285', 'CDD:238285'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:238239', 'CDD:238239', 'CDD:238239', 'CDD:238239'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:240022', 'CDD:240022'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:191481', 'CDD:258590'</t>
+  </si>
+  <si>
+    <t>'CDD:257184'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223246', 'CDD:266653'</t>
+  </si>
+  <si>
+    <t>'CDD:234673', 'CDD:163665', 'CDD:163665', 'CDD:163665'</t>
+  </si>
+  <si>
+    <t>'CDD:100004', 'CDD:100004', 'CDD:100004'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:111368'</t>
+  </si>
+  <si>
+    <t>'CDD:236346', 'CDD:100105', 'CDD:100105', 'CDD:253997'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:236137', 'CDD:238062', 'CDD:238062', 'CDD:238062', 'CDD:238062', 'CDD:145978', 'CDD:251739', 'CDD:257328', 'CDD:237994', 'CDD:237994', 'CDD:237994'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:225629', 'CDD:129010'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:225567', 'CDD:133475', 'CDD:133475', 'CDD:133475', 'CDD:133475'</t>
+  </si>
+  <si>
+    <t>'CDD:234814', 'CDD:238835', 'CDD:238835', 'CDD:238835'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CDD:223358', 'CDD:249824', 'CDD:133453', 'CDD:133453'</t>
+  </si>
+  <si>
+    <t>CDD:234808'</t>
   </si>
 </sst>
 </file>
@@ -8375,7 +8915,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8388,6 +8928,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8731,10 +9274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V215"/>
+  <dimension ref="A1:W215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8760,10 +9303,11 @@
     <col min="20" max="20" width="25.7109375" style="2" customWidth="1"/>
     <col min="21" max="21" width="33.28515625" style="2" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="23" max="23" width="30.28515625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8830,8 +9374,11 @@
       <c r="V1" s="3" t="s">
         <v>2195</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="3" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8886,8 +9433,11 @@
       <c r="V2" s="2" t="s">
         <v>2196</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="2" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -8948,8 +9498,11 @@
       <c r="V3" s="2" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -9007,8 +9560,11 @@
       <c r="V4" s="2" t="s">
         <v>2199</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="2" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -9046,7 +9602,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -9107,8 +9663,11 @@
       <c r="V6" s="2" t="s">
         <v>2201</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="2" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -9131,7 +9690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1345</v>
       </c>
@@ -9145,7 +9704,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1342</v>
       </c>
@@ -9159,7 +9718,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -9205,8 +9764,11 @@
       <c r="V10" s="2" t="s">
         <v>2203</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="2" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -9261,8 +9823,11 @@
       <c r="V11" s="2" t="s">
         <v>2205</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="2" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -9329,8 +9894,11 @@
       <c r="V12" s="2" t="s">
         <v>2206</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="2" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -9370,8 +9938,11 @@
       <c r="R13" s="2" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="2" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -9417,8 +9988,11 @@
       <c r="V14" s="2" t="s">
         <v>2208</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="2" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -9455,8 +10029,11 @@
       <c r="R15" s="2" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="2" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -9505,8 +10082,11 @@
       <c r="V16" s="2" t="s">
         <v>2210</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="2" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -9543,8 +10123,11 @@
       <c r="R17" s="2" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="2" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>97</v>
       </c>
@@ -9581,8 +10164,11 @@
       <c r="R18" s="2" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="2" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>103</v>
       </c>
@@ -9628,8 +10214,11 @@
       <c r="V19" s="2" t="s">
         <v>2212</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="2" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>109</v>
       </c>
@@ -9675,8 +10264,11 @@
       <c r="V20" s="2" t="s">
         <v>2213</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="2" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>115</v>
       </c>
@@ -9737,8 +10329,11 @@
       <c r="V21" s="2" t="s">
         <v>2215</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="2" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>123</v>
       </c>
@@ -9775,8 +10370,11 @@
       <c r="R22" s="2" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="2" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>128</v>
       </c>
@@ -9840,8 +10438,11 @@
       <c r="V23" s="2" t="s">
         <v>2217</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="2" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>137</v>
       </c>
@@ -9881,8 +10482,11 @@
       <c r="R24" s="2" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="2" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
@@ -9928,8 +10532,11 @@
       <c r="V25" s="2" t="s">
         <v>2219</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="2" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -9975,8 +10582,11 @@
       <c r="V26" s="2" t="s">
         <v>2221</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="2" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -10013,8 +10623,11 @@
       <c r="R27" s="2" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W27" s="2" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>159</v>
       </c>
@@ -10072,8 +10685,11 @@
       <c r="V28" s="2" t="s">
         <v>2223</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="2" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>167</v>
       </c>
@@ -10119,8 +10735,11 @@
       <c r="V29" s="2" t="s">
         <v>2225</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="2" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -10181,8 +10800,11 @@
       <c r="V30" s="2" t="s">
         <v>2226</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="2" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>181</v>
       </c>
@@ -10231,8 +10853,11 @@
       <c r="V31" s="2" t="s">
         <v>2228</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="2" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>188</v>
       </c>
@@ -10293,8 +10918,11 @@
       <c r="V32" s="2" t="s">
         <v>2230</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W32" s="2" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>196</v>
       </c>
@@ -10340,8 +10968,11 @@
       <c r="V33" s="2" t="s">
         <v>2232</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="2" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>203</v>
       </c>
@@ -10390,8 +11021,11 @@
       <c r="V34" s="2" t="s">
         <v>2234</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="2" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>211</v>
       </c>
@@ -10446,8 +11080,11 @@
       <c r="V35" s="2" t="s">
         <v>2236</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="2" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>218</v>
       </c>
@@ -10502,8 +11139,11 @@
       <c r="V36" s="2" t="s">
         <v>2238</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="2" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>226</v>
       </c>
@@ -10541,7 +11181,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>231</v>
       </c>
@@ -10596,8 +11236,11 @@
       <c r="V38" s="2" t="s">
         <v>2240</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="2" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>239</v>
       </c>
@@ -10661,8 +11304,11 @@
       <c r="V39" s="2" t="s">
         <v>2242</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="2" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>248</v>
       </c>
@@ -10700,7 +11346,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>254</v>
       </c>
@@ -10737,8 +11383,11 @@
       <c r="R41" s="2" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="2" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>260</v>
       </c>
@@ -10799,8 +11448,11 @@
       <c r="V42" s="2" t="s">
         <v>2244</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W42" s="2" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>267</v>
       </c>
@@ -10837,8 +11489,11 @@
       <c r="R43" s="2" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W43" s="2" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>274</v>
       </c>
@@ -10878,8 +11533,11 @@
       <c r="R44" s="2" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="2" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>280</v>
       </c>
@@ -10922,8 +11580,11 @@
       <c r="V45" s="2" t="s">
         <v>2246</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W45" s="2" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>286</v>
       </c>
@@ -10969,8 +11630,11 @@
       <c r="V46" s="2" t="s">
         <v>2248</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="2" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>292</v>
       </c>
@@ -11019,8 +11683,11 @@
       <c r="V47" s="2" t="s">
         <v>2250</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W47" s="2" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>298</v>
       </c>
@@ -11063,8 +11730,11 @@
       <c r="V48" s="2" t="s">
         <v>2252</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48" s="2" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>304</v>
       </c>
@@ -11125,8 +11795,11 @@
       <c r="V49" s="2" t="s">
         <v>2254</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W49" s="2" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>312</v>
       </c>
@@ -11175,8 +11848,11 @@
       <c r="V50" s="2" t="s">
         <v>2256</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W50" s="2" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>319</v>
       </c>
@@ -11214,7 +11890,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>324</v>
       </c>
@@ -11257,8 +11933,11 @@
       <c r="V52" s="2" t="s">
         <v>2258</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W52" s="2" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>330</v>
       </c>
@@ -11316,8 +11995,11 @@
       <c r="V53" s="2" t="s">
         <v>2260</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W53" s="2" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>337</v>
       </c>
@@ -11339,8 +12021,11 @@
       <c r="P54" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W54" s="2" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>342</v>
       </c>
@@ -11392,8 +12077,11 @@
       <c r="V55" s="2" t="s">
         <v>2262</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W55" s="2" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>350</v>
       </c>
@@ -11454,8 +12142,11 @@
       <c r="V56" s="2" t="s">
         <v>2264</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>359</v>
       </c>
@@ -11498,8 +12189,11 @@
       <c r="V57" s="2" t="s">
         <v>2266</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W57" s="2" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>365</v>
       </c>
@@ -11560,8 +12254,11 @@
       <c r="V58" s="2" t="s">
         <v>2268</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W58" s="2" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>374</v>
       </c>
@@ -11625,8 +12322,11 @@
       <c r="V59" s="2" t="s">
         <v>2270</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="2" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>383</v>
       </c>
@@ -11681,8 +12381,11 @@
       <c r="V60" s="2" t="s">
         <v>2272</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W60" s="2" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1348</v>
       </c>
@@ -11696,7 +12399,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>390</v>
       </c>
@@ -11757,8 +12460,11 @@
       <c r="V62" s="2" t="s">
         <v>2274</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W62" s="2" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>396</v>
       </c>
@@ -11804,8 +12510,11 @@
       <c r="V63" s="2" t="s">
         <v>2276</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W63" s="2" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>401</v>
       </c>
@@ -11843,7 +12552,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>406</v>
       </c>
@@ -11892,8 +12601,11 @@
       <c r="V65" s="2" t="s">
         <v>2278</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W65" s="2" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>412</v>
       </c>
@@ -11951,8 +12663,11 @@
       <c r="V66" s="2" t="s">
         <v>2280</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W66" s="2" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>421</v>
       </c>
@@ -11995,8 +12710,11 @@
       <c r="V67" s="2" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="2" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>428</v>
       </c>
@@ -12042,8 +12760,11 @@
       <c r="V68" s="2" t="s">
         <v>2284</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W68" s="2" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>434</v>
       </c>
@@ -12080,8 +12801,11 @@
       <c r="R69" s="2" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W69" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>440</v>
       </c>
@@ -12118,8 +12842,11 @@
       <c r="R70" s="2" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W70" s="2" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>446</v>
       </c>
@@ -12162,8 +12889,11 @@
       <c r="V71" s="2" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W71" s="2" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>451</v>
       </c>
@@ -12206,8 +12936,11 @@
       <c r="V72" s="2" t="s">
         <v>2286</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W72" s="2" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>456</v>
       </c>
@@ -12259,8 +12992,11 @@
       <c r="V73" s="2" t="s">
         <v>2288</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W73" s="2" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>462</v>
       </c>
@@ -12312,8 +13048,11 @@
       <c r="V74" s="2" t="s">
         <v>2290</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W74" s="2" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>469</v>
       </c>
@@ -12356,8 +13095,11 @@
       <c r="R75" s="2" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W75" s="2" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>475</v>
       </c>
@@ -12421,8 +13163,11 @@
       <c r="V76" s="2" t="s">
         <v>2292</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W76" s="2" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>484</v>
       </c>
@@ -12486,8 +13231,11 @@
       <c r="V77" s="2" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W77" s="2" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>493</v>
       </c>
@@ -12533,8 +13281,11 @@
       <c r="V78" s="2" t="s">
         <v>2296</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W78" s="2" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>499</v>
       </c>
@@ -12574,8 +13325,11 @@
       <c r="R79" s="2" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W79" s="2" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>505</v>
       </c>
@@ -12615,8 +13369,11 @@
       <c r="R80" s="2" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W80" s="2" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>511</v>
       </c>
@@ -12656,8 +13413,11 @@
       <c r="R81" s="2" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W81" s="2" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>517</v>
       </c>
@@ -12697,8 +13457,11 @@
       <c r="R82" s="2" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W82" s="2" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>523</v>
       </c>
@@ -12750,8 +13513,11 @@
       <c r="V83" s="2" t="s">
         <v>2298</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W83" s="2" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>530</v>
       </c>
@@ -12800,8 +13566,11 @@
       <c r="V84" s="2" t="s">
         <v>2300</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W84" s="2" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>538</v>
       </c>
@@ -12844,8 +13613,11 @@
       <c r="V85" s="2" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W85" s="2" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>544</v>
       </c>
@@ -12885,8 +13657,11 @@
       <c r="R86" s="2" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W86" s="2" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>550</v>
       </c>
@@ -12923,8 +13698,11 @@
       <c r="R87" s="2" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W87" s="2" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>555</v>
       </c>
@@ -12976,8 +13754,11 @@
       <c r="V88" s="2" t="s">
         <v>2304</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W88" s="2" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>562</v>
       </c>
@@ -13026,8 +13807,11 @@
       <c r="V89" s="2" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W89" s="2" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>569</v>
       </c>
@@ -13088,8 +13872,11 @@
       <c r="V90" s="2" t="s">
         <v>2308</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W90" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>577</v>
       </c>
@@ -13144,8 +13931,11 @@
       <c r="V91" s="2" t="s">
         <v>2310</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W91" s="2" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>1351</v>
       </c>
@@ -13159,7 +13949,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>585</v>
       </c>
@@ -13197,7 +13987,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>590</v>
       </c>
@@ -13246,8 +14036,11 @@
       <c r="V94" s="2" t="s">
         <v>2312</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W94" s="2" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>596</v>
       </c>
@@ -13296,8 +14089,11 @@
       <c r="V95" s="2" t="s">
         <v>2314</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W95" s="2" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>602</v>
       </c>
@@ -13346,8 +14142,11 @@
       <c r="V96" s="2" t="s">
         <v>2316</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W96" s="2" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>609</v>
       </c>
@@ -13393,8 +14192,11 @@
       <c r="V97" s="2" t="s">
         <v>2318</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W97" s="2" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>615</v>
       </c>
@@ -13446,8 +14248,11 @@
       <c r="V98" s="2" t="s">
         <v>2319</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W98" s="2" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>622</v>
       </c>
@@ -13499,8 +14304,11 @@
       <c r="V99" s="2" t="s">
         <v>2321</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W99" s="2" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>629</v>
       </c>
@@ -13564,8 +14372,11 @@
       <c r="V100" s="2" t="s">
         <v>2323</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W100" s="2" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>638</v>
       </c>
@@ -13602,8 +14413,11 @@
       <c r="R101" s="2" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W101" s="2" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>643</v>
       </c>
@@ -13641,7 +14455,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>648</v>
       </c>
@@ -13678,8 +14492,11 @@
       <c r="R103" s="2" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W103" s="2" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>653</v>
       </c>
@@ -13717,7 +14534,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>658</v>
       </c>
@@ -13766,8 +14583,11 @@
       <c r="V105" s="2" t="s">
         <v>2325</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W105" s="2" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>664</v>
       </c>
@@ -13805,7 +14625,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>669</v>
       </c>
@@ -13843,7 +14663,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>674</v>
       </c>
@@ -13865,8 +14685,11 @@
       <c r="P108" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W108" s="2" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>678</v>
       </c>
@@ -13909,8 +14732,11 @@
       <c r="R109" s="2" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W109" s="2" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>686</v>
       </c>
@@ -13965,8 +14791,11 @@
       <c r="V110" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W110" s="2" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>693</v>
       </c>
@@ -14003,8 +14832,11 @@
       <c r="R111" s="2" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W111" s="2" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>698</v>
       </c>
@@ -14059,8 +14891,11 @@
       <c r="V112" s="2" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W112" s="2" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>704</v>
       </c>
@@ -14109,8 +14944,11 @@
       <c r="V113" s="2" t="s">
         <v>2405</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W113" s="2" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>709</v>
       </c>
@@ -14168,8 +15006,11 @@
       <c r="V114" s="2" t="s">
         <v>2406</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W114" s="2" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>717</v>
       </c>
@@ -14206,8 +15047,11 @@
       <c r="R115" s="2" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W115" s="2" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>722</v>
       </c>
@@ -14251,7 +15095,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>727</v>
       </c>
@@ -14291,8 +15135,11 @@
       <c r="R117" s="2" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W117" s="2" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>733</v>
       </c>
@@ -14347,8 +15194,11 @@
       <c r="V118" s="2" t="s">
         <v>2408</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W118" s="2" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>740</v>
       </c>
@@ -14385,8 +15235,11 @@
       <c r="R119" s="2" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W119" s="2" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>745</v>
       </c>
@@ -14424,7 +15277,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>750</v>
       </c>
@@ -14473,8 +15326,11 @@
       <c r="V121" s="2" t="s">
         <v>2409</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W121" s="2" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>756</v>
       </c>
@@ -14523,8 +15379,11 @@
       <c r="V122" s="2" t="s">
         <v>2410</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W122" s="2" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>762</v>
       </c>
@@ -14570,8 +15429,11 @@
       <c r="V123" s="2" t="s">
         <v>2411</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W123" s="2" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>768</v>
       </c>
@@ -14617,8 +15479,11 @@
       <c r="V124" s="2" t="s">
         <v>2412</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W124" s="2" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>774</v>
       </c>
@@ -14682,8 +15547,11 @@
       <c r="V125" s="2" t="s">
         <v>2413</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W125" s="2" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>783</v>
       </c>
@@ -14705,8 +15573,11 @@
       <c r="P126" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W126" s="2" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>1354</v>
       </c>
@@ -14720,7 +15591,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>787</v>
       </c>
@@ -14763,8 +15634,11 @@
       <c r="V128" s="2" t="s">
         <v>2414</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W128" s="2" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>793</v>
       </c>
@@ -14810,8 +15684,11 @@
       <c r="V129" s="2" t="s">
         <v>2415</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W129" s="2" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>799</v>
       </c>
@@ -14833,8 +15710,11 @@
       <c r="P130" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W130" s="2" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>804</v>
       </c>
@@ -14892,8 +15772,11 @@
       <c r="V131" s="2" t="s">
         <v>2416</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W131" s="2" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>813</v>
       </c>
@@ -14942,8 +15825,11 @@
       <c r="V132" s="2" t="s">
         <v>2417</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W132" s="2" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>818</v>
       </c>
@@ -14989,8 +15875,11 @@
       <c r="V133" s="2" t="s">
         <v>2418</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W133" s="2" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>824</v>
       </c>
@@ -15045,8 +15934,11 @@
       <c r="V134" s="2" t="s">
         <v>2419</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W134" s="2" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>832</v>
       </c>
@@ -15084,7 +15976,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>837</v>
       </c>
@@ -15122,7 +16014,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>842</v>
       </c>
@@ -15160,7 +16052,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>847</v>
       </c>
@@ -15197,8 +16089,11 @@
       <c r="R138" s="2" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W138" s="2" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>852</v>
       </c>
@@ -15236,7 +16131,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>858</v>
       </c>
@@ -15274,7 +16169,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>863</v>
       </c>
@@ -15320,8 +16215,11 @@
       <c r="V141" s="2" t="s">
         <v>2420</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W141" s="2" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>870</v>
       </c>
@@ -15367,8 +16265,11 @@
       <c r="V142" s="2" t="s">
         <v>2421</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W142" s="2" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>876</v>
       </c>
@@ -15411,8 +16312,11 @@
       <c r="V143" s="2" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W143" s="2" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>882</v>
       </c>
@@ -15467,8 +16371,11 @@
       <c r="V144" s="2" t="s">
         <v>2423</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W144" s="2" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>890</v>
       </c>
@@ -15520,8 +16427,11 @@
       <c r="V145" s="2" t="s">
         <v>2424</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W145" s="2" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>898</v>
       </c>
@@ -15573,8 +16483,11 @@
       <c r="V146" s="2" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W146" s="2" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>906</v>
       </c>
@@ -15629,8 +16542,11 @@
       <c r="V147" s="2" t="s">
         <v>2423</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W147" s="2" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>914</v>
       </c>
@@ -15682,8 +16598,11 @@
       <c r="V148" s="2" t="s">
         <v>2426</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W148" s="2" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>919</v>
       </c>
@@ -15729,8 +16648,11 @@
       <c r="V149" s="2" t="s">
         <v>2427</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W149" s="2" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>925</v>
       </c>
@@ -15767,8 +16689,11 @@
       <c r="R150" s="2" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W150" s="2" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>930</v>
       </c>
@@ -15805,8 +16730,11 @@
       <c r="R151" s="2" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W151" s="2" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>935</v>
       </c>
@@ -15846,8 +16774,11 @@
       <c r="R152" s="2" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W152" s="2" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>942</v>
       </c>
@@ -15899,8 +16830,11 @@
       <c r="V153" s="2" t="s">
         <v>2428</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W153" s="2" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>948</v>
       </c>
@@ -15952,8 +16886,11 @@
       <c r="V154" s="2" t="s">
         <v>2429</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W154" s="2" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>954</v>
       </c>
@@ -16005,8 +16942,11 @@
       <c r="V155" s="2" t="s">
         <v>2429</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W155" s="2" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>962</v>
       </c>
@@ -16055,8 +16995,11 @@
       <c r="V156" s="2" t="s">
         <v>2430</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W156" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>969</v>
       </c>
@@ -16120,8 +17063,11 @@
       <c r="V157" s="2" t="s">
         <v>2431</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W157" s="2" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>978</v>
       </c>
@@ -16170,8 +17116,11 @@
       <c r="V158" s="2" t="s">
         <v>2432</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W158" s="2" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>984</v>
       </c>
@@ -16208,8 +17157,11 @@
       <c r="R159" s="2" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W159" s="2" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>990</v>
       </c>
@@ -16252,8 +17204,11 @@
       <c r="R160" s="2" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W160" s="2" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>995</v>
       </c>
@@ -16308,8 +17263,11 @@
       <c r="V161" s="2" t="s">
         <v>2468</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W161" s="2" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>1003</v>
       </c>
@@ -16364,8 +17322,11 @@
       <c r="V162" s="2" t="s">
         <v>2433</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W162" s="2" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>1011</v>
       </c>
@@ -16420,8 +17381,11 @@
       <c r="V163" s="2" t="s">
         <v>2470</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W163" s="2" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>1019</v>
       </c>
@@ -16473,8 +17437,11 @@
       <c r="V164" s="2" t="s">
         <v>2434</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W164" s="2" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>1025</v>
       </c>
@@ -16520,8 +17487,11 @@
       <c r="R165" s="2" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W165" s="2" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>1031</v>
       </c>
@@ -16567,8 +17537,11 @@
       <c r="R166" s="2" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W166" s="2" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>1036</v>
       </c>
@@ -16617,8 +17590,11 @@
       <c r="V167" s="2" t="s">
         <v>2435</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W167" s="2" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>1043</v>
       </c>
@@ -16667,8 +17643,11 @@
       <c r="V168" s="2" t="s">
         <v>2436</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W168" s="2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>1049</v>
       </c>
@@ -16723,8 +17702,11 @@
       <c r="V169" s="2" t="s">
         <v>2437</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W169" s="2" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>1057</v>
       </c>
@@ -16788,8 +17770,11 @@
       <c r="V170" s="2" t="s">
         <v>2438</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W170" s="2" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>1065</v>
       </c>
@@ -16826,8 +17811,11 @@
       <c r="R171" s="2" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W171" s="2" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>1071</v>
       </c>
@@ -16876,8 +17864,11 @@
       <c r="V172" s="2" t="s">
         <v>2439</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W172" s="2" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1077</v>
       </c>
@@ -16926,8 +17917,11 @@
       <c r="V173" s="2" t="s">
         <v>2440</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W173" s="2" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>1082</v>
       </c>
@@ -16964,8 +17958,11 @@
       <c r="R174" s="2" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W174" s="2" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>1087</v>
       </c>
@@ -17014,8 +18011,11 @@
       <c r="V175" s="2" t="s">
         <v>2441</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W175" s="2" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>1093</v>
       </c>
@@ -17064,8 +18064,11 @@
       <c r="V176" s="2" t="s">
         <v>2442</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W176" s="2" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>1099</v>
       </c>
@@ -17108,8 +18111,11 @@
       <c r="V177" s="2" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W177" s="2" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>1106</v>
       </c>
@@ -17146,8 +18152,11 @@
       <c r="R178" s="2" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W178" s="2" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>1112</v>
       </c>
@@ -17196,8 +18205,11 @@
       <c r="V179" s="2" t="s">
         <v>2444</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W179" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>1120</v>
       </c>
@@ -17261,8 +18273,11 @@
       <c r="V180" s="2" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W180" s="2" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>1129</v>
       </c>
@@ -17317,8 +18332,11 @@
       <c r="V181" s="2" t="s">
         <v>2446</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W181" s="2" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>1136</v>
       </c>
@@ -17379,8 +18397,11 @@
       <c r="V182" s="2" t="s">
         <v>2447</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W182" s="2" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>1144</v>
       </c>
@@ -17441,8 +18462,11 @@
       <c r="V183" s="2" t="s">
         <v>2448</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W183" s="2" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>1152</v>
       </c>
@@ -17491,8 +18515,11 @@
       <c r="V184" s="2" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W184" s="2" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>1158</v>
       </c>
@@ -17547,8 +18574,11 @@
       <c r="V185" s="2" t="s">
         <v>2450</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W185" s="2" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>1164</v>
       </c>
@@ -17594,8 +18624,11 @@
       <c r="R186" s="2" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W186" s="2" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>1170</v>
       </c>
@@ -17641,8 +18674,11 @@
       <c r="R187" s="2" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W187" s="2" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>1357</v>
       </c>
@@ -17656,7 +18692,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>1176</v>
       </c>
@@ -17717,8 +18753,11 @@
       <c r="V189" s="2" t="s">
         <v>2451</v>
       </c>
-    </row>
-    <row r="190" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W189" s="2" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>1184</v>
       </c>
@@ -17776,8 +18815,11 @@
       <c r="V190" s="2" t="s">
         <v>2452</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W190" s="2" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>1191</v>
       </c>
@@ -17832,8 +18874,11 @@
       <c r="V191" s="2" t="s">
         <v>2453</v>
       </c>
-    </row>
-    <row r="192" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W191" s="2" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>1198</v>
       </c>
@@ -17871,7 +18916,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>1203</v>
       </c>
@@ -17926,8 +18971,11 @@
       <c r="V193" s="2" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="194" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W193" s="2" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>1210</v>
       </c>
@@ -17976,8 +19024,11 @@
       <c r="V194" s="2" t="s">
         <v>2455</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W194" s="2" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>1217</v>
       </c>
@@ -18014,8 +19065,11 @@
       <c r="R195" s="2" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="196" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W195" s="2" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>1224</v>
       </c>
@@ -18053,7 +19107,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>1229</v>
       </c>
@@ -18096,8 +19150,11 @@
       <c r="V197" s="2" t="s">
         <v>2456</v>
       </c>
-    </row>
-    <row r="198" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W197" s="2" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>1234</v>
       </c>
@@ -18135,7 +19192,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>1239</v>
       </c>
@@ -18173,7 +19230,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>1244</v>
       </c>
@@ -18222,8 +19279,11 @@
       <c r="V200" s="2" t="s">
         <v>2457</v>
       </c>
-    </row>
-    <row r="201" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W200" s="2" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>1250</v>
       </c>
@@ -18284,8 +19344,11 @@
       <c r="V201" s="2" t="s">
         <v>2458</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W201" s="2" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>1259</v>
       </c>
@@ -18328,8 +19391,11 @@
       <c r="V202" s="2" t="s">
         <v>2459</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W202" s="2" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>1265</v>
       </c>
@@ -18372,8 +19438,11 @@
       <c r="V203" s="2" t="s">
         <v>2460</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W203" s="2" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>1271</v>
       </c>
@@ -18428,8 +19497,11 @@
       <c r="V204" s="2" t="s">
         <v>2461</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W204" s="2" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>1279</v>
       </c>
@@ -18490,8 +19562,11 @@
       <c r="V205" s="2" t="s">
         <v>2462</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W205" s="2" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>1286</v>
       </c>
@@ -18534,8 +19609,11 @@
       <c r="V206" s="2" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W206" s="2" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>1291</v>
       </c>
@@ -18581,8 +19659,11 @@
       <c r="V207" s="2" t="s">
         <v>2464</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W207" s="2" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>1360</v>
       </c>
@@ -18596,7 +19677,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1297</v>
       </c>
@@ -18657,8 +19738,11 @@
       <c r="V209" s="2" t="s">
         <v>2465</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W209" s="2" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>1306</v>
       </c>
@@ -18713,8 +19797,11 @@
       <c r="V210" s="2" t="s">
         <v>2466</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W210" s="2" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>1314</v>
       </c>
@@ -18778,8 +19865,11 @@
       <c r="V211" s="2" t="s">
         <v>2467</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W211" s="5" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>1327</v>
       </c>
@@ -18799,7 +19889,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>1331</v>
       </c>
@@ -18819,7 +19909,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>1335</v>
       </c>
@@ -18839,7 +19929,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>1339</v>
       </c>
